--- a/Documentatie/200108 BR Sjabloon Strokenplanning.xlsx
+++ b/Documentatie/200108 BR Sjabloon Strokenplanning.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ramon\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SchoolProject\RPM-Proftaak\Documentatie\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F277FBA2-499D-4C00-A9BE-1666C19CB5E2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7ABEE6CF-66FC-4412-9543-71E1A3FDB158}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Planning" sheetId="4" r:id="rId1"/>
@@ -156,7 +156,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="23">
   <si>
     <t>NB: lees alle 6 tooltips/notes (hover over cellen met rood driehoekje).</t>
   </si>
@@ -188,15 +188,6 @@
     <t>Gesprek met de opdrachtgever</t>
   </si>
   <si>
-    <t>Programma van eisen maken</t>
-  </si>
-  <si>
-    <t>Programma van eisen bespreken</t>
-  </si>
-  <si>
-    <t>Programma van eisen gereed</t>
-  </si>
-  <si>
     <t>Aantal uren te besteden per dag</t>
   </si>
   <si>
@@ -224,10 +215,16 @@
     <t>Uit te voeren door: Ramon van Veghel, Philip Klok en Melanie Hoogenboom</t>
   </si>
   <si>
-    <t>Start datum:10-05-2021</t>
+    <t>Start datum:</t>
   </si>
   <si>
-    <t>Projectplan maken</t>
+    <t>Programma van eisen</t>
+  </si>
+  <si>
+    <t>Projectplan</t>
+  </si>
+  <si>
+    <t>Functioneel ontwerp</t>
   </si>
 </sst>
 </file>
@@ -297,7 +294,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -313,6 +310,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -791,7 +794,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="67">
+  <cellXfs count="72">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -952,6 +955,21 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1454,22 +1472,22 @@
       <pane xSplit="5" ySplit="7" topLeftCell="F8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C5" sqref="C5"/>
       <selection pane="bottomLeft" activeCell="C5" sqref="C5"/>
-      <selection pane="bottomRight" activeCell="D15" sqref="D15"/>
+      <selection pane="bottomRight" activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="30.44140625" customWidth="1"/>
+    <col min="1" max="1" width="3.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.42578125" customWidth="1"/>
     <col min="3" max="3" width="12" customWidth="1"/>
-    <col min="5" max="5" width="16.109375" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="16.140625" hidden="1" customWidth="1"/>
     <col min="6" max="33" width="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A1" s="34"/>
       <c r="B1" s="35" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C1" s="35"/>
       <c r="D1" s="35"/>
@@ -1503,10 +1521,10 @@
       <c r="AF1" s="37"/>
       <c r="AG1" s="38"/>
     </row>
-    <row r="2" spans="1:33" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:33" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="39"/>
       <c r="B2" s="28" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C2" s="28"/>
       <c r="D2" s="28"/>
@@ -1541,12 +1559,14 @@
       <c r="AF2" s="1"/>
       <c r="AG2" s="40"/>
     </row>
-    <row r="3" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A3" s="39"/>
       <c r="B3" s="28" t="s">
-        <v>22</v>
-      </c>
-      <c r="C3" s="64"/>
+        <v>19</v>
+      </c>
+      <c r="C3" s="64">
+        <v>44326</v>
+      </c>
       <c r="D3" s="28"/>
       <c r="E3" s="5"/>
       <c r="F3" s="2"/>
@@ -1578,7 +1598,7 @@
       <c r="AF3" s="2"/>
       <c r="AG3" s="41"/>
     </row>
-    <row r="4" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A4" s="42"/>
       <c r="B4" s="43"/>
       <c r="C4" s="43"/>
@@ -1621,7 +1641,7 @@
       <c r="AF4" s="8"/>
       <c r="AG4" s="10"/>
     </row>
-    <row r="5" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A5" s="46"/>
       <c r="B5" s="11"/>
       <c r="C5" s="12"/>
@@ -1631,94 +1651,94 @@
       <c r="E5" s="14"/>
       <c r="F5" s="14">
         <f>Uren!$C$5</f>
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="G5" s="14">
         <f>Uren!$C$6</f>
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="H5" s="14">
         <f>Uren!$C$7</f>
-        <v>8</v>
-      </c>
-      <c r="I5" s="14">
+        <v>1.5</v>
+      </c>
+      <c r="I5" s="67">
         <f>Uren!$C$8</f>
-        <v>8</v>
-      </c>
-      <c r="J5" s="14">
+        <v>2.5</v>
+      </c>
+      <c r="J5" s="67">
         <f>Uren!$C$9</f>
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="K5" s="14"/>
       <c r="L5" s="14"/>
       <c r="M5" s="14">
         <f>Uren!$C$5</f>
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="N5" s="14">
         <f>Uren!$C$6</f>
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="O5" s="14">
         <f>Uren!$C$7</f>
-        <v>8</v>
+        <v>1.5</v>
       </c>
       <c r="P5" s="14">
         <f>Uren!$C$8</f>
-        <v>8</v>
+        <v>2.5</v>
       </c>
       <c r="Q5" s="14">
         <f>Uren!$C$9</f>
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="R5" s="14"/>
       <c r="S5" s="14"/>
       <c r="T5" s="14">
         <f>Uren!$C$5</f>
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="U5" s="14">
         <f>Uren!$C$6</f>
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="V5" s="14">
         <f>Uren!$C$7</f>
-        <v>8</v>
+        <v>1.5</v>
       </c>
       <c r="W5" s="14">
         <f>Uren!$C$8</f>
-        <v>8</v>
+        <v>2.5</v>
       </c>
       <c r="X5" s="14">
         <f>Uren!$C$9</f>
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="Y5" s="14"/>
       <c r="Z5" s="14"/>
       <c r="AA5" s="14">
         <f>Uren!$C$5</f>
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="AB5" s="14">
         <f>Uren!$C$6</f>
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="AC5" s="14">
         <f>Uren!$C$7</f>
-        <v>8</v>
+        <v>1.5</v>
       </c>
       <c r="AD5" s="14">
         <f>Uren!$C$8</f>
-        <v>8</v>
+        <v>2.5</v>
       </c>
       <c r="AE5" s="14">
         <f>Uren!$C$9</f>
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="AF5" s="14"/>
       <c r="AG5" s="47"/>
     </row>
-    <row r="6" spans="1:33" ht="63" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:33" ht="63" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="48"/>
       <c r="B6" s="15" t="s">
         <v>6</v>
@@ -1732,118 +1752,118 @@
       <c r="E6" s="29"/>
       <c r="F6" s="18">
         <f>C3</f>
-        <v>0</v>
+        <v>44326</v>
       </c>
       <c r="G6" s="18">
         <f>F6+1</f>
-        <v>1</v>
+        <v>44327</v>
       </c>
       <c r="H6" s="18">
         <f>G6+1</f>
-        <v>2</v>
-      </c>
-      <c r="I6" s="18">
-        <f t="shared" ref="H6:AG6" si="0">H6+1</f>
-        <v>3</v>
-      </c>
-      <c r="J6" s="18">
+        <v>44328</v>
+      </c>
+      <c r="I6" s="68">
+        <f t="shared" ref="I6:AG6" si="0">H6+1</f>
+        <v>44329</v>
+      </c>
+      <c r="J6" s="68">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>44330</v>
       </c>
       <c r="K6" s="18">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>44331</v>
       </c>
       <c r="L6" s="18">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>44332</v>
       </c>
       <c r="M6" s="18">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>44333</v>
       </c>
       <c r="N6" s="18">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>44334</v>
       </c>
       <c r="O6" s="18">
         <f t="shared" si="0"/>
-        <v>9</v>
+        <v>44335</v>
       </c>
       <c r="P6" s="18">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>44336</v>
       </c>
       <c r="Q6" s="18">
         <f t="shared" si="0"/>
-        <v>11</v>
+        <v>44337</v>
       </c>
       <c r="R6" s="18">
         <f t="shared" si="0"/>
-        <v>12</v>
+        <v>44338</v>
       </c>
       <c r="S6" s="18">
         <f t="shared" si="0"/>
-        <v>13</v>
+        <v>44339</v>
       </c>
       <c r="T6" s="18">
         <f t="shared" si="0"/>
-        <v>14</v>
+        <v>44340</v>
       </c>
       <c r="U6" s="18">
         <f t="shared" si="0"/>
-        <v>15</v>
+        <v>44341</v>
       </c>
       <c r="V6" s="18">
         <f t="shared" si="0"/>
-        <v>16</v>
+        <v>44342</v>
       </c>
       <c r="W6" s="18">
         <f t="shared" si="0"/>
-        <v>17</v>
+        <v>44343</v>
       </c>
       <c r="X6" s="18">
         <f t="shared" si="0"/>
-        <v>18</v>
+        <v>44344</v>
       </c>
       <c r="Y6" s="18">
         <f t="shared" si="0"/>
-        <v>19</v>
+        <v>44345</v>
       </c>
       <c r="Z6" s="18">
         <f t="shared" si="0"/>
-        <v>20</v>
+        <v>44346</v>
       </c>
       <c r="AA6" s="18">
         <f t="shared" si="0"/>
-        <v>21</v>
+        <v>44347</v>
       </c>
       <c r="AB6" s="18">
         <f t="shared" si="0"/>
-        <v>22</v>
+        <v>44348</v>
       </c>
       <c r="AC6" s="18">
         <f t="shared" si="0"/>
-        <v>23</v>
+        <v>44349</v>
       </c>
       <c r="AD6" s="18">
         <f t="shared" si="0"/>
-        <v>24</v>
+        <v>44350</v>
       </c>
       <c r="AE6" s="18">
         <f t="shared" si="0"/>
-        <v>25</v>
+        <v>44351</v>
       </c>
       <c r="AF6" s="18">
         <f t="shared" si="0"/>
-        <v>26</v>
+        <v>44352</v>
       </c>
       <c r="AG6" s="49">
         <f t="shared" si="0"/>
-        <v>27</v>
-      </c>
-    </row>
-    <row r="7" spans="1:33" ht="0.9" customHeight="1" x14ac:dyDescent="0.35">
+        <v>44353</v>
+      </c>
+    </row>
+    <row r="7" spans="1:33" ht="0.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="50"/>
       <c r="B7" s="30"/>
       <c r="C7" s="31"/>
@@ -1852,8 +1872,8 @@
       <c r="F7" s="32"/>
       <c r="G7" s="32"/>
       <c r="H7" s="32"/>
-      <c r="I7" s="32"/>
-      <c r="J7" s="32"/>
+      <c r="I7" s="69"/>
+      <c r="J7" s="69"/>
       <c r="K7" s="32"/>
       <c r="L7" s="32"/>
       <c r="M7" s="32"/>
@@ -1878,7 +1898,7 @@
       <c r="AF7" s="32"/>
       <c r="AG7" s="51"/>
     </row>
-    <row r="8" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A8" s="52">
         <v>1</v>
       </c>
@@ -1887,407 +1907,179 @@
       </c>
       <c r="C8" s="20"/>
       <c r="D8" s="21">
-        <v>74</v>
+        <v>1</v>
       </c>
       <c r="E8" s="29"/>
       <c r="F8" s="33">
-        <f>IF(C8=F6,0,IF($D8-SUM($E8:E8)&gt;F$5-SUM(F$7:F7),F$5-SUM(F$7:F7),$D8-SUM($E8:E8)))</f>
-        <v>0</v>
-      </c>
-      <c r="G8" s="33">
-        <f>IF(D8=G6,0,IF($D8-SUM($E8:F8)&gt;G$5-SUM(G$7:G7),G$5-SUM(G$7:G7),$D8-SUM($E8:F8)))</f>
-        <v>8</v>
-      </c>
-      <c r="H8" s="33">
-        <v>4</v>
-      </c>
-      <c r="I8" s="33">
-        <f>IF(F8=I6,0,IF($D8-SUM($E8:H8)&gt;I$5-SUM(I$7:I7),I$5-SUM(I$7:I7),$D8-SUM($E8:H8)))</f>
-        <v>8</v>
-      </c>
-      <c r="J8" s="33">
-        <f>IF(G8=J6,0,IF($D8-SUM($E8:I8)&gt;J$5-SUM(J$7:J7),J$5-SUM(J$7:J7),$D8-SUM($E8:I8)))</f>
-        <v>8</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="G8" s="33"/>
+      <c r="H8" s="33"/>
+      <c r="I8" s="70"/>
+      <c r="J8" s="70"/>
       <c r="K8" s="33"/>
       <c r="L8" s="33"/>
-      <c r="M8" s="33">
-        <f>IF(J8=M6,0,IF($D8-SUM($E8:L8)&gt;M$5-SUM(M$7:M7),M$5-SUM(M$7:M7),$D8-SUM($E8:L8)))</f>
-        <v>8</v>
-      </c>
-      <c r="N8" s="33">
-        <f>IF(K8=N6,0,IF($D8-SUM($E8:M8)&gt;N$5-SUM(N$7:N7),N$5-SUM(N$7:N7),$D8-SUM($E8:M8)))</f>
-        <v>8</v>
-      </c>
-      <c r="O8" s="33">
-        <f>IF(L8=O6,0,IF($D8-SUM($E8:N8)&gt;O$5-SUM(O$7:O7),O$5-SUM(O$7:O7),$D8-SUM($E8:N8)))</f>
-        <v>8</v>
-      </c>
-      <c r="P8" s="33">
-        <f>IF(M8=P6,0,IF($D8-SUM($E8:O8)&gt;P$5-SUM(P$7:P7),P$5-SUM(P$7:P7),$D8-SUM($E8:O8)))</f>
-        <v>8</v>
-      </c>
-      <c r="Q8" s="33">
-        <f>IF(N8=Q6,0,IF($D8-SUM($E8:P8)&gt;Q$5-SUM(Q$7:Q7),Q$5-SUM(Q$7:Q7),$D8-SUM($E8:P8)))</f>
-        <v>8</v>
-      </c>
+      <c r="M8" s="33"/>
+      <c r="N8" s="33"/>
+      <c r="O8" s="33"/>
+      <c r="P8" s="33"/>
+      <c r="Q8" s="33"/>
       <c r="R8" s="33"/>
       <c r="S8" s="33"/>
-      <c r="T8" s="33">
-        <f>IF(Q8=T6,0,IF($D8-SUM($E8:S8)&gt;T$5-SUM(T$7:T7),T$5-SUM(T$7:T7),$D8-SUM($E8:S8)))</f>
-        <v>6</v>
-      </c>
-      <c r="U8" s="33">
-        <f>IF(R8=U6,0,IF($D8-SUM($E8:T8)&gt;U$5-SUM(U$7:U7),U$5-SUM(U$7:U7),$D8-SUM($E8:T8)))</f>
-        <v>0</v>
-      </c>
-      <c r="V8" s="33">
-        <f>IF(S8=V6,0,IF($D8-SUM($E8:U8)&gt;V$5-SUM(V$7:V7),V$5-SUM(V$7:V7),$D8-SUM($E8:U8)))</f>
-        <v>0</v>
-      </c>
-      <c r="W8" s="33">
-        <f>IF(T8=W6,0,IF($D8-SUM($E8:V8)&gt;W$5-SUM(W$7:W7),W$5-SUM(W$7:W7),$D8-SUM($E8:V8)))</f>
-        <v>0</v>
-      </c>
-      <c r="X8" s="33">
-        <f>IF(U8=X6,0,IF($D8-SUM($E8:W8)&gt;X$5-SUM(X$7:X7),X$5-SUM(X$7:X7),$D8-SUM($E8:W8)))</f>
-        <v>0</v>
-      </c>
+      <c r="T8" s="33"/>
+      <c r="U8" s="33"/>
+      <c r="V8" s="33"/>
+      <c r="W8" s="33"/>
+      <c r="X8" s="33"/>
       <c r="Y8" s="33"/>
       <c r="Z8" s="33"/>
-      <c r="AA8" s="33">
-        <f>IF(X8=AA6,0,IF($D8-SUM($E8:Z8)&gt;AA$5-SUM(AA$7:AA7),AA$5-SUM(AA$7:AA7),$D8-SUM($E8:Z8)))</f>
-        <v>0</v>
-      </c>
-      <c r="AB8" s="33">
-        <f>IF(Y8=AB6,0,IF($D8-SUM($E8:AA8)&gt;AB$5-SUM(AB$7:AB7),AB$5-SUM(AB$7:AB7),$D8-SUM($E8:AA8)))</f>
-        <v>0</v>
-      </c>
-      <c r="AC8" s="33">
-        <f>IF(Z8=AC6,0,IF($D8-SUM($E8:AB8)&gt;AC$5-SUM(AC$7:AC7),AC$5-SUM(AC$7:AC7),$D8-SUM($E8:AB8)))</f>
-        <v>0</v>
-      </c>
-      <c r="AD8" s="33">
-        <f>IF(AA8=AD6,0,IF($D8-SUM($E8:AC8)&gt;AD$5-SUM(AD$7:AD7),AD$5-SUM(AD$7:AD7),$D8-SUM($E8:AC8)))</f>
-        <v>0</v>
-      </c>
-      <c r="AE8" s="33">
-        <f>IF(AB8=AE6,0,IF($D8-SUM($E8:AD8)&gt;AE$5-SUM(AE$7:AE7),AE$5-SUM(AE$7:AE7),$D8-SUM($E8:AD8)))</f>
-        <v>0</v>
-      </c>
+      <c r="AA8" s="33"/>
+      <c r="AB8" s="33"/>
+      <c r="AC8" s="33"/>
+      <c r="AD8" s="33"/>
+      <c r="AE8" s="33"/>
       <c r="AF8" s="33"/>
       <c r="AG8" s="53"/>
     </row>
-    <row r="9" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A9" s="54">
         <v>2</v>
       </c>
       <c r="B9" s="22" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C9" s="23"/>
       <c r="D9" s="24">
-        <v>74</v>
+        <v>7.5</v>
       </c>
       <c r="E9" s="29"/>
       <c r="F9" s="33">
         <f>IF($D9-SUM($E9:E9)&gt;F$5-SUM(F$7:F8),F$5-SUM(F$7:F8),$D9-SUM($E9:E9))</f>
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="G9" s="33">
-        <f>IF($D9-SUM($E9:F9)&gt;G$5-SUM(G$7:G8),G$5-SUM(G$7:G8),$D9-SUM($E9:F9))</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H9" s="33">
-        <f>IF($D9-SUM($E9:G9)&gt;H$5-SUM(H$7:H8),H$5-SUM(H$7:H8),$D9-SUM($E9:G9))</f>
-        <v>4</v>
-      </c>
-      <c r="I9" s="33">
-        <f>IF($D9-SUM($E9:H9)&gt;I$5-SUM(I$7:I8),I$5-SUM(I$7:I8),$D9-SUM($E9:H9))</f>
-        <v>0</v>
-      </c>
-      <c r="J9" s="33">
-        <f>IF($D9-SUM($E9:I9)&gt;J$5-SUM(J$7:J8),J$5-SUM(J$7:J8),$D9-SUM($E9:I9))</f>
-        <v>0</v>
-      </c>
+        <v>1.5</v>
+      </c>
+      <c r="I9" s="70"/>
+      <c r="J9" s="70"/>
       <c r="K9" s="33"/>
       <c r="L9" s="33"/>
       <c r="M9" s="33">
-        <f>IF($D9-SUM($E9:L9)&gt;M$5-SUM(M$7:M8),M$5-SUM(M$7:M8),$D9-SUM($E9:L9))</f>
-        <v>0</v>
-      </c>
-      <c r="N9" s="33">
-        <f>IF($D9-SUM($E9:M9)&gt;N$5-SUM(N$7:N8),N$5-SUM(N$7:N8),$D9-SUM($E9:M9))</f>
-        <v>0</v>
-      </c>
-      <c r="O9" s="33">
-        <f>IF($D9-SUM($E9:N9)&gt;O$5-SUM(O$7:O8),O$5-SUM(O$7:O8),$D9-SUM($E9:N9))</f>
-        <v>0</v>
-      </c>
-      <c r="P9" s="33">
-        <f>IF($D9-SUM($E9:O9)&gt;P$5-SUM(P$7:P8),P$5-SUM(P$7:P8),$D9-SUM($E9:O9))</f>
-        <v>0</v>
-      </c>
-      <c r="Q9" s="33">
-        <f>IF($D9-SUM($E9:P9)&gt;Q$5-SUM(Q$7:Q8),Q$5-SUM(Q$7:Q8),$D9-SUM($E9:P9))</f>
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="N9" s="33"/>
+      <c r="O9" s="33"/>
+      <c r="P9" s="33"/>
+      <c r="Q9" s="33"/>
       <c r="R9" s="33"/>
       <c r="S9" s="33"/>
-      <c r="T9" s="33">
-        <f>IF($D9-SUM($E9:S9)&gt;T$5-SUM(T$7:T8),T$5-SUM(T$7:T8),$D9-SUM($E9:S9))</f>
-        <v>2</v>
-      </c>
-      <c r="U9" s="33">
-        <f>IF($D9-SUM($E9:T9)&gt;U$5-SUM(U$7:U8),U$5-SUM(U$7:U8),$D9-SUM($E9:T9))</f>
-        <v>8</v>
-      </c>
-      <c r="V9" s="33">
-        <f>IF($D9-SUM($E9:U9)&gt;V$5-SUM(V$7:V8),V$5-SUM(V$7:V8),$D9-SUM($E9:U9))</f>
-        <v>8</v>
-      </c>
-      <c r="W9" s="33">
-        <f>IF($D9-SUM($E9:V9)&gt;W$5-SUM(W$7:W8),W$5-SUM(W$7:W8),$D9-SUM($E9:V9))</f>
-        <v>8</v>
-      </c>
-      <c r="X9" s="33">
-        <f>IF($D9-SUM($E9:W9)&gt;X$5-SUM(X$7:X8),X$5-SUM(X$7:X8),$D9-SUM($E9:W9))</f>
-        <v>8</v>
-      </c>
+      <c r="T9" s="33"/>
+      <c r="U9" s="33"/>
+      <c r="V9" s="33"/>
+      <c r="W9" s="33"/>
+      <c r="X9" s="33"/>
       <c r="Y9" s="33"/>
       <c r="Z9" s="33"/>
-      <c r="AA9" s="33">
-        <f>IF($D9-SUM($E9:Z9)&gt;AA$5-SUM(AA$7:AA8),AA$5-SUM(AA$7:AA8),$D9-SUM($E9:Z9))</f>
-        <v>8</v>
-      </c>
-      <c r="AB9" s="33">
-        <f>IF($D9-SUM($E9:AA9)&gt;AB$5-SUM(AB$7:AB8),AB$5-SUM(AB$7:AB8),$D9-SUM($E9:AA9))</f>
-        <v>8</v>
-      </c>
-      <c r="AC9" s="33">
-        <f>IF($D9-SUM($E9:AB9)&gt;AC$5-SUM(AC$7:AC8),AC$5-SUM(AC$7:AC8),$D9-SUM($E9:AB9))</f>
-        <v>8</v>
-      </c>
-      <c r="AD9" s="33">
-        <f>IF($D9-SUM($E9:AC9)&gt;AD$5-SUM(AD$7:AD8),AD$5-SUM(AD$7:AD8),$D9-SUM($E9:AC9))</f>
-        <v>4</v>
-      </c>
-      <c r="AE9" s="33">
-        <f>IF($D9-SUM($E9:AD9)&gt;AE$5-SUM(AE$7:AE8),AE$5-SUM(AE$7:AE8),$D9-SUM($E9:AD9))</f>
-        <v>0</v>
-      </c>
+      <c r="AA9" s="33"/>
+      <c r="AB9" s="33"/>
+      <c r="AC9" s="33"/>
+      <c r="AD9" s="33"/>
+      <c r="AE9" s="33"/>
       <c r="AF9" s="33"/>
       <c r="AG9" s="53"/>
     </row>
-    <row r="10" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A10" s="54">
         <v>3</v>
       </c>
       <c r="B10" s="22" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="C10" s="23"/>
-      <c r="D10" s="24">
-        <v>12</v>
-      </c>
+      <c r="D10" s="24"/>
       <c r="E10" s="29"/>
       <c r="F10" s="33">
         <f>IF($D10-SUM($E10:E10)&gt;F$5-SUM(F$7:F9),F$5-SUM(F$7:F9),$D10-SUM($E10:E10))</f>
         <v>0</v>
       </c>
-      <c r="G10" s="33">
-        <f>IF($D10-SUM($E10:F10)&gt;G$5-SUM(G$7:G9),G$5-SUM(G$7:G9),$D10-SUM($E10:F10))</f>
-        <v>0</v>
-      </c>
-      <c r="H10" s="33">
-        <f>IF($D10-SUM($E10:G10)&gt;H$5-SUM(H$7:H9),H$5-SUM(H$7:H9),$D10-SUM($E10:G10))</f>
-        <v>0</v>
-      </c>
-      <c r="I10" s="33">
-        <f>IF($D10-SUM($E10:H10)&gt;I$5-SUM(I$7:I9),I$5-SUM(I$7:I9),$D10-SUM($E10:H10))</f>
-        <v>0</v>
-      </c>
-      <c r="J10" s="33">
-        <f>IF($D10-SUM($E10:I10)&gt;J$5-SUM(J$7:J9),J$5-SUM(J$7:J9),$D10-SUM($E10:I10))</f>
-        <v>0</v>
-      </c>
+      <c r="G10" s="33"/>
+      <c r="H10" s="33"/>
+      <c r="I10" s="70"/>
+      <c r="J10" s="70"/>
       <c r="K10" s="33"/>
       <c r="L10" s="33"/>
-      <c r="M10" s="33">
-        <f>IF($D10-SUM($E10:L10)&gt;M$5-SUM(M$7:M9),M$5-SUM(M$7:M9),$D10-SUM($E10:L10))</f>
-        <v>0</v>
-      </c>
-      <c r="N10" s="33">
-        <f>IF($D10-SUM($E10:M10)&gt;N$5-SUM(N$7:N9),N$5-SUM(N$7:N9),$D10-SUM($E10:M10))</f>
-        <v>0</v>
-      </c>
-      <c r="O10" s="33">
-        <f>IF($D10-SUM($E10:N10)&gt;O$5-SUM(O$7:O9),O$5-SUM(O$7:O9),$D10-SUM($E10:N10))</f>
-        <v>0</v>
-      </c>
-      <c r="P10" s="33">
-        <f>IF($D10-SUM($E10:O10)&gt;P$5-SUM(P$7:P9),P$5-SUM(P$7:P9),$D10-SUM($E10:O10))</f>
-        <v>0</v>
-      </c>
-      <c r="Q10" s="33">
-        <f>IF($D10-SUM($E10:P10)&gt;Q$5-SUM(Q$7:Q9),Q$5-SUM(Q$7:Q9),$D10-SUM($E10:P10))</f>
-        <v>0</v>
-      </c>
+      <c r="M10" s="33"/>
+      <c r="N10" s="33"/>
+      <c r="O10" s="33"/>
+      <c r="P10" s="33"/>
+      <c r="Q10" s="33"/>
       <c r="R10" s="33"/>
       <c r="S10" s="33"/>
-      <c r="T10" s="33">
-        <f>IF($D10-SUM($E10:S10)&gt;T$5-SUM(T$7:T9),T$5-SUM(T$7:T9),$D10-SUM($E10:S10))</f>
-        <v>0</v>
-      </c>
-      <c r="U10" s="33">
-        <f>IF($D10-SUM($E10:T10)&gt;U$5-SUM(U$7:U9),U$5-SUM(U$7:U9),$D10-SUM($E10:T10))</f>
-        <v>0</v>
-      </c>
-      <c r="V10" s="33">
-        <f>IF($D10-SUM($E10:U10)&gt;V$5-SUM(V$7:V9),V$5-SUM(V$7:V9),$D10-SUM($E10:U10))</f>
-        <v>0</v>
-      </c>
-      <c r="W10" s="33">
-        <f>IF($D10-SUM($E10:V10)&gt;W$5-SUM(W$7:W9),W$5-SUM(W$7:W9),$D10-SUM($E10:V10))</f>
-        <v>0</v>
-      </c>
-      <c r="X10" s="33">
-        <f>IF($D10-SUM($E10:W10)&gt;X$5-SUM(X$7:X9),X$5-SUM(X$7:X9),$D10-SUM($E10:W10))</f>
-        <v>0</v>
-      </c>
+      <c r="T10" s="33"/>
+      <c r="U10" s="33"/>
+      <c r="V10" s="33"/>
+      <c r="W10" s="33"/>
+      <c r="X10" s="33"/>
       <c r="Y10" s="33"/>
       <c r="Z10" s="33"/>
-      <c r="AA10" s="33">
-        <f>IF($D10-SUM($E10:Z10)&gt;AA$5-SUM(AA$7:AA9),AA$5-SUM(AA$7:AA9),$D10-SUM($E10:Z10))</f>
-        <v>0</v>
-      </c>
-      <c r="AB10" s="33">
-        <f>IF($D10-SUM($E10:AA10)&gt;AB$5-SUM(AB$7:AB9),AB$5-SUM(AB$7:AB9),$D10-SUM($E10:AA10))</f>
-        <v>0</v>
-      </c>
-      <c r="AC10" s="33">
-        <f>IF($D10-SUM($E10:AB10)&gt;AC$5-SUM(AC$7:AC9),AC$5-SUM(AC$7:AC9),$D10-SUM($E10:AB10))</f>
-        <v>0</v>
-      </c>
-      <c r="AD10" s="33">
-        <f>IF($D10-SUM($E10:AC10)&gt;AD$5-SUM(AD$7:AD9),AD$5-SUM(AD$7:AD9),$D10-SUM($E10:AC10))</f>
-        <v>4</v>
-      </c>
-      <c r="AE10" s="33">
-        <f>IF($D10-SUM($E10:AD10)&gt;AE$5-SUM(AE$7:AE9),AE$5-SUM(AE$7:AE9),$D10-SUM($E10:AD10))</f>
-        <v>8</v>
-      </c>
+      <c r="AA10" s="33"/>
+      <c r="AB10" s="33"/>
+      <c r="AC10" s="33"/>
+      <c r="AD10" s="33"/>
+      <c r="AE10" s="33"/>
       <c r="AF10" s="33"/>
       <c r="AG10" s="53"/>
     </row>
-    <row r="11" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A11" s="54">
         <v>4</v>
       </c>
       <c r="B11" s="22" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="C11" s="25"/>
-      <c r="D11" s="24">
-        <v>12</v>
-      </c>
+      <c r="D11" s="24"/>
       <c r="E11" s="29"/>
       <c r="F11" s="33">
         <f>IF($D11-SUM($E11:E11)&gt;F$5-SUM(F$7:F10),F$5-SUM(F$7:F10),$D11-SUM($E11:E11))</f>
         <v>0</v>
       </c>
-      <c r="G11" s="33">
-        <f>IF($D11-SUM($E11:F11)&gt;G$5-SUM(G$7:G10),G$5-SUM(G$7:G10),$D11-SUM($E11:F11))</f>
-        <v>0</v>
-      </c>
-      <c r="H11" s="33">
-        <f>IF($D11-SUM($E11:G11)&gt;H$5-SUM(H$7:H10),H$5-SUM(H$7:H10),$D11-SUM($E11:G11))</f>
-        <v>0</v>
-      </c>
-      <c r="I11" s="33">
-        <f>IF($D11-SUM($E11:H11)&gt;I$5-SUM(I$7:I10),I$5-SUM(I$7:I10),$D11-SUM($E11:H11))</f>
-        <v>0</v>
-      </c>
-      <c r="J11" s="33">
-        <f>IF($D11-SUM($E11:I11)&gt;J$5-SUM(J$7:J10),J$5-SUM(J$7:J10),$D11-SUM($E11:I11))</f>
-        <v>0</v>
-      </c>
+      <c r="G11" s="33"/>
+      <c r="H11" s="33"/>
+      <c r="I11" s="70"/>
+      <c r="J11" s="70"/>
       <c r="K11" s="33"/>
       <c r="L11" s="33"/>
-      <c r="M11" s="33">
-        <f>IF($D11-SUM($E11:L11)&gt;M$5-SUM(M$7:M10),M$5-SUM(M$7:M10),$D11-SUM($E11:L11))</f>
-        <v>0</v>
-      </c>
-      <c r="N11" s="33">
-        <f>IF($D11-SUM($E11:M11)&gt;N$5-SUM(N$7:N10),N$5-SUM(N$7:N10),$D11-SUM($E11:M11))</f>
-        <v>0</v>
-      </c>
-      <c r="O11" s="33">
-        <f>IF($D11-SUM($E11:N11)&gt;O$5-SUM(O$7:O10),O$5-SUM(O$7:O10),$D11-SUM($E11:N11))</f>
-        <v>0</v>
-      </c>
-      <c r="P11" s="33">
-        <f>IF($D11-SUM($E11:O11)&gt;P$5-SUM(P$7:P10),P$5-SUM(P$7:P10),$D11-SUM($E11:O11))</f>
-        <v>0</v>
-      </c>
-      <c r="Q11" s="33">
-        <f>IF($D11-SUM($E11:P11)&gt;Q$5-SUM(Q$7:Q10),Q$5-SUM(Q$7:Q10),$D11-SUM($E11:P11))</f>
-        <v>0</v>
-      </c>
+      <c r="M11" s="33"/>
+      <c r="N11" s="33"/>
+      <c r="O11" s="33"/>
+      <c r="P11" s="33"/>
+      <c r="Q11" s="33"/>
       <c r="R11" s="33"/>
       <c r="S11" s="33"/>
-      <c r="T11" s="33">
-        <f>IF($D11-SUM($E11:S11)&gt;T$5-SUM(T$7:T10),T$5-SUM(T$7:T10),$D11-SUM($E11:S11))</f>
-        <v>0</v>
-      </c>
-      <c r="U11" s="33">
-        <f>IF($D11-SUM($E11:T11)&gt;U$5-SUM(U$7:U10),U$5-SUM(U$7:U10),$D11-SUM($E11:T11))</f>
-        <v>0</v>
-      </c>
-      <c r="V11" s="33">
-        <f>IF($D11-SUM($E11:U11)&gt;V$5-SUM(V$7:V10),V$5-SUM(V$7:V10),$D11-SUM($E11:U11))</f>
-        <v>0</v>
-      </c>
-      <c r="W11" s="33">
-        <f>IF($D11-SUM($E11:V11)&gt;W$5-SUM(W$7:W10),W$5-SUM(W$7:W10),$D11-SUM($E11:V11))</f>
-        <v>0</v>
-      </c>
-      <c r="X11" s="33">
-        <f>IF($D11-SUM($E11:W11)&gt;X$5-SUM(X$7:X10),X$5-SUM(X$7:X10),$D11-SUM($E11:W11))</f>
-        <v>0</v>
-      </c>
+      <c r="T11" s="33"/>
+      <c r="U11" s="33"/>
+      <c r="V11" s="33"/>
+      <c r="W11" s="33"/>
+      <c r="X11" s="33"/>
       <c r="Y11" s="33"/>
       <c r="Z11" s="33"/>
-      <c r="AA11" s="33">
-        <f>IF($D11-SUM($E11:Z11)&gt;AA$5-SUM(AA$7:AA10),AA$5-SUM(AA$7:AA10),$D11-SUM($E11:Z11))</f>
-        <v>0</v>
-      </c>
-      <c r="AB11" s="33">
-        <f>IF($D11-SUM($E11:AA11)&gt;AB$5-SUM(AB$7:AB10),AB$5-SUM(AB$7:AB10),$D11-SUM($E11:AA11))</f>
-        <v>0</v>
-      </c>
-      <c r="AC11" s="33">
-        <f>IF($D11-SUM($E11:AB11)&gt;AC$5-SUM(AC$7:AC10),AC$5-SUM(AC$7:AC10),$D11-SUM($E11:AB11))</f>
-        <v>0</v>
-      </c>
-      <c r="AD11" s="33">
-        <f>IF($D11-SUM($E11:AC11)&gt;AD$5-SUM(AD$7:AD10),AD$5-SUM(AD$7:AD10),$D11-SUM($E11:AC11))</f>
-        <v>0</v>
-      </c>
-      <c r="AE11" s="33">
-        <f>IF($D11-SUM($E11:AD11)&gt;AE$5-SUM(AE$7:AE10),AE$5-SUM(AE$7:AE10),$D11-SUM($E11:AD11))</f>
-        <v>0</v>
-      </c>
+      <c r="AA11" s="33"/>
+      <c r="AB11" s="33"/>
+      <c r="AC11" s="33"/>
+      <c r="AD11" s="33"/>
+      <c r="AE11" s="33"/>
       <c r="AF11" s="33"/>
       <c r="AG11" s="53"/>
     </row>
-    <row r="12" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A12" s="54">
         <v>5</v>
       </c>
-      <c r="B12" s="22" t="s">
-        <v>23</v>
-      </c>
+      <c r="B12" s="22"/>
       <c r="C12" s="23"/>
       <c r="D12" s="24"/>
       <c r="E12" s="29"/>
@@ -2303,14 +2095,8 @@
         <f>IF($D12-SUM($E12:G12)&gt;H$5-SUM(H$7:H11),H$5-SUM(H$7:H11),$D12-SUM($E12:G12))</f>
         <v>0</v>
       </c>
-      <c r="I12" s="33">
-        <f>IF($D12-SUM($E12:H12)&gt;I$5-SUM(I$7:I11),I$5-SUM(I$7:I11),$D12-SUM($E12:H12))</f>
-        <v>0</v>
-      </c>
-      <c r="J12" s="33">
-        <f>IF($D12-SUM($E12:I12)&gt;J$5-SUM(J$7:J11),J$5-SUM(J$7:J11),$D12-SUM($E12:I12))</f>
-        <v>0</v>
-      </c>
+      <c r="I12" s="70"/>
+      <c r="J12" s="70"/>
       <c r="K12" s="33"/>
       <c r="L12" s="33"/>
       <c r="M12" s="33">
@@ -2335,52 +2121,22 @@
       </c>
       <c r="R12" s="33"/>
       <c r="S12" s="33"/>
-      <c r="T12" s="33">
-        <f>IF($D12-SUM($E12:S12)&gt;T$5-SUM(T$7:T11),T$5-SUM(T$7:T11),$D12-SUM($E12:S12))</f>
-        <v>0</v>
-      </c>
-      <c r="U12" s="33">
-        <f>IF($D12-SUM($E12:T12)&gt;U$5-SUM(U$7:U11),U$5-SUM(U$7:U11),$D12-SUM($E12:T12))</f>
-        <v>0</v>
-      </c>
-      <c r="V12" s="33">
-        <f>IF($D12-SUM($E12:U12)&gt;V$5-SUM(V$7:V11),V$5-SUM(V$7:V11),$D12-SUM($E12:U12))</f>
-        <v>0</v>
-      </c>
-      <c r="W12" s="33">
-        <f>IF($D12-SUM($E12:V12)&gt;W$5-SUM(W$7:W11),W$5-SUM(W$7:W11),$D12-SUM($E12:V12))</f>
-        <v>0</v>
-      </c>
-      <c r="X12" s="33">
-        <f>IF($D12-SUM($E12:W12)&gt;X$5-SUM(X$7:X11),X$5-SUM(X$7:X11),$D12-SUM($E12:W12))</f>
-        <v>0</v>
-      </c>
+      <c r="T12" s="33"/>
+      <c r="U12" s="33"/>
+      <c r="V12" s="33"/>
+      <c r="W12" s="33"/>
+      <c r="X12" s="33"/>
       <c r="Y12" s="33"/>
       <c r="Z12" s="33"/>
-      <c r="AA12" s="33">
-        <f>IF($D12-SUM($E12:Z12)&gt;AA$5-SUM(AA$7:AA11),AA$5-SUM(AA$7:AA11),$D12-SUM($E12:Z12))</f>
-        <v>0</v>
-      </c>
-      <c r="AB12" s="33">
-        <f>IF($D12-SUM($E12:AA12)&gt;AB$5-SUM(AB$7:AB11),AB$5-SUM(AB$7:AB11),$D12-SUM($E12:AA12))</f>
-        <v>0</v>
-      </c>
-      <c r="AC12" s="33">
-        <f>IF($D12-SUM($E12:AB12)&gt;AC$5-SUM(AC$7:AC11),AC$5-SUM(AC$7:AC11),$D12-SUM($E12:AB12))</f>
-        <v>0</v>
-      </c>
-      <c r="AD12" s="33">
-        <f>IF($D12-SUM($E12:AC12)&gt;AD$5-SUM(AD$7:AD11),AD$5-SUM(AD$7:AD11),$D12-SUM($E12:AC12))</f>
-        <v>0</v>
-      </c>
-      <c r="AE12" s="33">
-        <f>IF($D12-SUM($E12:AD12)&gt;AE$5-SUM(AE$7:AE11),AE$5-SUM(AE$7:AE11),$D12-SUM($E12:AD12))</f>
-        <v>0</v>
-      </c>
+      <c r="AA12" s="33"/>
+      <c r="AB12" s="33"/>
+      <c r="AC12" s="33"/>
+      <c r="AD12" s="33"/>
+      <c r="AE12" s="33"/>
       <c r="AF12" s="33"/>
       <c r="AG12" s="53"/>
     </row>
-    <row r="13" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A13" s="54">
         <v>6</v>
       </c>
@@ -2400,14 +2156,8 @@
         <f>IF($D13-SUM($E13:G13)&gt;H$5-SUM(H$7:H12),H$5-SUM(H$7:H12),$D13-SUM($E13:G13))</f>
         <v>0</v>
       </c>
-      <c r="I13" s="33">
-        <f>IF($D13-SUM($E13:H13)&gt;I$5-SUM(I$7:I12),I$5-SUM(I$7:I12),$D13-SUM($E13:H13))</f>
-        <v>0</v>
-      </c>
-      <c r="J13" s="33">
-        <f>IF($D13-SUM($E13:I13)&gt;J$5-SUM(J$7:J12),J$5-SUM(J$7:J12),$D13-SUM($E13:I13))</f>
-        <v>0</v>
-      </c>
+      <c r="I13" s="70"/>
+      <c r="J13" s="70"/>
       <c r="K13" s="33"/>
       <c r="L13" s="33"/>
       <c r="M13" s="33">
@@ -2454,30 +2204,15 @@
       </c>
       <c r="Y13" s="33"/>
       <c r="Z13" s="33"/>
-      <c r="AA13" s="33">
-        <f>IF($D13-SUM($E13:Z13)&gt;AA$5-SUM(AA$7:AA12),AA$5-SUM(AA$7:AA12),$D13-SUM($E13:Z13))</f>
-        <v>0</v>
-      </c>
-      <c r="AB13" s="33">
-        <f>IF($D13-SUM($E13:AA13)&gt;AB$5-SUM(AB$7:AB12),AB$5-SUM(AB$7:AB12),$D13-SUM($E13:AA13))</f>
-        <v>0</v>
-      </c>
-      <c r="AC13" s="33">
-        <f>IF($D13-SUM($E13:AB13)&gt;AC$5-SUM(AC$7:AC12),AC$5-SUM(AC$7:AC12),$D13-SUM($E13:AB13))</f>
-        <v>0</v>
-      </c>
-      <c r="AD13" s="33">
-        <f>IF($D13-SUM($E13:AC13)&gt;AD$5-SUM(AD$7:AD12),AD$5-SUM(AD$7:AD12),$D13-SUM($E13:AC13))</f>
-        <v>0</v>
-      </c>
-      <c r="AE13" s="33">
-        <f>IF($D13-SUM($E13:AD13)&gt;AE$5-SUM(AE$7:AE12),AE$5-SUM(AE$7:AE12),$D13-SUM($E13:AD13))</f>
-        <v>0</v>
-      </c>
+      <c r="AA13" s="33"/>
+      <c r="AB13" s="33"/>
+      <c r="AC13" s="33"/>
+      <c r="AD13" s="33"/>
+      <c r="AE13" s="33"/>
       <c r="AF13" s="33"/>
       <c r="AG13" s="53"/>
     </row>
-    <row r="14" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A14" s="54">
         <v>7</v>
       </c>
@@ -2497,14 +2232,8 @@
         <f>IF($D14-SUM($E14:G14)&gt;H$5-SUM(H$7:H13),H$5-SUM(H$7:H13),$D14-SUM($E14:G14))</f>
         <v>0</v>
       </c>
-      <c r="I14" s="33">
-        <f>IF($D14-SUM($E14:H14)&gt;I$5-SUM(I$7:I13),I$5-SUM(I$7:I13),$D14-SUM($E14:H14))</f>
-        <v>0</v>
-      </c>
-      <c r="J14" s="33">
-        <f>IF($D14-SUM($E14:I14)&gt;J$5-SUM(J$7:J13),J$5-SUM(J$7:J13),$D14-SUM($E14:I14))</f>
-        <v>0</v>
-      </c>
+      <c r="I14" s="70"/>
+      <c r="J14" s="70"/>
       <c r="K14" s="33"/>
       <c r="L14" s="33"/>
       <c r="M14" s="33">
@@ -2574,7 +2303,7 @@
       <c r="AF14" s="33"/>
       <c r="AG14" s="53"/>
     </row>
-    <row r="15" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A15" s="54">
         <v>8</v>
       </c>
@@ -2594,14 +2323,8 @@
         <f>IF($D15-SUM($E15:G15)&gt;H$5-SUM(H$7:H14),H$5-SUM(H$7:H14),$D15-SUM($E15:G15))</f>
         <v>0</v>
       </c>
-      <c r="I15" s="33">
-        <f>IF($D15-SUM($E15:H15)&gt;I$5-SUM(I$7:I14),I$5-SUM(I$7:I14),$D15-SUM($E15:H15))</f>
-        <v>0</v>
-      </c>
-      <c r="J15" s="33">
-        <f>IF($D15-SUM($E15:I15)&gt;J$5-SUM(J$7:J14),J$5-SUM(J$7:J14),$D15-SUM($E15:I15))</f>
-        <v>0</v>
-      </c>
+      <c r="I15" s="70"/>
+      <c r="J15" s="70"/>
       <c r="K15" s="33"/>
       <c r="L15" s="33"/>
       <c r="M15" s="33">
@@ -2671,7 +2394,7 @@
       <c r="AF15" s="33"/>
       <c r="AG15" s="53"/>
     </row>
-    <row r="16" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A16" s="54">
         <v>9</v>
       </c>
@@ -2691,14 +2414,8 @@
         <f>IF($D16-SUM($E16:G16)&gt;H$5-SUM(H$7:H15),H$5-SUM(H$7:H15),$D16-SUM($E16:G16))</f>
         <v>0</v>
       </c>
-      <c r="I16" s="33">
-        <f>IF($D16-SUM($E16:H16)&gt;I$5-SUM(I$7:I15),I$5-SUM(I$7:I15),$D16-SUM($E16:H16))</f>
-        <v>0</v>
-      </c>
-      <c r="J16" s="33">
-        <f>IF($D16-SUM($E16:I16)&gt;J$5-SUM(J$7:J15),J$5-SUM(J$7:J15),$D16-SUM($E16:I16))</f>
-        <v>0</v>
-      </c>
+      <c r="I16" s="70"/>
+      <c r="J16" s="70"/>
       <c r="K16" s="33"/>
       <c r="L16" s="33"/>
       <c r="M16" s="33">
@@ -2768,7 +2485,7 @@
       <c r="AF16" s="33"/>
       <c r="AG16" s="53"/>
     </row>
-    <row r="17" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A17" s="54">
         <v>10</v>
       </c>
@@ -2788,14 +2505,8 @@
         <f>IF($D17-SUM($E17:G17)&gt;H$5-SUM(H$7:H16),H$5-SUM(H$7:H16),$D17-SUM($E17:G17))</f>
         <v>0</v>
       </c>
-      <c r="I17" s="33">
-        <f>IF($D17-SUM($E17:H17)&gt;I$5-SUM(I$7:I16),I$5-SUM(I$7:I16),$D17-SUM($E17:H17))</f>
-        <v>0</v>
-      </c>
-      <c r="J17" s="33">
-        <f>IF($D17-SUM($E17:I17)&gt;J$5-SUM(J$7:J16),J$5-SUM(J$7:J16),$D17-SUM($E17:I17))</f>
-        <v>0</v>
-      </c>
+      <c r="I17" s="70"/>
+      <c r="J17" s="70"/>
       <c r="K17" s="33"/>
       <c r="L17" s="33"/>
       <c r="M17" s="33">
@@ -2865,7 +2576,7 @@
       <c r="AF17" s="33"/>
       <c r="AG17" s="53"/>
     </row>
-    <row r="18" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A18" s="54">
         <v>11</v>
       </c>
@@ -2885,14 +2596,8 @@
         <f>IF($D18-SUM($E18:G18)&gt;H$5-SUM(H$7:H17),H$5-SUM(H$7:H17),$D18-SUM($E18:G18))</f>
         <v>0</v>
       </c>
-      <c r="I18" s="33">
-        <f>IF($D18-SUM($E18:H18)&gt;I$5-SUM(I$7:I17),I$5-SUM(I$7:I17),$D18-SUM($E18:H18))</f>
-        <v>0</v>
-      </c>
-      <c r="J18" s="33">
-        <f>IF($D18-SUM($E18:I18)&gt;J$5-SUM(J$7:J17),J$5-SUM(J$7:J17),$D18-SUM($E18:I18))</f>
-        <v>0</v>
-      </c>
+      <c r="I18" s="70"/>
+      <c r="J18" s="70"/>
       <c r="K18" s="33"/>
       <c r="L18" s="33"/>
       <c r="M18" s="33">
@@ -2962,7 +2667,7 @@
       <c r="AF18" s="33"/>
       <c r="AG18" s="53"/>
     </row>
-    <row r="19" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A19" s="54">
         <v>12</v>
       </c>
@@ -2982,14 +2687,8 @@
         <f>IF($D19-SUM($E19:G19)&gt;H$5-SUM(H$7:H18),H$5-SUM(H$7:H18),$D19-SUM($E19:G19))</f>
         <v>0</v>
       </c>
-      <c r="I19" s="33">
-        <f>IF($D19-SUM($E19:H19)&gt;I$5-SUM(I$7:I18),I$5-SUM(I$7:I18),$D19-SUM($E19:H19))</f>
-        <v>0</v>
-      </c>
-      <c r="J19" s="33">
-        <f>IF($D19-SUM($E19:I19)&gt;J$5-SUM(J$7:J18),J$5-SUM(J$7:J18),$D19-SUM($E19:I19))</f>
-        <v>0</v>
-      </c>
+      <c r="I19" s="70"/>
+      <c r="J19" s="70"/>
       <c r="K19" s="33"/>
       <c r="L19" s="33"/>
       <c r="M19" s="33">
@@ -3059,7 +2758,7 @@
       <c r="AF19" s="33"/>
       <c r="AG19" s="53"/>
     </row>
-    <row r="20" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A20" s="54">
         <v>13</v>
       </c>
@@ -3079,14 +2778,8 @@
         <f>IF($D20-SUM($E20:G20)&gt;H$5-SUM(H$7:H19),H$5-SUM(H$7:H19),$D20-SUM($E20:G20))</f>
         <v>0</v>
       </c>
-      <c r="I20" s="33">
-        <f>IF($D20-SUM($E20:H20)&gt;I$5-SUM(I$7:I19),I$5-SUM(I$7:I19),$D20-SUM($E20:H20))</f>
-        <v>0</v>
-      </c>
-      <c r="J20" s="33">
-        <f>IF($D20-SUM($E20:I20)&gt;J$5-SUM(J$7:J19),J$5-SUM(J$7:J19),$D20-SUM($E20:I20))</f>
-        <v>0</v>
-      </c>
+      <c r="I20" s="70"/>
+      <c r="J20" s="70"/>
       <c r="K20" s="33"/>
       <c r="L20" s="33"/>
       <c r="M20" s="33">
@@ -3156,7 +2849,7 @@
       <c r="AF20" s="33"/>
       <c r="AG20" s="53"/>
     </row>
-    <row r="21" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A21" s="54">
         <v>14</v>
       </c>
@@ -3176,14 +2869,8 @@
         <f>IF($D21-SUM($E21:G21)&gt;H$5-SUM(H$7:H20),H$5-SUM(H$7:H20),$D21-SUM($E21:G21))</f>
         <v>0</v>
       </c>
-      <c r="I21" s="33">
-        <f>IF($D21-SUM($E21:H21)&gt;I$5-SUM(I$7:I20),I$5-SUM(I$7:I20),$D21-SUM($E21:H21))</f>
-        <v>0</v>
-      </c>
-      <c r="J21" s="33">
-        <f>IF($D21-SUM($E21:I21)&gt;J$5-SUM(J$7:J20),J$5-SUM(J$7:J20),$D21-SUM($E21:I21))</f>
-        <v>0</v>
-      </c>
+      <c r="I21" s="70"/>
+      <c r="J21" s="70"/>
       <c r="K21" s="33"/>
       <c r="L21" s="33"/>
       <c r="M21" s="33">
@@ -3253,7 +2940,7 @@
       <c r="AF21" s="33"/>
       <c r="AG21" s="53"/>
     </row>
-    <row r="22" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A22" s="54">
         <v>15</v>
       </c>
@@ -3273,14 +2960,8 @@
         <f>IF($D22-SUM($E22:G22)&gt;H$5-SUM(H$7:H21),H$5-SUM(H$7:H21),$D22-SUM($E22:G22))</f>
         <v>0</v>
       </c>
-      <c r="I22" s="33">
-        <f>IF($D22-SUM($E22:H22)&gt;I$5-SUM(I$7:I21),I$5-SUM(I$7:I21),$D22-SUM($E22:H22))</f>
-        <v>0</v>
-      </c>
-      <c r="J22" s="33">
-        <f>IF($D22-SUM($E22:I22)&gt;J$5-SUM(J$7:J21),J$5-SUM(J$7:J21),$D22-SUM($E22:I22))</f>
-        <v>0</v>
-      </c>
+      <c r="I22" s="70"/>
+      <c r="J22" s="70"/>
       <c r="K22" s="33"/>
       <c r="L22" s="33"/>
       <c r="M22" s="33">
@@ -3350,7 +3031,7 @@
       <c r="AF22" s="33"/>
       <c r="AG22" s="53"/>
     </row>
-    <row r="23" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A23" s="54">
         <v>16</v>
       </c>
@@ -3370,14 +3051,8 @@
         <f>IF($D23-SUM($E23:G23)&gt;H$5-SUM(H$7:H22),H$5-SUM(H$7:H22),$D23-SUM($E23:G23))</f>
         <v>0</v>
       </c>
-      <c r="I23" s="33">
-        <f>IF($D23-SUM($E23:H23)&gt;I$5-SUM(I$7:I22),I$5-SUM(I$7:I22),$D23-SUM($E23:H23))</f>
-        <v>0</v>
-      </c>
-      <c r="J23" s="33">
-        <f>IF($D23-SUM($E23:I23)&gt;J$5-SUM(J$7:J22),J$5-SUM(J$7:J22),$D23-SUM($E23:I23))</f>
-        <v>0</v>
-      </c>
+      <c r="I23" s="70"/>
+      <c r="J23" s="70"/>
       <c r="K23" s="33"/>
       <c r="L23" s="33"/>
       <c r="M23" s="33">
@@ -3447,7 +3122,7 @@
       <c r="AF23" s="33"/>
       <c r="AG23" s="53"/>
     </row>
-    <row r="24" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A24" s="54">
         <v>17</v>
       </c>
@@ -3467,14 +3142,8 @@
         <f>IF($D24-SUM($E24:G24)&gt;H$5-SUM(H$7:H23),H$5-SUM(H$7:H23),$D24-SUM($E24:G24))</f>
         <v>0</v>
       </c>
-      <c r="I24" s="33">
-        <f>IF($D24-SUM($E24:H24)&gt;I$5-SUM(I$7:I23),I$5-SUM(I$7:I23),$D24-SUM($E24:H24))</f>
-        <v>0</v>
-      </c>
-      <c r="J24" s="33">
-        <f>IF($D24-SUM($E24:I24)&gt;J$5-SUM(J$7:J23),J$5-SUM(J$7:J23),$D24-SUM($E24:I24))</f>
-        <v>0</v>
-      </c>
+      <c r="I24" s="70"/>
+      <c r="J24" s="70"/>
       <c r="K24" s="33"/>
       <c r="L24" s="33"/>
       <c r="M24" s="33">
@@ -3544,7 +3213,7 @@
       <c r="AF24" s="33"/>
       <c r="AG24" s="53"/>
     </row>
-    <row r="25" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A25" s="54">
         <v>18</v>
       </c>
@@ -3564,14 +3233,8 @@
         <f>IF($D25-SUM($E25:G25)&gt;H$5-SUM(H$7:H24),H$5-SUM(H$7:H24),$D25-SUM($E25:G25))</f>
         <v>0</v>
       </c>
-      <c r="I25" s="33">
-        <f>IF($D25-SUM($E25:H25)&gt;I$5-SUM(I$7:I24),I$5-SUM(I$7:I24),$D25-SUM($E25:H25))</f>
-        <v>0</v>
-      </c>
-      <c r="J25" s="33">
-        <f>IF($D25-SUM($E25:I25)&gt;J$5-SUM(J$7:J24),J$5-SUM(J$7:J24),$D25-SUM($E25:I25))</f>
-        <v>0</v>
-      </c>
+      <c r="I25" s="70"/>
+      <c r="J25" s="70"/>
       <c r="K25" s="33"/>
       <c r="L25" s="33"/>
       <c r="M25" s="33">
@@ -3641,7 +3304,7 @@
       <c r="AF25" s="33"/>
       <c r="AG25" s="53"/>
     </row>
-    <row r="26" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A26" s="54">
         <v>19</v>
       </c>
@@ -3661,14 +3324,8 @@
         <f>IF($D26-SUM($E26:G26)&gt;H$5-SUM(H$7:H25),H$5-SUM(H$7:H25),$D26-SUM($E26:G26))</f>
         <v>0</v>
       </c>
-      <c r="I26" s="33">
-        <f>IF($D26-SUM($E26:H26)&gt;I$5-SUM(I$7:I25),I$5-SUM(I$7:I25),$D26-SUM($E26:H26))</f>
-        <v>0</v>
-      </c>
-      <c r="J26" s="33">
-        <f>IF($D26-SUM($E26:I26)&gt;J$5-SUM(J$7:J25),J$5-SUM(J$7:J25),$D26-SUM($E26:I26))</f>
-        <v>0</v>
-      </c>
+      <c r="I26" s="70"/>
+      <c r="J26" s="70"/>
       <c r="K26" s="33"/>
       <c r="L26" s="33"/>
       <c r="M26" s="33">
@@ -3738,7 +3395,7 @@
       <c r="AF26" s="33"/>
       <c r="AG26" s="53"/>
     </row>
-    <row r="27" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A27" s="54">
         <v>20</v>
       </c>
@@ -3758,14 +3415,8 @@
         <f>IF($D27-SUM($E27:G27)&gt;H$5-SUM(H$7:H26),H$5-SUM(H$7:H26),$D27-SUM($E27:G27))</f>
         <v>0</v>
       </c>
-      <c r="I27" s="33">
-        <f>IF($D27-SUM($E27:H27)&gt;I$5-SUM(I$7:I26),I$5-SUM(I$7:I26),$D27-SUM($E27:H27))</f>
-        <v>0</v>
-      </c>
-      <c r="J27" s="33">
-        <f>IF($D27-SUM($E27:I27)&gt;J$5-SUM(J$7:J26),J$5-SUM(J$7:J26),$D27-SUM($E27:I27))</f>
-        <v>0</v>
-      </c>
+      <c r="I27" s="70"/>
+      <c r="J27" s="70"/>
       <c r="K27" s="33"/>
       <c r="L27" s="33"/>
       <c r="M27" s="33">
@@ -3835,7 +3486,7 @@
       <c r="AF27" s="33"/>
       <c r="AG27" s="53"/>
     </row>
-    <row r="28" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A28" s="54">
         <v>21</v>
       </c>
@@ -3855,14 +3506,8 @@
         <f>IF($D28-SUM($E28:G28)&gt;H$5-SUM(H$7:H27),H$5-SUM(H$7:H27),$D28-SUM($E28:G28))</f>
         <v>0</v>
       </c>
-      <c r="I28" s="33">
-        <f>IF($D28-SUM($E28:H28)&gt;I$5-SUM(I$7:I27),I$5-SUM(I$7:I27),$D28-SUM($E28:H28))</f>
-        <v>0</v>
-      </c>
-      <c r="J28" s="33">
-        <f>IF($D28-SUM($E28:I28)&gt;J$5-SUM(J$7:J27),J$5-SUM(J$7:J27),$D28-SUM($E28:I28))</f>
-        <v>0</v>
-      </c>
+      <c r="I28" s="70"/>
+      <c r="J28" s="70"/>
       <c r="K28" s="33"/>
       <c r="L28" s="33"/>
       <c r="M28" s="33">
@@ -3932,7 +3577,7 @@
       <c r="AF28" s="33"/>
       <c r="AG28" s="53"/>
     </row>
-    <row r="29" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A29" s="54">
         <v>22</v>
       </c>
@@ -3952,14 +3597,8 @@
         <f>IF($D29-SUM($E29:G29)&gt;H$5-SUM(H$7:H28),H$5-SUM(H$7:H28),$D29-SUM($E29:G29))</f>
         <v>0</v>
       </c>
-      <c r="I29" s="33">
-        <f>IF($D29-SUM($E29:H29)&gt;I$5-SUM(I$7:I28),I$5-SUM(I$7:I28),$D29-SUM($E29:H29))</f>
-        <v>0</v>
-      </c>
-      <c r="J29" s="33">
-        <f>IF($D29-SUM($E29:I29)&gt;J$5-SUM(J$7:J28),J$5-SUM(J$7:J28),$D29-SUM($E29:I29))</f>
-        <v>0</v>
-      </c>
+      <c r="I29" s="70"/>
+      <c r="J29" s="70"/>
       <c r="K29" s="33"/>
       <c r="L29" s="33"/>
       <c r="M29" s="33">
@@ -4029,7 +3668,7 @@
       <c r="AF29" s="33"/>
       <c r="AG29" s="53"/>
     </row>
-    <row r="30" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A30" s="54">
         <v>23</v>
       </c>
@@ -4049,14 +3688,8 @@
         <f>IF($D30-SUM($E30:G30)&gt;H$5-SUM(H$7:H29),H$5-SUM(H$7:H29),$D30-SUM($E30:G30))</f>
         <v>0</v>
       </c>
-      <c r="I30" s="33">
-        <f>IF($D30-SUM($E30:H30)&gt;I$5-SUM(I$7:I29),I$5-SUM(I$7:I29),$D30-SUM($E30:H30))</f>
-        <v>0</v>
-      </c>
-      <c r="J30" s="33">
-        <f>IF($D30-SUM($E30:I30)&gt;J$5-SUM(J$7:J29),J$5-SUM(J$7:J29),$D30-SUM($E30:I30))</f>
-        <v>0</v>
-      </c>
+      <c r="I30" s="70"/>
+      <c r="J30" s="70"/>
       <c r="K30" s="33"/>
       <c r="L30" s="33"/>
       <c r="M30" s="33">
@@ -4126,7 +3759,7 @@
       <c r="AF30" s="33"/>
       <c r="AG30" s="53"/>
     </row>
-    <row r="31" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A31" s="54">
         <v>24</v>
       </c>
@@ -4146,14 +3779,8 @@
         <f>IF($D31-SUM($E31:G31)&gt;H$5-SUM(H$7:H30),H$5-SUM(H$7:H30),$D31-SUM($E31:G31))</f>
         <v>0</v>
       </c>
-      <c r="I31" s="33">
-        <f>IF($D31-SUM($E31:H31)&gt;I$5-SUM(I$7:I30),I$5-SUM(I$7:I30),$D31-SUM($E31:H31))</f>
-        <v>0</v>
-      </c>
-      <c r="J31" s="33">
-        <f>IF($D31-SUM($E31:I31)&gt;J$5-SUM(J$7:J30),J$5-SUM(J$7:J30),$D31-SUM($E31:I31))</f>
-        <v>0</v>
-      </c>
+      <c r="I31" s="70"/>
+      <c r="J31" s="70"/>
       <c r="K31" s="33"/>
       <c r="L31" s="33"/>
       <c r="M31" s="33">
@@ -4223,7 +3850,7 @@
       <c r="AF31" s="33"/>
       <c r="AG31" s="53"/>
     </row>
-    <row r="32" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A32" s="54">
         <v>25</v>
       </c>
@@ -4243,14 +3870,8 @@
         <f>IF($D32-SUM($E32:G32)&gt;H$5-SUM(H$7:H31),H$5-SUM(H$7:H31),$D32-SUM($E32:G32))</f>
         <v>0</v>
       </c>
-      <c r="I32" s="33">
-        <f>IF($D32-SUM($E32:H32)&gt;I$5-SUM(I$7:I31),I$5-SUM(I$7:I31),$D32-SUM($E32:H32))</f>
-        <v>0</v>
-      </c>
-      <c r="J32" s="33">
-        <f>IF($D32-SUM($E32:I32)&gt;J$5-SUM(J$7:J31),J$5-SUM(J$7:J31),$D32-SUM($E32:I32))</f>
-        <v>0</v>
-      </c>
+      <c r="I32" s="70"/>
+      <c r="J32" s="70"/>
       <c r="K32" s="33"/>
       <c r="L32" s="33"/>
       <c r="M32" s="33">
@@ -4320,7 +3941,7 @@
       <c r="AF32" s="33"/>
       <c r="AG32" s="53"/>
     </row>
-    <row r="33" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A33" s="54">
         <v>26</v>
       </c>
@@ -4340,14 +3961,8 @@
         <f>IF($D33-SUM($E33:G33)&gt;H$5-SUM(H$7:H32),H$5-SUM(H$7:H32),$D33-SUM($E33:G33))</f>
         <v>0</v>
       </c>
-      <c r="I33" s="33">
-        <f>IF($D33-SUM($E33:H33)&gt;I$5-SUM(I$7:I32),I$5-SUM(I$7:I32),$D33-SUM($E33:H33))</f>
-        <v>0</v>
-      </c>
-      <c r="J33" s="33">
-        <f>IF($D33-SUM($E33:I33)&gt;J$5-SUM(J$7:J32),J$5-SUM(J$7:J32),$D33-SUM($E33:I33))</f>
-        <v>0</v>
-      </c>
+      <c r="I33" s="70"/>
+      <c r="J33" s="70"/>
       <c r="K33" s="33"/>
       <c r="L33" s="33"/>
       <c r="M33" s="33">
@@ -4417,7 +4032,7 @@
       <c r="AF33" s="33"/>
       <c r="AG33" s="53"/>
     </row>
-    <row r="34" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A34" s="54">
         <v>27</v>
       </c>
@@ -4437,14 +4052,8 @@
         <f>IF($D34-SUM($E34:G34)&gt;H$5-SUM(H$7:H33),H$5-SUM(H$7:H33),$D34-SUM($E34:G34))</f>
         <v>0</v>
       </c>
-      <c r="I34" s="33">
-        <f>IF($D34-SUM($E34:H34)&gt;I$5-SUM(I$7:I33),I$5-SUM(I$7:I33),$D34-SUM($E34:H34))</f>
-        <v>0</v>
-      </c>
-      <c r="J34" s="33">
-        <f>IF($D34-SUM($E34:I34)&gt;J$5-SUM(J$7:J33),J$5-SUM(J$7:J33),$D34-SUM($E34:I34))</f>
-        <v>0</v>
-      </c>
+      <c r="I34" s="70"/>
+      <c r="J34" s="70"/>
       <c r="K34" s="33"/>
       <c r="L34" s="33"/>
       <c r="M34" s="33">
@@ -4514,7 +4123,7 @@
       <c r="AF34" s="33"/>
       <c r="AG34" s="53"/>
     </row>
-    <row r="35" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A35" s="54">
         <v>28</v>
       </c>
@@ -4534,14 +4143,8 @@
         <f>IF($D35-SUM($E35:G35)&gt;H$5-SUM(H$7:H34),H$5-SUM(H$7:H34),$D35-SUM($E35:G35))</f>
         <v>0</v>
       </c>
-      <c r="I35" s="33">
-        <f>IF($D35-SUM($E35:H35)&gt;I$5-SUM(I$7:I34),I$5-SUM(I$7:I34),$D35-SUM($E35:H35))</f>
-        <v>0</v>
-      </c>
-      <c r="J35" s="33">
-        <f>IF($D35-SUM($E35:I35)&gt;J$5-SUM(J$7:J34),J$5-SUM(J$7:J34),$D35-SUM($E35:I35))</f>
-        <v>0</v>
-      </c>
+      <c r="I35" s="70"/>
+      <c r="J35" s="70"/>
       <c r="K35" s="33"/>
       <c r="L35" s="33"/>
       <c r="M35" s="33">
@@ -4611,7 +4214,7 @@
       <c r="AF35" s="33"/>
       <c r="AG35" s="53"/>
     </row>
-    <row r="36" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A36" s="54">
         <v>29</v>
       </c>
@@ -4631,14 +4234,8 @@
         <f>IF($D36-SUM($E36:G36)&gt;H$5-SUM(H$7:H35),H$5-SUM(H$7:H35),$D36-SUM($E36:G36))</f>
         <v>0</v>
       </c>
-      <c r="I36" s="33">
-        <f>IF($D36-SUM($E36:H36)&gt;I$5-SUM(I$7:I35),I$5-SUM(I$7:I35),$D36-SUM($E36:H36))</f>
-        <v>0</v>
-      </c>
-      <c r="J36" s="33">
-        <f>IF($D36-SUM($E36:I36)&gt;J$5-SUM(J$7:J35),J$5-SUM(J$7:J35),$D36-SUM($E36:I36))</f>
-        <v>0</v>
-      </c>
+      <c r="I36" s="70"/>
+      <c r="J36" s="70"/>
       <c r="K36" s="33"/>
       <c r="L36" s="33"/>
       <c r="M36" s="33">
@@ -4708,7 +4305,7 @@
       <c r="AF36" s="33"/>
       <c r="AG36" s="53"/>
     </row>
-    <row r="37" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A37" s="54">
         <v>30</v>
       </c>
@@ -4728,14 +4325,8 @@
         <f>IF($D37-SUM($E37:G37)&gt;H$5-SUM(H$7:H36),H$5-SUM(H$7:H36),$D37-SUM($E37:G37))</f>
         <v>0</v>
       </c>
-      <c r="I37" s="33">
-        <f>IF($D37-SUM($E37:H37)&gt;I$5-SUM(I$7:I36),I$5-SUM(I$7:I36),$D37-SUM($E37:H37))</f>
-        <v>0</v>
-      </c>
-      <c r="J37" s="33">
-        <f>IF($D37-SUM($E37:I37)&gt;J$5-SUM(J$7:J36),J$5-SUM(J$7:J36),$D37-SUM($E37:I37))</f>
-        <v>0</v>
-      </c>
+      <c r="I37" s="70"/>
+      <c r="J37" s="70"/>
       <c r="K37" s="33"/>
       <c r="L37" s="33"/>
       <c r="M37" s="33">
@@ -4805,7 +4396,7 @@
       <c r="AF37" s="33"/>
       <c r="AG37" s="53"/>
     </row>
-    <row r="38" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A38" s="54">
         <v>31</v>
       </c>
@@ -4825,14 +4416,8 @@
         <f>IF($D38-SUM($E38:G38)&gt;H$5-SUM(H$7:H37),H$5-SUM(H$7:H37),$D38-SUM($E38:G38))</f>
         <v>0</v>
       </c>
-      <c r="I38" s="33">
-        <f>IF($D38-SUM($E38:H38)&gt;I$5-SUM(I$7:I37),I$5-SUM(I$7:I37),$D38-SUM($E38:H38))</f>
-        <v>0</v>
-      </c>
-      <c r="J38" s="33">
-        <f>IF($D38-SUM($E38:I38)&gt;J$5-SUM(J$7:J37),J$5-SUM(J$7:J37),$D38-SUM($E38:I38))</f>
-        <v>0</v>
-      </c>
+      <c r="I38" s="70"/>
+      <c r="J38" s="70"/>
       <c r="K38" s="33"/>
       <c r="L38" s="33"/>
       <c r="M38" s="33">
@@ -4902,7 +4487,7 @@
       <c r="AF38" s="33"/>
       <c r="AG38" s="53"/>
     </row>
-    <row r="39" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A39" s="54">
         <v>32</v>
       </c>
@@ -4922,14 +4507,8 @@
         <f>IF($D39-SUM($E39:G39)&gt;H$5-SUM(H$7:H38),H$5-SUM(H$7:H38),$D39-SUM($E39:G39))</f>
         <v>0</v>
       </c>
-      <c r="I39" s="33">
-        <f>IF($D39-SUM($E39:H39)&gt;I$5-SUM(I$7:I38),I$5-SUM(I$7:I38),$D39-SUM($E39:H39))</f>
-        <v>0</v>
-      </c>
-      <c r="J39" s="33">
-        <f>IF($D39-SUM($E39:I39)&gt;J$5-SUM(J$7:J38),J$5-SUM(J$7:J38),$D39-SUM($E39:I39))</f>
-        <v>0</v>
-      </c>
+      <c r="I39" s="70"/>
+      <c r="J39" s="70"/>
       <c r="K39" s="33"/>
       <c r="L39" s="33"/>
       <c r="M39" s="33">
@@ -4999,7 +4578,7 @@
       <c r="AF39" s="33"/>
       <c r="AG39" s="53"/>
     </row>
-    <row r="40" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A40" s="54">
         <v>33</v>
       </c>
@@ -5019,14 +4598,8 @@
         <f>IF($D40-SUM($E40:G40)&gt;H$5-SUM(H$7:H39),H$5-SUM(H$7:H39),$D40-SUM($E40:G40))</f>
         <v>0</v>
       </c>
-      <c r="I40" s="33">
-        <f>IF($D40-SUM($E40:H40)&gt;I$5-SUM(I$7:I39),I$5-SUM(I$7:I39),$D40-SUM($E40:H40))</f>
-        <v>0</v>
-      </c>
-      <c r="J40" s="33">
-        <f>IF($D40-SUM($E40:I40)&gt;J$5-SUM(J$7:J39),J$5-SUM(J$7:J39),$D40-SUM($E40:I40))</f>
-        <v>0</v>
-      </c>
+      <c r="I40" s="70"/>
+      <c r="J40" s="70"/>
       <c r="K40" s="33"/>
       <c r="L40" s="33"/>
       <c r="M40" s="33">
@@ -5096,7 +4669,7 @@
       <c r="AF40" s="33"/>
       <c r="AG40" s="53"/>
     </row>
-    <row r="41" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A41" s="54">
         <v>34</v>
       </c>
@@ -5116,14 +4689,8 @@
         <f>IF($D41-SUM($E41:G41)&gt;H$5-SUM(H$7:H40),H$5-SUM(H$7:H40),$D41-SUM($E41:G41))</f>
         <v>0</v>
       </c>
-      <c r="I41" s="33">
-        <f>IF($D41-SUM($E41:H41)&gt;I$5-SUM(I$7:I40),I$5-SUM(I$7:I40),$D41-SUM($E41:H41))</f>
-        <v>0</v>
-      </c>
-      <c r="J41" s="33">
-        <f>IF($D41-SUM($E41:I41)&gt;J$5-SUM(J$7:J40),J$5-SUM(J$7:J40),$D41-SUM($E41:I41))</f>
-        <v>0</v>
-      </c>
+      <c r="I41" s="70"/>
+      <c r="J41" s="70"/>
       <c r="K41" s="33"/>
       <c r="L41" s="33"/>
       <c r="M41" s="33">
@@ -5193,7 +4760,7 @@
       <c r="AF41" s="33"/>
       <c r="AG41" s="53"/>
     </row>
-    <row r="42" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A42" s="54">
         <v>35</v>
       </c>
@@ -5213,14 +4780,8 @@
         <f>IF($D42-SUM($E42:G42)&gt;H$5-SUM(H$7:H41),H$5-SUM(H$7:H41),$D42-SUM($E42:G42))</f>
         <v>0</v>
       </c>
-      <c r="I42" s="33">
-        <f>IF($D42-SUM($E42:H42)&gt;I$5-SUM(I$7:I41),I$5-SUM(I$7:I41),$D42-SUM($E42:H42))</f>
-        <v>0</v>
-      </c>
-      <c r="J42" s="33">
-        <f>IF($D42-SUM($E42:I42)&gt;J$5-SUM(J$7:J41),J$5-SUM(J$7:J41),$D42-SUM($E42:I42))</f>
-        <v>0</v>
-      </c>
+      <c r="I42" s="70"/>
+      <c r="J42" s="70"/>
       <c r="K42" s="33"/>
       <c r="L42" s="33"/>
       <c r="M42" s="33">
@@ -5290,7 +4851,7 @@
       <c r="AF42" s="33"/>
       <c r="AG42" s="53"/>
     </row>
-    <row r="43" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A43" s="54">
         <v>36</v>
       </c>
@@ -5310,14 +4871,8 @@
         <f>IF($D43-SUM($E43:G43)&gt;H$5-SUM(H$7:H42),H$5-SUM(H$7:H42),$D43-SUM($E43:G43))</f>
         <v>0</v>
       </c>
-      <c r="I43" s="33">
-        <f>IF($D43-SUM($E43:H43)&gt;I$5-SUM(I$7:I42),I$5-SUM(I$7:I42),$D43-SUM($E43:H43))</f>
-        <v>0</v>
-      </c>
-      <c r="J43" s="33">
-        <f>IF($D43-SUM($E43:I43)&gt;J$5-SUM(J$7:J42),J$5-SUM(J$7:J42),$D43-SUM($E43:I43))</f>
-        <v>0</v>
-      </c>
+      <c r="I43" s="70"/>
+      <c r="J43" s="70"/>
       <c r="K43" s="33"/>
       <c r="L43" s="33"/>
       <c r="M43" s="33">
@@ -5387,7 +4942,7 @@
       <c r="AF43" s="33"/>
       <c r="AG43" s="53"/>
     </row>
-    <row r="44" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A44" s="54">
         <v>37</v>
       </c>
@@ -5407,14 +4962,8 @@
         <f>IF($D44-SUM($E44:G44)&gt;H$5-SUM(H$7:H43),H$5-SUM(H$7:H43),$D44-SUM($E44:G44))</f>
         <v>0</v>
       </c>
-      <c r="I44" s="33">
-        <f>IF($D44-SUM($E44:H44)&gt;I$5-SUM(I$7:I43),I$5-SUM(I$7:I43),$D44-SUM($E44:H44))</f>
-        <v>0</v>
-      </c>
-      <c r="J44" s="33">
-        <f>IF($D44-SUM($E44:I44)&gt;J$5-SUM(J$7:J43),J$5-SUM(J$7:J43),$D44-SUM($E44:I44))</f>
-        <v>0</v>
-      </c>
+      <c r="I44" s="70"/>
+      <c r="J44" s="70"/>
       <c r="K44" s="33"/>
       <c r="L44" s="33"/>
       <c r="M44" s="33">
@@ -5484,7 +5033,7 @@
       <c r="AF44" s="33"/>
       <c r="AG44" s="53"/>
     </row>
-    <row r="45" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A45" s="54">
         <v>38</v>
       </c>
@@ -5504,14 +5053,8 @@
         <f>IF($D45-SUM($E45:G45)&gt;H$5-SUM(H$7:H44),H$5-SUM(H$7:H44),$D45-SUM($E45:G45))</f>
         <v>0</v>
       </c>
-      <c r="I45" s="33">
-        <f>IF($D45-SUM($E45:H45)&gt;I$5-SUM(I$7:I44),I$5-SUM(I$7:I44),$D45-SUM($E45:H45))</f>
-        <v>0</v>
-      </c>
-      <c r="J45" s="33">
-        <f>IF($D45-SUM($E45:I45)&gt;J$5-SUM(J$7:J44),J$5-SUM(J$7:J44),$D45-SUM($E45:I45))</f>
-        <v>0</v>
-      </c>
+      <c r="I45" s="70"/>
+      <c r="J45" s="70"/>
       <c r="K45" s="33"/>
       <c r="L45" s="33"/>
       <c r="M45" s="33">
@@ -5581,7 +5124,7 @@
       <c r="AF45" s="33"/>
       <c r="AG45" s="53"/>
     </row>
-    <row r="46" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A46" s="54">
         <v>39</v>
       </c>
@@ -5601,14 +5144,8 @@
         <f>IF($D46-SUM($E46:G46)&gt;H$5-SUM(H$7:H45),H$5-SUM(H$7:H45),$D46-SUM($E46:G46))</f>
         <v>0</v>
       </c>
-      <c r="I46" s="33">
-        <f>IF($D46-SUM($E46:H46)&gt;I$5-SUM(I$7:I45),I$5-SUM(I$7:I45),$D46-SUM($E46:H46))</f>
-        <v>0</v>
-      </c>
-      <c r="J46" s="33">
-        <f>IF($D46-SUM($E46:I46)&gt;J$5-SUM(J$7:J45),J$5-SUM(J$7:J45),$D46-SUM($E46:I46))</f>
-        <v>0</v>
-      </c>
+      <c r="I46" s="70"/>
+      <c r="J46" s="70"/>
       <c r="K46" s="33"/>
       <c r="L46" s="33"/>
       <c r="M46" s="33">
@@ -5678,7 +5215,7 @@
       <c r="AF46" s="33"/>
       <c r="AG46" s="53"/>
     </row>
-    <row r="47" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A47" s="54">
         <v>40</v>
       </c>
@@ -5698,14 +5235,8 @@
         <f>IF($D47-SUM($E47:G47)&gt;H$5-SUM(H$7:H46),H$5-SUM(H$7:H46),$D47-SUM($E47:G47))</f>
         <v>0</v>
       </c>
-      <c r="I47" s="33">
-        <f>IF($D47-SUM($E47:H47)&gt;I$5-SUM(I$7:I46),I$5-SUM(I$7:I46),$D47-SUM($E47:H47))</f>
-        <v>0</v>
-      </c>
-      <c r="J47" s="33">
-        <f>IF($D47-SUM($E47:I47)&gt;J$5-SUM(J$7:J46),J$5-SUM(J$7:J46),$D47-SUM($E47:I47))</f>
-        <v>0</v>
-      </c>
+      <c r="I47" s="70"/>
+      <c r="J47" s="70"/>
       <c r="K47" s="33"/>
       <c r="L47" s="33"/>
       <c r="M47" s="33">
@@ -5775,7 +5306,7 @@
       <c r="AF47" s="33"/>
       <c r="AG47" s="53"/>
     </row>
-    <row r="48" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A48" s="54">
         <v>41</v>
       </c>
@@ -5795,14 +5326,8 @@
         <f>IF($D48-SUM($E48:G48)&gt;H$5-SUM(H$7:H47),H$5-SUM(H$7:H47),$D48-SUM($E48:G48))</f>
         <v>0</v>
       </c>
-      <c r="I48" s="33">
-        <f>IF($D48-SUM($E48:H48)&gt;I$5-SUM(I$7:I47),I$5-SUM(I$7:I47),$D48-SUM($E48:H48))</f>
-        <v>0</v>
-      </c>
-      <c r="J48" s="33">
-        <f>IF($D48-SUM($E48:I48)&gt;J$5-SUM(J$7:J47),J$5-SUM(J$7:J47),$D48-SUM($E48:I48))</f>
-        <v>0</v>
-      </c>
+      <c r="I48" s="70"/>
+      <c r="J48" s="70"/>
       <c r="K48" s="33"/>
       <c r="L48" s="33"/>
       <c r="M48" s="33">
@@ -5872,7 +5397,7 @@
       <c r="AF48" s="33"/>
       <c r="AG48" s="53"/>
     </row>
-    <row r="49" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A49" s="54">
         <v>42</v>
       </c>
@@ -5892,14 +5417,8 @@
         <f>IF($D49-SUM($E49:G49)&gt;H$5-SUM(H$7:H48),H$5-SUM(H$7:H48),$D49-SUM($E49:G49))</f>
         <v>0</v>
       </c>
-      <c r="I49" s="33">
-        <f>IF($D49-SUM($E49:H49)&gt;I$5-SUM(I$7:I48),I$5-SUM(I$7:I48),$D49-SUM($E49:H49))</f>
-        <v>0</v>
-      </c>
-      <c r="J49" s="33">
-        <f>IF($D49-SUM($E49:I49)&gt;J$5-SUM(J$7:J48),J$5-SUM(J$7:J48),$D49-SUM($E49:I49))</f>
-        <v>0</v>
-      </c>
+      <c r="I49" s="70"/>
+      <c r="J49" s="70"/>
       <c r="K49" s="33"/>
       <c r="L49" s="33"/>
       <c r="M49" s="33">
@@ -5969,7 +5488,7 @@
       <c r="AF49" s="33"/>
       <c r="AG49" s="53"/>
     </row>
-    <row r="50" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A50" s="54">
         <v>43</v>
       </c>
@@ -5989,14 +5508,8 @@
         <f>IF($D50-SUM($E50:G50)&gt;H$5-SUM(H$7:H49),H$5-SUM(H$7:H49),$D50-SUM($E50:G50))</f>
         <v>0</v>
       </c>
-      <c r="I50" s="33">
-        <f>IF($D50-SUM($E50:H50)&gt;I$5-SUM(I$7:I49),I$5-SUM(I$7:I49),$D50-SUM($E50:H50))</f>
-        <v>0</v>
-      </c>
-      <c r="J50" s="33">
-        <f>IF($D50-SUM($E50:I50)&gt;J$5-SUM(J$7:J49),J$5-SUM(J$7:J49),$D50-SUM($E50:I50))</f>
-        <v>0</v>
-      </c>
+      <c r="I50" s="70"/>
+      <c r="J50" s="70"/>
       <c r="K50" s="33"/>
       <c r="L50" s="33"/>
       <c r="M50" s="33">
@@ -6066,7 +5579,7 @@
       <c r="AF50" s="33"/>
       <c r="AG50" s="53"/>
     </row>
-    <row r="51" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A51" s="54">
         <v>44</v>
       </c>
@@ -6086,14 +5599,8 @@
         <f>IF($D51-SUM($E51:G51)&gt;H$5-SUM(H$7:H50),H$5-SUM(H$7:H50),$D51-SUM($E51:G51))</f>
         <v>0</v>
       </c>
-      <c r="I51" s="33">
-        <f>IF($D51-SUM($E51:H51)&gt;I$5-SUM(I$7:I50),I$5-SUM(I$7:I50),$D51-SUM($E51:H51))</f>
-        <v>0</v>
-      </c>
-      <c r="J51" s="33">
-        <f>IF($D51-SUM($E51:I51)&gt;J$5-SUM(J$7:J50),J$5-SUM(J$7:J50),$D51-SUM($E51:I51))</f>
-        <v>0</v>
-      </c>
+      <c r="I51" s="70"/>
+      <c r="J51" s="70"/>
       <c r="K51" s="33"/>
       <c r="L51" s="33"/>
       <c r="M51" s="33">
@@ -6163,7 +5670,7 @@
       <c r="AF51" s="33"/>
       <c r="AG51" s="53"/>
     </row>
-    <row r="52" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A52" s="54">
         <v>45</v>
       </c>
@@ -6183,14 +5690,8 @@
         <f>IF($D52-SUM($E52:G52)&gt;H$5-SUM(H$7:H51),H$5-SUM(H$7:H51),$D52-SUM($E52:G52))</f>
         <v>0</v>
       </c>
-      <c r="I52" s="33">
-        <f>IF($D52-SUM($E52:H52)&gt;I$5-SUM(I$7:I51),I$5-SUM(I$7:I51),$D52-SUM($E52:H52))</f>
-        <v>0</v>
-      </c>
-      <c r="J52" s="33">
-        <f>IF($D52-SUM($E52:I52)&gt;J$5-SUM(J$7:J51),J$5-SUM(J$7:J51),$D52-SUM($E52:I52))</f>
-        <v>0</v>
-      </c>
+      <c r="I52" s="70"/>
+      <c r="J52" s="70"/>
       <c r="K52" s="33"/>
       <c r="L52" s="33"/>
       <c r="M52" s="33">
@@ -6260,7 +5761,7 @@
       <c r="AF52" s="33"/>
       <c r="AG52" s="53"/>
     </row>
-    <row r="53" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A53" s="54">
         <v>46</v>
       </c>
@@ -6280,14 +5781,8 @@
         <f>IF($D53-SUM($E53:G53)&gt;H$5-SUM(H$7:H52),H$5-SUM(H$7:H52),$D53-SUM($E53:G53))</f>
         <v>0</v>
       </c>
-      <c r="I53" s="33">
-        <f>IF($D53-SUM($E53:H53)&gt;I$5-SUM(I$7:I52),I$5-SUM(I$7:I52),$D53-SUM($E53:H53))</f>
-        <v>0</v>
-      </c>
-      <c r="J53" s="33">
-        <f>IF($D53-SUM($E53:I53)&gt;J$5-SUM(J$7:J52),J$5-SUM(J$7:J52),$D53-SUM($E53:I53))</f>
-        <v>0</v>
-      </c>
+      <c r="I53" s="70"/>
+      <c r="J53" s="70"/>
       <c r="K53" s="33"/>
       <c r="L53" s="33"/>
       <c r="M53" s="33">
@@ -6357,7 +5852,7 @@
       <c r="AF53" s="33"/>
       <c r="AG53" s="53"/>
     </row>
-    <row r="54" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A54" s="54">
         <v>47</v>
       </c>
@@ -6377,14 +5872,8 @@
         <f>IF($D54-SUM($E54:G54)&gt;H$5-SUM(H$7:H53),H$5-SUM(H$7:H53),$D54-SUM($E54:G54))</f>
         <v>0</v>
       </c>
-      <c r="I54" s="33">
-        <f>IF($D54-SUM($E54:H54)&gt;I$5-SUM(I$7:I53),I$5-SUM(I$7:I53),$D54-SUM($E54:H54))</f>
-        <v>0</v>
-      </c>
-      <c r="J54" s="33">
-        <f>IF($D54-SUM($E54:I54)&gt;J$5-SUM(J$7:J53),J$5-SUM(J$7:J53),$D54-SUM($E54:I54))</f>
-        <v>0</v>
-      </c>
+      <c r="I54" s="70"/>
+      <c r="J54" s="70"/>
       <c r="K54" s="33"/>
       <c r="L54" s="33"/>
       <c r="M54" s="33">
@@ -6454,7 +5943,7 @@
       <c r="AF54" s="33"/>
       <c r="AG54" s="53"/>
     </row>
-    <row r="55" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A55" s="54">
         <v>48</v>
       </c>
@@ -6474,14 +5963,8 @@
         <f>IF($D55-SUM($E55:G55)&gt;H$5-SUM(H$7:H54),H$5-SUM(H$7:H54),$D55-SUM($E55:G55))</f>
         <v>0</v>
       </c>
-      <c r="I55" s="33">
-        <f>IF($D55-SUM($E55:H55)&gt;I$5-SUM(I$7:I54),I$5-SUM(I$7:I54),$D55-SUM($E55:H55))</f>
-        <v>0</v>
-      </c>
-      <c r="J55" s="33">
-        <f>IF($D55-SUM($E55:I55)&gt;J$5-SUM(J$7:J54),J$5-SUM(J$7:J54),$D55-SUM($E55:I55))</f>
-        <v>0</v>
-      </c>
+      <c r="I55" s="70"/>
+      <c r="J55" s="70"/>
       <c r="K55" s="33"/>
       <c r="L55" s="33"/>
       <c r="M55" s="33">
@@ -6551,7 +6034,7 @@
       <c r="AF55" s="33"/>
       <c r="AG55" s="53"/>
     </row>
-    <row r="56" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A56" s="54">
         <v>49</v>
       </c>
@@ -6571,14 +6054,8 @@
         <f>IF($D56-SUM($E56:G56)&gt;H$5-SUM(H$7:H55),H$5-SUM(H$7:H55),$D56-SUM($E56:G56))</f>
         <v>0</v>
       </c>
-      <c r="I56" s="33">
-        <f>IF($D56-SUM($E56:H56)&gt;I$5-SUM(I$7:I55),I$5-SUM(I$7:I55),$D56-SUM($E56:H56))</f>
-        <v>0</v>
-      </c>
-      <c r="J56" s="33">
-        <f>IF($D56-SUM($E56:I56)&gt;J$5-SUM(J$7:J55),J$5-SUM(J$7:J55),$D56-SUM($E56:I56))</f>
-        <v>0</v>
-      </c>
+      <c r="I56" s="70"/>
+      <c r="J56" s="70"/>
       <c r="K56" s="33"/>
       <c r="L56" s="33"/>
       <c r="M56" s="33">
@@ -6648,7 +6125,7 @@
       <c r="AF56" s="33"/>
       <c r="AG56" s="53"/>
     </row>
-    <row r="57" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A57" s="54">
         <v>50</v>
       </c>
@@ -6668,14 +6145,8 @@
         <f>IF($D57-SUM($E57:G57)&gt;H$5-SUM(H$7:H56),H$5-SUM(H$7:H56),$D57-SUM($E57:G57))</f>
         <v>0</v>
       </c>
-      <c r="I57" s="33">
-        <f>IF($D57-SUM($E57:H57)&gt;I$5-SUM(I$7:I56),I$5-SUM(I$7:I56),$D57-SUM($E57:H57))</f>
-        <v>0</v>
-      </c>
-      <c r="J57" s="33">
-        <f>IF($D57-SUM($E57:I57)&gt;J$5-SUM(J$7:J56),J$5-SUM(J$7:J56),$D57-SUM($E57:I57))</f>
-        <v>0</v>
-      </c>
+      <c r="I57" s="70"/>
+      <c r="J57" s="70"/>
       <c r="K57" s="33"/>
       <c r="L57" s="33"/>
       <c r="M57" s="33">
@@ -6745,7 +6216,7 @@
       <c r="AF57" s="33"/>
       <c r="AG57" s="53"/>
     </row>
-    <row r="58" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A58" s="54">
         <v>51</v>
       </c>
@@ -6765,14 +6236,8 @@
         <f>IF($D58-SUM($E58:G58)&gt;H$5-SUM(H$7:H57),H$5-SUM(H$7:H57),$D58-SUM($E58:G58))</f>
         <v>0</v>
       </c>
-      <c r="I58" s="33">
-        <f>IF($D58-SUM($E58:H58)&gt;I$5-SUM(I$7:I57),I$5-SUM(I$7:I57),$D58-SUM($E58:H58))</f>
-        <v>0</v>
-      </c>
-      <c r="J58" s="33">
-        <f>IF($D58-SUM($E58:I58)&gt;J$5-SUM(J$7:J57),J$5-SUM(J$7:J57),$D58-SUM($E58:I58))</f>
-        <v>0</v>
-      </c>
+      <c r="I58" s="70"/>
+      <c r="J58" s="70"/>
       <c r="K58" s="33"/>
       <c r="L58" s="33"/>
       <c r="M58" s="33">
@@ -6842,7 +6307,7 @@
       <c r="AF58" s="33"/>
       <c r="AG58" s="53"/>
     </row>
-    <row r="59" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A59" s="54">
         <v>52</v>
       </c>
@@ -6862,14 +6327,8 @@
         <f>IF($D59-SUM($E59:G59)&gt;H$5-SUM(H$7:H58),H$5-SUM(H$7:H58),$D59-SUM($E59:G59))</f>
         <v>0</v>
       </c>
-      <c r="I59" s="33">
-        <f>IF($D59-SUM($E59:H59)&gt;I$5-SUM(I$7:I58),I$5-SUM(I$7:I58),$D59-SUM($E59:H59))</f>
-        <v>0</v>
-      </c>
-      <c r="J59" s="33">
-        <f>IF($D59-SUM($E59:I59)&gt;J$5-SUM(J$7:J58),J$5-SUM(J$7:J58),$D59-SUM($E59:I59))</f>
-        <v>0</v>
-      </c>
+      <c r="I59" s="70"/>
+      <c r="J59" s="70"/>
       <c r="K59" s="33"/>
       <c r="L59" s="33"/>
       <c r="M59" s="33">
@@ -6939,7 +6398,7 @@
       <c r="AF59" s="33"/>
       <c r="AG59" s="53"/>
     </row>
-    <row r="60" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A60" s="54">
         <v>53</v>
       </c>
@@ -6959,14 +6418,8 @@
         <f>IF($D60-SUM($E60:G60)&gt;H$5-SUM(H$7:H59),H$5-SUM(H$7:H59),$D60-SUM($E60:G60))</f>
         <v>0</v>
       </c>
-      <c r="I60" s="33">
-        <f>IF($D60-SUM($E60:H60)&gt;I$5-SUM(I$7:I59),I$5-SUM(I$7:I59),$D60-SUM($E60:H60))</f>
-        <v>0</v>
-      </c>
-      <c r="J60" s="33">
-        <f>IF($D60-SUM($E60:I60)&gt;J$5-SUM(J$7:J59),J$5-SUM(J$7:J59),$D60-SUM($E60:I60))</f>
-        <v>0</v>
-      </c>
+      <c r="I60" s="70"/>
+      <c r="J60" s="70"/>
       <c r="K60" s="33"/>
       <c r="L60" s="33"/>
       <c r="M60" s="33">
@@ -7036,7 +6489,7 @@
       <c r="AF60" s="33"/>
       <c r="AG60" s="53"/>
     </row>
-    <row r="61" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A61" s="54">
         <v>54</v>
       </c>
@@ -7056,14 +6509,8 @@
         <f>IF($D61-SUM($E61:G61)&gt;H$5-SUM(H$7:H60),H$5-SUM(H$7:H60),$D61-SUM($E61:G61))</f>
         <v>0</v>
       </c>
-      <c r="I61" s="33">
-        <f>IF($D61-SUM($E61:H61)&gt;I$5-SUM(I$7:I60),I$5-SUM(I$7:I60),$D61-SUM($E61:H61))</f>
-        <v>0</v>
-      </c>
-      <c r="J61" s="33">
-        <f>IF($D61-SUM($E61:I61)&gt;J$5-SUM(J$7:J60),J$5-SUM(J$7:J60),$D61-SUM($E61:I61))</f>
-        <v>0</v>
-      </c>
+      <c r="I61" s="70"/>
+      <c r="J61" s="70"/>
       <c r="K61" s="33"/>
       <c r="L61" s="33"/>
       <c r="M61" s="33">
@@ -7133,7 +6580,7 @@
       <c r="AF61" s="33"/>
       <c r="AG61" s="53"/>
     </row>
-    <row r="62" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A62" s="54">
         <v>55</v>
       </c>
@@ -7153,14 +6600,8 @@
         <f>IF($D62-SUM($E62:G62)&gt;H$5-SUM(H$7:H61),H$5-SUM(H$7:H61),$D62-SUM($E62:G62))</f>
         <v>0</v>
       </c>
-      <c r="I62" s="33">
-        <f>IF($D62-SUM($E62:H62)&gt;I$5-SUM(I$7:I61),I$5-SUM(I$7:I61),$D62-SUM($E62:H62))</f>
-        <v>0</v>
-      </c>
-      <c r="J62" s="33">
-        <f>IF($D62-SUM($E62:I62)&gt;J$5-SUM(J$7:J61),J$5-SUM(J$7:J61),$D62-SUM($E62:I62))</f>
-        <v>0</v>
-      </c>
+      <c r="I62" s="70"/>
+      <c r="J62" s="70"/>
       <c r="K62" s="33"/>
       <c r="L62" s="33"/>
       <c r="M62" s="33">
@@ -7230,7 +6671,7 @@
       <c r="AF62" s="33"/>
       <c r="AG62" s="53"/>
     </row>
-    <row r="63" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A63" s="54">
         <v>56</v>
       </c>
@@ -7250,14 +6691,8 @@
         <f>IF($D63-SUM($E63:G63)&gt;H$5-SUM(H$7:H62),H$5-SUM(H$7:H62),$D63-SUM($E63:G63))</f>
         <v>0</v>
       </c>
-      <c r="I63" s="33">
-        <f>IF($D63-SUM($E63:H63)&gt;I$5-SUM(I$7:I62),I$5-SUM(I$7:I62),$D63-SUM($E63:H63))</f>
-        <v>0</v>
-      </c>
-      <c r="J63" s="33">
-        <f>IF($D63-SUM($E63:I63)&gt;J$5-SUM(J$7:J62),J$5-SUM(J$7:J62),$D63-SUM($E63:I63))</f>
-        <v>0</v>
-      </c>
+      <c r="I63" s="70"/>
+      <c r="J63" s="70"/>
       <c r="K63" s="33"/>
       <c r="L63" s="33"/>
       <c r="M63" s="33">
@@ -7327,7 +6762,7 @@
       <c r="AF63" s="33"/>
       <c r="AG63" s="53"/>
     </row>
-    <row r="64" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A64" s="54">
         <v>57</v>
       </c>
@@ -7347,14 +6782,8 @@
         <f>IF($D64-SUM($E64:G64)&gt;H$5-SUM(H$7:H63),H$5-SUM(H$7:H63),$D64-SUM($E64:G64))</f>
         <v>0</v>
       </c>
-      <c r="I64" s="33">
-        <f>IF($D64-SUM($E64:H64)&gt;I$5-SUM(I$7:I63),I$5-SUM(I$7:I63),$D64-SUM($E64:H64))</f>
-        <v>0</v>
-      </c>
-      <c r="J64" s="33">
-        <f>IF($D64-SUM($E64:I64)&gt;J$5-SUM(J$7:J63),J$5-SUM(J$7:J63),$D64-SUM($E64:I64))</f>
-        <v>0</v>
-      </c>
+      <c r="I64" s="70"/>
+      <c r="J64" s="70"/>
       <c r="K64" s="33"/>
       <c r="L64" s="33"/>
       <c r="M64" s="33">
@@ -7424,7 +6853,7 @@
       <c r="AF64" s="33"/>
       <c r="AG64" s="53"/>
     </row>
-    <row r="65" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A65" s="54">
         <v>58</v>
       </c>
@@ -7444,14 +6873,8 @@
         <f>IF($D65-SUM($E65:G65)&gt;H$5-SUM(H$7:H64),H$5-SUM(H$7:H64),$D65-SUM($E65:G65))</f>
         <v>0</v>
       </c>
-      <c r="I65" s="33">
-        <f>IF($D65-SUM($E65:H65)&gt;I$5-SUM(I$7:I64),I$5-SUM(I$7:I64),$D65-SUM($E65:H65))</f>
-        <v>0</v>
-      </c>
-      <c r="J65" s="33">
-        <f>IF($D65-SUM($E65:I65)&gt;J$5-SUM(J$7:J64),J$5-SUM(J$7:J64),$D65-SUM($E65:I65))</f>
-        <v>0</v>
-      </c>
+      <c r="I65" s="70"/>
+      <c r="J65" s="70"/>
       <c r="K65" s="33"/>
       <c r="L65" s="33"/>
       <c r="M65" s="33">
@@ -7521,7 +6944,7 @@
       <c r="AF65" s="33"/>
       <c r="AG65" s="53"/>
     </row>
-    <row r="66" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A66" s="54">
         <v>59</v>
       </c>
@@ -7541,14 +6964,8 @@
         <f>IF($D66-SUM($E66:G66)&gt;H$5-SUM(H$7:H65),H$5-SUM(H$7:H65),$D66-SUM($E66:G66))</f>
         <v>0</v>
       </c>
-      <c r="I66" s="33">
-        <f>IF($D66-SUM($E66:H66)&gt;I$5-SUM(I$7:I65),I$5-SUM(I$7:I65),$D66-SUM($E66:H66))</f>
-        <v>0</v>
-      </c>
-      <c r="J66" s="33">
-        <f>IF($D66-SUM($E66:I66)&gt;J$5-SUM(J$7:J65),J$5-SUM(J$7:J65),$D66-SUM($E66:I66))</f>
-        <v>0</v>
-      </c>
+      <c r="I66" s="70"/>
+      <c r="J66" s="70"/>
       <c r="K66" s="33"/>
       <c r="L66" s="33"/>
       <c r="M66" s="33">
@@ -7618,7 +7035,7 @@
       <c r="AF66" s="33"/>
       <c r="AG66" s="53"/>
     </row>
-    <row r="67" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A67" s="54">
         <v>60</v>
       </c>
@@ -7638,14 +7055,8 @@
         <f>IF($D67-SUM($E67:G67)&gt;H$5-SUM(H$7:H66),H$5-SUM(H$7:H66),$D67-SUM($E67:G67))</f>
         <v>0</v>
       </c>
-      <c r="I67" s="33">
-        <f>IF($D67-SUM($E67:H67)&gt;I$5-SUM(I$7:I66),I$5-SUM(I$7:I66),$D67-SUM($E67:H67))</f>
-        <v>0</v>
-      </c>
-      <c r="J67" s="33">
-        <f>IF($D67-SUM($E67:I67)&gt;J$5-SUM(J$7:J66),J$5-SUM(J$7:J66),$D67-SUM($E67:I67))</f>
-        <v>0</v>
-      </c>
+      <c r="I67" s="70"/>
+      <c r="J67" s="70"/>
       <c r="K67" s="33"/>
       <c r="L67" s="33"/>
       <c r="M67" s="33">
@@ -7715,7 +7126,7 @@
       <c r="AF67" s="33"/>
       <c r="AG67" s="53"/>
     </row>
-    <row r="68" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A68" s="54">
         <v>61</v>
       </c>
@@ -7735,14 +7146,8 @@
         <f>IF($D68-SUM($E68:G68)&gt;H$5-SUM(H$7:H67),H$5-SUM(H$7:H67),$D68-SUM($E68:G68))</f>
         <v>0</v>
       </c>
-      <c r="I68" s="33">
-        <f>IF($D68-SUM($E68:H68)&gt;I$5-SUM(I$7:I67),I$5-SUM(I$7:I67),$D68-SUM($E68:H68))</f>
-        <v>0</v>
-      </c>
-      <c r="J68" s="33">
-        <f>IF($D68-SUM($E68:I68)&gt;J$5-SUM(J$7:J67),J$5-SUM(J$7:J67),$D68-SUM($E68:I68))</f>
-        <v>0</v>
-      </c>
+      <c r="I68" s="70"/>
+      <c r="J68" s="70"/>
       <c r="K68" s="33"/>
       <c r="L68" s="33"/>
       <c r="M68" s="33">
@@ -7812,7 +7217,7 @@
       <c r="AF68" s="33"/>
       <c r="AG68" s="53"/>
     </row>
-    <row r="69" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A69" s="54">
         <v>62</v>
       </c>
@@ -7832,14 +7237,8 @@
         <f>IF($D69-SUM($E69:G69)&gt;H$5-SUM(H$7:H68),H$5-SUM(H$7:H68),$D69-SUM($E69:G69))</f>
         <v>0</v>
       </c>
-      <c r="I69" s="33">
-        <f>IF($D69-SUM($E69:H69)&gt;I$5-SUM(I$7:I68),I$5-SUM(I$7:I68),$D69-SUM($E69:H69))</f>
-        <v>0</v>
-      </c>
-      <c r="J69" s="33">
-        <f>IF($D69-SUM($E69:I69)&gt;J$5-SUM(J$7:J68),J$5-SUM(J$7:J68),$D69-SUM($E69:I69))</f>
-        <v>0</v>
-      </c>
+      <c r="I69" s="70"/>
+      <c r="J69" s="70"/>
       <c r="K69" s="33"/>
       <c r="L69" s="33"/>
       <c r="M69" s="33">
@@ -7909,7 +7308,7 @@
       <c r="AF69" s="33"/>
       <c r="AG69" s="53"/>
     </row>
-    <row r="70" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A70" s="54">
         <v>63</v>
       </c>
@@ -7929,14 +7328,8 @@
         <f>IF($D70-SUM($E70:G70)&gt;H$5-SUM(H$7:H69),H$5-SUM(H$7:H69),$D70-SUM($E70:G70))</f>
         <v>0</v>
       </c>
-      <c r="I70" s="33">
-        <f>IF($D70-SUM($E70:H70)&gt;I$5-SUM(I$7:I69),I$5-SUM(I$7:I69),$D70-SUM($E70:H70))</f>
-        <v>0</v>
-      </c>
-      <c r="J70" s="33">
-        <f>IF($D70-SUM($E70:I70)&gt;J$5-SUM(J$7:J69),J$5-SUM(J$7:J69),$D70-SUM($E70:I70))</f>
-        <v>0</v>
-      </c>
+      <c r="I70" s="70"/>
+      <c r="J70" s="70"/>
       <c r="K70" s="33"/>
       <c r="L70" s="33"/>
       <c r="M70" s="33">
@@ -8006,7 +7399,7 @@
       <c r="AF70" s="33"/>
       <c r="AG70" s="53"/>
     </row>
-    <row r="71" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A71" s="54">
         <v>64</v>
       </c>
@@ -8026,14 +7419,8 @@
         <f>IF($D71-SUM($E71:G71)&gt;H$5-SUM(H$7:H70),H$5-SUM(H$7:H70),$D71-SUM($E71:G71))</f>
         <v>0</v>
       </c>
-      <c r="I71" s="33">
-        <f>IF($D71-SUM($E71:H71)&gt;I$5-SUM(I$7:I70),I$5-SUM(I$7:I70),$D71-SUM($E71:H71))</f>
-        <v>0</v>
-      </c>
-      <c r="J71" s="33">
-        <f>IF($D71-SUM($E71:I71)&gt;J$5-SUM(J$7:J70),J$5-SUM(J$7:J70),$D71-SUM($E71:I71))</f>
-        <v>0</v>
-      </c>
+      <c r="I71" s="70"/>
+      <c r="J71" s="70"/>
       <c r="K71" s="33"/>
       <c r="L71" s="33"/>
       <c r="M71" s="33">
@@ -8103,7 +7490,7 @@
       <c r="AF71" s="33"/>
       <c r="AG71" s="53"/>
     </row>
-    <row r="72" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A72" s="54">
         <v>65</v>
       </c>
@@ -8123,14 +7510,8 @@
         <f>IF($D72-SUM($E72:G72)&gt;H$5-SUM(H$7:H71),H$5-SUM(H$7:H71),$D72-SUM($E72:G72))</f>
         <v>0</v>
       </c>
-      <c r="I72" s="33">
-        <f>IF($D72-SUM($E72:H72)&gt;I$5-SUM(I$7:I71),I$5-SUM(I$7:I71),$D72-SUM($E72:H72))</f>
-        <v>0</v>
-      </c>
-      <c r="J72" s="33">
-        <f>IF($D72-SUM($E72:I72)&gt;J$5-SUM(J$7:J71),J$5-SUM(J$7:J71),$D72-SUM($E72:I72))</f>
-        <v>0</v>
-      </c>
+      <c r="I72" s="70"/>
+      <c r="J72" s="70"/>
       <c r="K72" s="33"/>
       <c r="L72" s="33"/>
       <c r="M72" s="33">
@@ -8200,7 +7581,7 @@
       <c r="AF72" s="33"/>
       <c r="AG72" s="53"/>
     </row>
-    <row r="73" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A73" s="54">
         <v>66</v>
       </c>
@@ -8220,14 +7601,8 @@
         <f>IF($D73-SUM($E73:G73)&gt;H$5-SUM(H$7:H72),H$5-SUM(H$7:H72),$D73-SUM($E73:G73))</f>
         <v>0</v>
       </c>
-      <c r="I73" s="33">
-        <f>IF($D73-SUM($E73:H73)&gt;I$5-SUM(I$7:I72),I$5-SUM(I$7:I72),$D73-SUM($E73:H73))</f>
-        <v>0</v>
-      </c>
-      <c r="J73" s="33">
-        <f>IF($D73-SUM($E73:I73)&gt;J$5-SUM(J$7:J72),J$5-SUM(J$7:J72),$D73-SUM($E73:I73))</f>
-        <v>0</v>
-      </c>
+      <c r="I73" s="70"/>
+      <c r="J73" s="70"/>
       <c r="K73" s="33"/>
       <c r="L73" s="33"/>
       <c r="M73" s="33">
@@ -8297,7 +7672,7 @@
       <c r="AF73" s="33"/>
       <c r="AG73" s="53"/>
     </row>
-    <row r="74" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A74" s="54">
         <v>67</v>
       </c>
@@ -8317,14 +7692,8 @@
         <f>IF($D74-SUM($E74:G74)&gt;H$5-SUM(H$7:H73),H$5-SUM(H$7:H73),$D74-SUM($E74:G74))</f>
         <v>0</v>
       </c>
-      <c r="I74" s="33">
-        <f>IF($D74-SUM($E74:H74)&gt;I$5-SUM(I$7:I73),I$5-SUM(I$7:I73),$D74-SUM($E74:H74))</f>
-        <v>0</v>
-      </c>
-      <c r="J74" s="33">
-        <f>IF($D74-SUM($E74:I74)&gt;J$5-SUM(J$7:J73),J$5-SUM(J$7:J73),$D74-SUM($E74:I74))</f>
-        <v>0</v>
-      </c>
+      <c r="I74" s="70"/>
+      <c r="J74" s="70"/>
       <c r="K74" s="33"/>
       <c r="L74" s="33"/>
       <c r="M74" s="33">
@@ -8394,7 +7763,7 @@
       <c r="AF74" s="33"/>
       <c r="AG74" s="53"/>
     </row>
-    <row r="75" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A75" s="54">
         <v>68</v>
       </c>
@@ -8414,14 +7783,8 @@
         <f>IF($D75-SUM($E75:G75)&gt;H$5-SUM(H$7:H74),H$5-SUM(H$7:H74),$D75-SUM($E75:G75))</f>
         <v>0</v>
       </c>
-      <c r="I75" s="33">
-        <f>IF($D75-SUM($E75:H75)&gt;I$5-SUM(I$7:I74),I$5-SUM(I$7:I74),$D75-SUM($E75:H75))</f>
-        <v>0</v>
-      </c>
-      <c r="J75" s="33">
-        <f>IF($D75-SUM($E75:I75)&gt;J$5-SUM(J$7:J74),J$5-SUM(J$7:J74),$D75-SUM($E75:I75))</f>
-        <v>0</v>
-      </c>
+      <c r="I75" s="70"/>
+      <c r="J75" s="70"/>
       <c r="K75" s="33"/>
       <c r="L75" s="33"/>
       <c r="M75" s="33">
@@ -8491,7 +7854,7 @@
       <c r="AF75" s="33"/>
       <c r="AG75" s="53"/>
     </row>
-    <row r="76" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A76" s="54">
         <v>69</v>
       </c>
@@ -8511,14 +7874,8 @@
         <f>IF($D76-SUM($E76:G76)&gt;H$5-SUM(H$7:H75),H$5-SUM(H$7:H75),$D76-SUM($E76:G76))</f>
         <v>0</v>
       </c>
-      <c r="I76" s="33">
-        <f>IF($D76-SUM($E76:H76)&gt;I$5-SUM(I$7:I75),I$5-SUM(I$7:I75),$D76-SUM($E76:H76))</f>
-        <v>0</v>
-      </c>
-      <c r="J76" s="33">
-        <f>IF($D76-SUM($E76:I76)&gt;J$5-SUM(J$7:J75),J$5-SUM(J$7:J75),$D76-SUM($E76:I76))</f>
-        <v>0</v>
-      </c>
+      <c r="I76" s="70"/>
+      <c r="J76" s="70"/>
       <c r="K76" s="33"/>
       <c r="L76" s="33"/>
       <c r="M76" s="33">
@@ -8588,7 +7945,7 @@
       <c r="AF76" s="33"/>
       <c r="AG76" s="53"/>
     </row>
-    <row r="77" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A77" s="54">
         <v>70</v>
       </c>
@@ -8608,14 +7965,8 @@
         <f>IF($D77-SUM($E77:G77)&gt;H$5-SUM(H$7:H76),H$5-SUM(H$7:H76),$D77-SUM($E77:G77))</f>
         <v>0</v>
       </c>
-      <c r="I77" s="33">
-        <f>IF($D77-SUM($E77:H77)&gt;I$5-SUM(I$7:I76),I$5-SUM(I$7:I76),$D77-SUM($E77:H77))</f>
-        <v>0</v>
-      </c>
-      <c r="J77" s="33">
-        <f>IF($D77-SUM($E77:I77)&gt;J$5-SUM(J$7:J76),J$5-SUM(J$7:J76),$D77-SUM($E77:I77))</f>
-        <v>0</v>
-      </c>
+      <c r="I77" s="70"/>
+      <c r="J77" s="70"/>
       <c r="K77" s="33"/>
       <c r="L77" s="33"/>
       <c r="M77" s="33">
@@ -8685,7 +8036,7 @@
       <c r="AF77" s="33"/>
       <c r="AG77" s="53"/>
     </row>
-    <row r="78" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A78" s="54">
         <v>71</v>
       </c>
@@ -8705,14 +8056,8 @@
         <f>IF($D78-SUM($E78:G78)&gt;H$5-SUM(H$7:H77),H$5-SUM(H$7:H77),$D78-SUM($E78:G78))</f>
         <v>0</v>
       </c>
-      <c r="I78" s="33">
-        <f>IF($D78-SUM($E78:H78)&gt;I$5-SUM(I$7:I77),I$5-SUM(I$7:I77),$D78-SUM($E78:H78))</f>
-        <v>0</v>
-      </c>
-      <c r="J78" s="33">
-        <f>IF($D78-SUM($E78:I78)&gt;J$5-SUM(J$7:J77),J$5-SUM(J$7:J77),$D78-SUM($E78:I78))</f>
-        <v>0</v>
-      </c>
+      <c r="I78" s="70"/>
+      <c r="J78" s="70"/>
       <c r="K78" s="33"/>
       <c r="L78" s="33"/>
       <c r="M78" s="33">
@@ -8782,7 +8127,7 @@
       <c r="AF78" s="33"/>
       <c r="AG78" s="53"/>
     </row>
-    <row r="79" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A79" s="54">
         <v>72</v>
       </c>
@@ -8802,14 +8147,8 @@
         <f>IF($D79-SUM($E79:G79)&gt;H$5-SUM(H$7:H78),H$5-SUM(H$7:H78),$D79-SUM($E79:G79))</f>
         <v>0</v>
       </c>
-      <c r="I79" s="33">
-        <f>IF($D79-SUM($E79:H79)&gt;I$5-SUM(I$7:I78),I$5-SUM(I$7:I78),$D79-SUM($E79:H79))</f>
-        <v>0</v>
-      </c>
-      <c r="J79" s="33">
-        <f>IF($D79-SUM($E79:I79)&gt;J$5-SUM(J$7:J78),J$5-SUM(J$7:J78),$D79-SUM($E79:I79))</f>
-        <v>0</v>
-      </c>
+      <c r="I79" s="70"/>
+      <c r="J79" s="70"/>
       <c r="K79" s="33"/>
       <c r="L79" s="33"/>
       <c r="M79" s="33">
@@ -8879,7 +8218,7 @@
       <c r="AF79" s="33"/>
       <c r="AG79" s="53"/>
     </row>
-    <row r="80" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A80" s="54">
         <v>73</v>
       </c>
@@ -8899,14 +8238,8 @@
         <f>IF($D80-SUM($E80:G80)&gt;H$5-SUM(H$7:H79),H$5-SUM(H$7:H79),$D80-SUM($E80:G80))</f>
         <v>0</v>
       </c>
-      <c r="I80" s="33">
-        <f>IF($D80-SUM($E80:H80)&gt;I$5-SUM(I$7:I79),I$5-SUM(I$7:I79),$D80-SUM($E80:H80))</f>
-        <v>0</v>
-      </c>
-      <c r="J80" s="33">
-        <f>IF($D80-SUM($E80:I80)&gt;J$5-SUM(J$7:J79),J$5-SUM(J$7:J79),$D80-SUM($E80:I80))</f>
-        <v>0</v>
-      </c>
+      <c r="I80" s="70"/>
+      <c r="J80" s="70"/>
       <c r="K80" s="33"/>
       <c r="L80" s="33"/>
       <c r="M80" s="33">
@@ -8976,7 +8309,7 @@
       <c r="AF80" s="33"/>
       <c r="AG80" s="53"/>
     </row>
-    <row r="81" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A81" s="54">
         <v>74</v>
       </c>
@@ -8996,14 +8329,8 @@
         <f>IF($D81-SUM($E81:G81)&gt;H$5-SUM(H$7:H80),H$5-SUM(H$7:H80),$D81-SUM($E81:G81))</f>
         <v>0</v>
       </c>
-      <c r="I81" s="33">
-        <f>IF($D81-SUM($E81:H81)&gt;I$5-SUM(I$7:I80),I$5-SUM(I$7:I80),$D81-SUM($E81:H81))</f>
-        <v>0</v>
-      </c>
-      <c r="J81" s="33">
-        <f>IF($D81-SUM($E81:I81)&gt;J$5-SUM(J$7:J80),J$5-SUM(J$7:J80),$D81-SUM($E81:I81))</f>
-        <v>0</v>
-      </c>
+      <c r="I81" s="70"/>
+      <c r="J81" s="70"/>
       <c r="K81" s="33"/>
       <c r="L81" s="33"/>
       <c r="M81" s="33">
@@ -9073,7 +8400,7 @@
       <c r="AF81" s="33"/>
       <c r="AG81" s="53"/>
     </row>
-    <row r="82" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A82" s="54">
         <v>75</v>
       </c>
@@ -9093,14 +8420,8 @@
         <f>IF($D82-SUM($E82:G82)&gt;H$5-SUM(H$7:H81),H$5-SUM(H$7:H81),$D82-SUM($E82:G82))</f>
         <v>0</v>
       </c>
-      <c r="I82" s="33">
-        <f>IF($D82-SUM($E82:H82)&gt;I$5-SUM(I$7:I81),I$5-SUM(I$7:I81),$D82-SUM($E82:H82))</f>
-        <v>0</v>
-      </c>
-      <c r="J82" s="33">
-        <f>IF($D82-SUM($E82:I82)&gt;J$5-SUM(J$7:J81),J$5-SUM(J$7:J81),$D82-SUM($E82:I82))</f>
-        <v>0</v>
-      </c>
+      <c r="I82" s="70"/>
+      <c r="J82" s="70"/>
       <c r="K82" s="33"/>
       <c r="L82" s="33"/>
       <c r="M82" s="33">
@@ -9170,7 +8491,7 @@
       <c r="AF82" s="33"/>
       <c r="AG82" s="53"/>
     </row>
-    <row r="83" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A83" s="54">
         <v>76</v>
       </c>
@@ -9190,14 +8511,8 @@
         <f>IF($D83-SUM($E83:G83)&gt;H$5-SUM(H$7:H82),H$5-SUM(H$7:H82),$D83-SUM($E83:G83))</f>
         <v>0</v>
       </c>
-      <c r="I83" s="33">
-        <f>IF($D83-SUM($E83:H83)&gt;I$5-SUM(I$7:I82),I$5-SUM(I$7:I82),$D83-SUM($E83:H83))</f>
-        <v>0</v>
-      </c>
-      <c r="J83" s="33">
-        <f>IF($D83-SUM($E83:I83)&gt;J$5-SUM(J$7:J82),J$5-SUM(J$7:J82),$D83-SUM($E83:I83))</f>
-        <v>0</v>
-      </c>
+      <c r="I83" s="70"/>
+      <c r="J83" s="70"/>
       <c r="K83" s="33"/>
       <c r="L83" s="33"/>
       <c r="M83" s="33">
@@ -9267,7 +8582,7 @@
       <c r="AF83" s="33"/>
       <c r="AG83" s="53"/>
     </row>
-    <row r="84" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A84" s="54">
         <v>77</v>
       </c>
@@ -9287,14 +8602,8 @@
         <f>IF($D84-SUM($E84:G84)&gt;H$5-SUM(H$7:H83),H$5-SUM(H$7:H83),$D84-SUM($E84:G84))</f>
         <v>0</v>
       </c>
-      <c r="I84" s="33">
-        <f>IF($D84-SUM($E84:H84)&gt;I$5-SUM(I$7:I83),I$5-SUM(I$7:I83),$D84-SUM($E84:H84))</f>
-        <v>0</v>
-      </c>
-      <c r="J84" s="33">
-        <f>IF($D84-SUM($E84:I84)&gt;J$5-SUM(J$7:J83),J$5-SUM(J$7:J83),$D84-SUM($E84:I84))</f>
-        <v>0</v>
-      </c>
+      <c r="I84" s="70"/>
+      <c r="J84" s="70"/>
       <c r="K84" s="33"/>
       <c r="L84" s="33"/>
       <c r="M84" s="33">
@@ -9364,7 +8673,7 @@
       <c r="AF84" s="33"/>
       <c r="AG84" s="53"/>
     </row>
-    <row r="85" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A85" s="54">
         <v>78</v>
       </c>
@@ -9384,14 +8693,8 @@
         <f>IF($D85-SUM($E85:G85)&gt;H$5-SUM(H$7:H84),H$5-SUM(H$7:H84),$D85-SUM($E85:G85))</f>
         <v>0</v>
       </c>
-      <c r="I85" s="33">
-        <f>IF($D85-SUM($E85:H85)&gt;I$5-SUM(I$7:I84),I$5-SUM(I$7:I84),$D85-SUM($E85:H85))</f>
-        <v>0</v>
-      </c>
-      <c r="J85" s="33">
-        <f>IF($D85-SUM($E85:I85)&gt;J$5-SUM(J$7:J84),J$5-SUM(J$7:J84),$D85-SUM($E85:I85))</f>
-        <v>0</v>
-      </c>
+      <c r="I85" s="70"/>
+      <c r="J85" s="70"/>
       <c r="K85" s="33"/>
       <c r="L85" s="33"/>
       <c r="M85" s="33">
@@ -9461,7 +8764,7 @@
       <c r="AF85" s="33"/>
       <c r="AG85" s="53"/>
     </row>
-    <row r="86" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A86" s="54">
         <v>79</v>
       </c>
@@ -9481,14 +8784,8 @@
         <f>IF($D86-SUM($E86:G86)&gt;H$5-SUM(H$7:H85),H$5-SUM(H$7:H85),$D86-SUM($E86:G86))</f>
         <v>0</v>
       </c>
-      <c r="I86" s="33">
-        <f>IF($D86-SUM($E86:H86)&gt;I$5-SUM(I$7:I85),I$5-SUM(I$7:I85),$D86-SUM($E86:H86))</f>
-        <v>0</v>
-      </c>
-      <c r="J86" s="33">
-        <f>IF($D86-SUM($E86:I86)&gt;J$5-SUM(J$7:J85),J$5-SUM(J$7:J85),$D86-SUM($E86:I86))</f>
-        <v>0</v>
-      </c>
+      <c r="I86" s="70"/>
+      <c r="J86" s="70"/>
       <c r="K86" s="33"/>
       <c r="L86" s="33"/>
       <c r="M86" s="33">
@@ -9558,7 +8855,7 @@
       <c r="AF86" s="33"/>
       <c r="AG86" s="53"/>
     </row>
-    <row r="87" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A87" s="54">
         <v>80</v>
       </c>
@@ -9578,14 +8875,8 @@
         <f>IF($D87-SUM($E87:G87)&gt;H$5-SUM(H$7:H86),H$5-SUM(H$7:H86),$D87-SUM($E87:G87))</f>
         <v>0</v>
       </c>
-      <c r="I87" s="33">
-        <f>IF($D87-SUM($E87:H87)&gt;I$5-SUM(I$7:I86),I$5-SUM(I$7:I86),$D87-SUM($E87:H87))</f>
-        <v>0</v>
-      </c>
-      <c r="J87" s="33">
-        <f>IF($D87-SUM($E87:I87)&gt;J$5-SUM(J$7:J86),J$5-SUM(J$7:J86),$D87-SUM($E87:I87))</f>
-        <v>0</v>
-      </c>
+      <c r="I87" s="70"/>
+      <c r="J87" s="70"/>
       <c r="K87" s="33"/>
       <c r="L87" s="33"/>
       <c r="M87" s="33">
@@ -9655,7 +8946,7 @@
       <c r="AF87" s="33"/>
       <c r="AG87" s="53"/>
     </row>
-    <row r="88" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A88" s="54">
         <v>81</v>
       </c>
@@ -9675,14 +8966,8 @@
         <f>IF($D88-SUM($E88:G88)&gt;H$5-SUM(H$7:H87),H$5-SUM(H$7:H87),$D88-SUM($E88:G88))</f>
         <v>0</v>
       </c>
-      <c r="I88" s="33">
-        <f>IF($D88-SUM($E88:H88)&gt;I$5-SUM(I$7:I87),I$5-SUM(I$7:I87),$D88-SUM($E88:H88))</f>
-        <v>0</v>
-      </c>
-      <c r="J88" s="33">
-        <f>IF($D88-SUM($E88:I88)&gt;J$5-SUM(J$7:J87),J$5-SUM(J$7:J87),$D88-SUM($E88:I88))</f>
-        <v>0</v>
-      </c>
+      <c r="I88" s="70"/>
+      <c r="J88" s="70"/>
       <c r="K88" s="33"/>
       <c r="L88" s="33"/>
       <c r="M88" s="33">
@@ -9752,7 +9037,7 @@
       <c r="AF88" s="33"/>
       <c r="AG88" s="53"/>
     </row>
-    <row r="89" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A89" s="54">
         <v>82</v>
       </c>
@@ -9772,14 +9057,8 @@
         <f>IF($D89-SUM($E89:G89)&gt;H$5-SUM(H$7:H88),H$5-SUM(H$7:H88),$D89-SUM($E89:G89))</f>
         <v>0</v>
       </c>
-      <c r="I89" s="33">
-        <f>IF($D89-SUM($E89:H89)&gt;I$5-SUM(I$7:I88),I$5-SUM(I$7:I88),$D89-SUM($E89:H89))</f>
-        <v>0</v>
-      </c>
-      <c r="J89" s="33">
-        <f>IF($D89-SUM($E89:I89)&gt;J$5-SUM(J$7:J88),J$5-SUM(J$7:J88),$D89-SUM($E89:I89))</f>
-        <v>0</v>
-      </c>
+      <c r="I89" s="70"/>
+      <c r="J89" s="70"/>
       <c r="K89" s="33"/>
       <c r="L89" s="33"/>
       <c r="M89" s="33">
@@ -9849,7 +9128,7 @@
       <c r="AF89" s="33"/>
       <c r="AG89" s="53"/>
     </row>
-    <row r="90" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A90" s="54">
         <v>83</v>
       </c>
@@ -9869,14 +9148,8 @@
         <f>IF($D90-SUM($E90:G90)&gt;H$5-SUM(H$7:H89),H$5-SUM(H$7:H89),$D90-SUM($E90:G90))</f>
         <v>0</v>
       </c>
-      <c r="I90" s="33">
-        <f>IF($D90-SUM($E90:H90)&gt;I$5-SUM(I$7:I89),I$5-SUM(I$7:I89),$D90-SUM($E90:H90))</f>
-        <v>0</v>
-      </c>
-      <c r="J90" s="33">
-        <f>IF($D90-SUM($E90:I90)&gt;J$5-SUM(J$7:J89),J$5-SUM(J$7:J89),$D90-SUM($E90:I90))</f>
-        <v>0</v>
-      </c>
+      <c r="I90" s="70"/>
+      <c r="J90" s="70"/>
       <c r="K90" s="33"/>
       <c r="L90" s="33"/>
       <c r="M90" s="33">
@@ -9946,7 +9219,7 @@
       <c r="AF90" s="33"/>
       <c r="AG90" s="53"/>
     </row>
-    <row r="91" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A91" s="54">
         <v>84</v>
       </c>
@@ -9966,14 +9239,8 @@
         <f>IF($D91-SUM($E91:G91)&gt;H$5-SUM(H$7:H90),H$5-SUM(H$7:H90),$D91-SUM($E91:G91))</f>
         <v>0</v>
       </c>
-      <c r="I91" s="33">
-        <f>IF($D91-SUM($E91:H91)&gt;I$5-SUM(I$7:I90),I$5-SUM(I$7:I90),$D91-SUM($E91:H91))</f>
-        <v>0</v>
-      </c>
-      <c r="J91" s="33">
-        <f>IF($D91-SUM($E91:I91)&gt;J$5-SUM(J$7:J90),J$5-SUM(J$7:J90),$D91-SUM($E91:I91))</f>
-        <v>0</v>
-      </c>
+      <c r="I91" s="70"/>
+      <c r="J91" s="70"/>
       <c r="K91" s="33"/>
       <c r="L91" s="33"/>
       <c r="M91" s="33">
@@ -10043,7 +9310,7 @@
       <c r="AF91" s="33"/>
       <c r="AG91" s="53"/>
     </row>
-    <row r="92" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A92" s="54">
         <v>85</v>
       </c>
@@ -10063,14 +9330,8 @@
         <f>IF($D92-SUM($E92:G92)&gt;H$5-SUM(H$7:H91),H$5-SUM(H$7:H91),$D92-SUM($E92:G92))</f>
         <v>0</v>
       </c>
-      <c r="I92" s="33">
-        <f>IF($D92-SUM($E92:H92)&gt;I$5-SUM(I$7:I91),I$5-SUM(I$7:I91),$D92-SUM($E92:H92))</f>
-        <v>0</v>
-      </c>
-      <c r="J92" s="33">
-        <f>IF($D92-SUM($E92:I92)&gt;J$5-SUM(J$7:J91),J$5-SUM(J$7:J91),$D92-SUM($E92:I92))</f>
-        <v>0</v>
-      </c>
+      <c r="I92" s="70"/>
+      <c r="J92" s="70"/>
       <c r="K92" s="33"/>
       <c r="L92" s="33"/>
       <c r="M92" s="33">
@@ -10140,7 +9401,7 @@
       <c r="AF92" s="33"/>
       <c r="AG92" s="53"/>
     </row>
-    <row r="93" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A93" s="54">
         <v>86</v>
       </c>
@@ -10160,14 +9421,8 @@
         <f>IF($D93-SUM($E93:G93)&gt;H$5-SUM(H$7:H92),H$5-SUM(H$7:H92),$D93-SUM($E93:G93))</f>
         <v>0</v>
       </c>
-      <c r="I93" s="33">
-        <f>IF($D93-SUM($E93:H93)&gt;I$5-SUM(I$7:I92),I$5-SUM(I$7:I92),$D93-SUM($E93:H93))</f>
-        <v>0</v>
-      </c>
-      <c r="J93" s="33">
-        <f>IF($D93-SUM($E93:I93)&gt;J$5-SUM(J$7:J92),J$5-SUM(J$7:J92),$D93-SUM($E93:I93))</f>
-        <v>0</v>
-      </c>
+      <c r="I93" s="70"/>
+      <c r="J93" s="70"/>
       <c r="K93" s="33"/>
       <c r="L93" s="33"/>
       <c r="M93" s="33">
@@ -10237,7 +9492,7 @@
       <c r="AF93" s="33"/>
       <c r="AG93" s="53"/>
     </row>
-    <row r="94" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A94" s="54">
         <v>87</v>
       </c>
@@ -10257,14 +9512,8 @@
         <f>IF($D94-SUM($E94:G94)&gt;H$5-SUM(H$7:H93),H$5-SUM(H$7:H93),$D94-SUM($E94:G94))</f>
         <v>0</v>
       </c>
-      <c r="I94" s="33">
-        <f>IF($D94-SUM($E94:H94)&gt;I$5-SUM(I$7:I93),I$5-SUM(I$7:I93),$D94-SUM($E94:H94))</f>
-        <v>0</v>
-      </c>
-      <c r="J94" s="33">
-        <f>IF($D94-SUM($E94:I94)&gt;J$5-SUM(J$7:J93),J$5-SUM(J$7:J93),$D94-SUM($E94:I94))</f>
-        <v>0</v>
-      </c>
+      <c r="I94" s="70"/>
+      <c r="J94" s="70"/>
       <c r="K94" s="33"/>
       <c r="L94" s="33"/>
       <c r="M94" s="33">
@@ -10334,7 +9583,7 @@
       <c r="AF94" s="33"/>
       <c r="AG94" s="53"/>
     </row>
-    <row r="95" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A95" s="54">
         <v>88</v>
       </c>
@@ -10354,14 +9603,8 @@
         <f>IF($D95-SUM($E95:G95)&gt;H$5-SUM(H$7:H94),H$5-SUM(H$7:H94),$D95-SUM($E95:G95))</f>
         <v>0</v>
       </c>
-      <c r="I95" s="33">
-        <f>IF($D95-SUM($E95:H95)&gt;I$5-SUM(I$7:I94),I$5-SUM(I$7:I94),$D95-SUM($E95:H95))</f>
-        <v>0</v>
-      </c>
-      <c r="J95" s="33">
-        <f>IF($D95-SUM($E95:I95)&gt;J$5-SUM(J$7:J94),J$5-SUM(J$7:J94),$D95-SUM($E95:I95))</f>
-        <v>0</v>
-      </c>
+      <c r="I95" s="70"/>
+      <c r="J95" s="70"/>
       <c r="K95" s="33"/>
       <c r="L95" s="33"/>
       <c r="M95" s="33">
@@ -10431,7 +9674,7 @@
       <c r="AF95" s="33"/>
       <c r="AG95" s="53"/>
     </row>
-    <row r="96" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A96" s="54">
         <v>89</v>
       </c>
@@ -10451,14 +9694,8 @@
         <f>IF($D96-SUM($E96:G96)&gt;H$5-SUM(H$7:H95),H$5-SUM(H$7:H95),$D96-SUM($E96:G96))</f>
         <v>0</v>
       </c>
-      <c r="I96" s="33">
-        <f>IF($D96-SUM($E96:H96)&gt;I$5-SUM(I$7:I95),I$5-SUM(I$7:I95),$D96-SUM($E96:H96))</f>
-        <v>0</v>
-      </c>
-      <c r="J96" s="33">
-        <f>IF($D96-SUM($E96:I96)&gt;J$5-SUM(J$7:J95),J$5-SUM(J$7:J95),$D96-SUM($E96:I96))</f>
-        <v>0</v>
-      </c>
+      <c r="I96" s="70"/>
+      <c r="J96" s="70"/>
       <c r="K96" s="33"/>
       <c r="L96" s="33"/>
       <c r="M96" s="33">
@@ -10528,7 +9765,7 @@
       <c r="AF96" s="33"/>
       <c r="AG96" s="53"/>
     </row>
-    <row r="97" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A97" s="54">
         <v>90</v>
       </c>
@@ -10548,14 +9785,8 @@
         <f>IF($D97-SUM($E97:G97)&gt;H$5-SUM(H$7:H96),H$5-SUM(H$7:H96),$D97-SUM($E97:G97))</f>
         <v>0</v>
       </c>
-      <c r="I97" s="33">
-        <f>IF($D97-SUM($E97:H97)&gt;I$5-SUM(I$7:I96),I$5-SUM(I$7:I96),$D97-SUM($E97:H97))</f>
-        <v>0</v>
-      </c>
-      <c r="J97" s="33">
-        <f>IF($D97-SUM($E97:I97)&gt;J$5-SUM(J$7:J96),J$5-SUM(J$7:J96),$D97-SUM($E97:I97))</f>
-        <v>0</v>
-      </c>
+      <c r="I97" s="70"/>
+      <c r="J97" s="70"/>
       <c r="K97" s="33"/>
       <c r="L97" s="33"/>
       <c r="M97" s="33">
@@ -10625,7 +9856,7 @@
       <c r="AF97" s="33"/>
       <c r="AG97" s="53"/>
     </row>
-    <row r="98" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A98" s="54">
         <v>91</v>
       </c>
@@ -10645,14 +9876,8 @@
         <f>IF($D98-SUM($E98:G98)&gt;H$5-SUM(H$7:H97),H$5-SUM(H$7:H97),$D98-SUM($E98:G98))</f>
         <v>0</v>
       </c>
-      <c r="I98" s="33">
-        <f>IF($D98-SUM($E98:H98)&gt;I$5-SUM(I$7:I97),I$5-SUM(I$7:I97),$D98-SUM($E98:H98))</f>
-        <v>0</v>
-      </c>
-      <c r="J98" s="33">
-        <f>IF($D98-SUM($E98:I98)&gt;J$5-SUM(J$7:J97),J$5-SUM(J$7:J97),$D98-SUM($E98:I98))</f>
-        <v>0</v>
-      </c>
+      <c r="I98" s="70"/>
+      <c r="J98" s="70"/>
       <c r="K98" s="33"/>
       <c r="L98" s="33"/>
       <c r="M98" s="33">
@@ -10722,7 +9947,7 @@
       <c r="AF98" s="33"/>
       <c r="AG98" s="53"/>
     </row>
-    <row r="99" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A99" s="54">
         <v>92</v>
       </c>
@@ -10742,14 +9967,8 @@
         <f>IF($D99-SUM($E99:G99)&gt;H$5-SUM(H$7:H98),H$5-SUM(H$7:H98),$D99-SUM($E99:G99))</f>
         <v>0</v>
       </c>
-      <c r="I99" s="33">
-        <f>IF($D99-SUM($E99:H99)&gt;I$5-SUM(I$7:I98),I$5-SUM(I$7:I98),$D99-SUM($E99:H99))</f>
-        <v>0</v>
-      </c>
-      <c r="J99" s="33">
-        <f>IF($D99-SUM($E99:I99)&gt;J$5-SUM(J$7:J98),J$5-SUM(J$7:J98),$D99-SUM($E99:I99))</f>
-        <v>0</v>
-      </c>
+      <c r="I99" s="70"/>
+      <c r="J99" s="70"/>
       <c r="K99" s="33"/>
       <c r="L99" s="33"/>
       <c r="M99" s="33">
@@ -10819,7 +10038,7 @@
       <c r="AF99" s="33"/>
       <c r="AG99" s="53"/>
     </row>
-    <row r="100" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A100" s="54">
         <v>93</v>
       </c>
@@ -10839,14 +10058,8 @@
         <f>IF($D100-SUM($E100:G100)&gt;H$5-SUM(H$7:H99),H$5-SUM(H$7:H99),$D100-SUM($E100:G100))</f>
         <v>0</v>
       </c>
-      <c r="I100" s="33">
-        <f>IF($D100-SUM($E100:H100)&gt;I$5-SUM(I$7:I99),I$5-SUM(I$7:I99),$D100-SUM($E100:H100))</f>
-        <v>0</v>
-      </c>
-      <c r="J100" s="33">
-        <f>IF($D100-SUM($E100:I100)&gt;J$5-SUM(J$7:J99),J$5-SUM(J$7:J99),$D100-SUM($E100:I100))</f>
-        <v>0</v>
-      </c>
+      <c r="I100" s="70"/>
+      <c r="J100" s="70"/>
       <c r="K100" s="33"/>
       <c r="L100" s="33"/>
       <c r="M100" s="33">
@@ -10916,7 +10129,7 @@
       <c r="AF100" s="33"/>
       <c r="AG100" s="53"/>
     </row>
-    <row r="101" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A101" s="54">
         <v>94</v>
       </c>
@@ -10936,14 +10149,8 @@
         <f>IF($D101-SUM($E101:G101)&gt;H$5-SUM(H$7:H100),H$5-SUM(H$7:H100),$D101-SUM($E101:G101))</f>
         <v>0</v>
       </c>
-      <c r="I101" s="33">
-        <f>IF($D101-SUM($E101:H101)&gt;I$5-SUM(I$7:I100),I$5-SUM(I$7:I100),$D101-SUM($E101:H101))</f>
-        <v>0</v>
-      </c>
-      <c r="J101" s="33">
-        <f>IF($D101-SUM($E101:I101)&gt;J$5-SUM(J$7:J100),J$5-SUM(J$7:J100),$D101-SUM($E101:I101))</f>
-        <v>0</v>
-      </c>
+      <c r="I101" s="70"/>
+      <c r="J101" s="70"/>
       <c r="K101" s="33"/>
       <c r="L101" s="33"/>
       <c r="M101" s="33">
@@ -11013,7 +10220,7 @@
       <c r="AF101" s="33"/>
       <c r="AG101" s="53"/>
     </row>
-    <row r="102" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A102" s="54">
         <v>95</v>
       </c>
@@ -11033,14 +10240,8 @@
         <f>IF($D102-SUM($E102:G102)&gt;H$5-SUM(H$7:H101),H$5-SUM(H$7:H101),$D102-SUM($E102:G102))</f>
         <v>0</v>
       </c>
-      <c r="I102" s="33">
-        <f>IF($D102-SUM($E102:H102)&gt;I$5-SUM(I$7:I101),I$5-SUM(I$7:I101),$D102-SUM($E102:H102))</f>
-        <v>0</v>
-      </c>
-      <c r="J102" s="33">
-        <f>IF($D102-SUM($E102:I102)&gt;J$5-SUM(J$7:J101),J$5-SUM(J$7:J101),$D102-SUM($E102:I102))</f>
-        <v>0</v>
-      </c>
+      <c r="I102" s="70"/>
+      <c r="J102" s="70"/>
       <c r="K102" s="33"/>
       <c r="L102" s="33"/>
       <c r="M102" s="33">
@@ -11110,7 +10311,7 @@
       <c r="AF102" s="33"/>
       <c r="AG102" s="53"/>
     </row>
-    <row r="103" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A103" s="54">
         <v>96</v>
       </c>
@@ -11130,14 +10331,8 @@
         <f>IF($D103-SUM($E103:G103)&gt;H$5-SUM(H$7:H102),H$5-SUM(H$7:H102),$D103-SUM($E103:G103))</f>
         <v>0</v>
       </c>
-      <c r="I103" s="33">
-        <f>IF($D103-SUM($E103:H103)&gt;I$5-SUM(I$7:I102),I$5-SUM(I$7:I102),$D103-SUM($E103:H103))</f>
-        <v>0</v>
-      </c>
-      <c r="J103" s="33">
-        <f>IF($D103-SUM($E103:I103)&gt;J$5-SUM(J$7:J102),J$5-SUM(J$7:J102),$D103-SUM($E103:I103))</f>
-        <v>0</v>
-      </c>
+      <c r="I103" s="70"/>
+      <c r="J103" s="70"/>
       <c r="K103" s="33"/>
       <c r="L103" s="33"/>
       <c r="M103" s="33">
@@ -11207,7 +10402,7 @@
       <c r="AF103" s="33"/>
       <c r="AG103" s="53"/>
     </row>
-    <row r="104" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A104" s="54">
         <v>97</v>
       </c>
@@ -11227,14 +10422,8 @@
         <f>IF($D104-SUM($E104:G104)&gt;H$5-SUM(H$7:H103),H$5-SUM(H$7:H103),$D104-SUM($E104:G104))</f>
         <v>0</v>
       </c>
-      <c r="I104" s="33">
-        <f>IF($D104-SUM($E104:H104)&gt;I$5-SUM(I$7:I103),I$5-SUM(I$7:I103),$D104-SUM($E104:H104))</f>
-        <v>0</v>
-      </c>
-      <c r="J104" s="33">
-        <f>IF($D104-SUM($E104:I104)&gt;J$5-SUM(J$7:J103),J$5-SUM(J$7:J103),$D104-SUM($E104:I104))</f>
-        <v>0</v>
-      </c>
+      <c r="I104" s="70"/>
+      <c r="J104" s="70"/>
       <c r="K104" s="33"/>
       <c r="L104" s="33"/>
       <c r="M104" s="33">
@@ -11304,7 +10493,7 @@
       <c r="AF104" s="33"/>
       <c r="AG104" s="53"/>
     </row>
-    <row r="105" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A105" s="54">
         <v>98</v>
       </c>
@@ -11324,14 +10513,8 @@
         <f>IF($D105-SUM($E105:G105)&gt;H$5-SUM(H$7:H104),H$5-SUM(H$7:H104),$D105-SUM($E105:G105))</f>
         <v>0</v>
       </c>
-      <c r="I105" s="33">
-        <f>IF($D105-SUM($E105:H105)&gt;I$5-SUM(I$7:I104),I$5-SUM(I$7:I104),$D105-SUM($E105:H105))</f>
-        <v>0</v>
-      </c>
-      <c r="J105" s="33">
-        <f>IF($D105-SUM($E105:I105)&gt;J$5-SUM(J$7:J104),J$5-SUM(J$7:J104),$D105-SUM($E105:I105))</f>
-        <v>0</v>
-      </c>
+      <c r="I105" s="70"/>
+      <c r="J105" s="70"/>
       <c r="K105" s="33"/>
       <c r="L105" s="33"/>
       <c r="M105" s="33">
@@ -11401,7 +10584,7 @@
       <c r="AF105" s="33"/>
       <c r="AG105" s="53"/>
     </row>
-    <row r="106" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A106" s="54">
         <v>99</v>
       </c>
@@ -11421,14 +10604,8 @@
         <f>IF($D106-SUM($E106:G106)&gt;H$5-SUM(H$7:H105),H$5-SUM(H$7:H105),$D106-SUM($E106:G106))</f>
         <v>0</v>
       </c>
-      <c r="I106" s="33">
-        <f>IF($D106-SUM($E106:H106)&gt;I$5-SUM(I$7:I105),I$5-SUM(I$7:I105),$D106-SUM($E106:H106))</f>
-        <v>0</v>
-      </c>
-      <c r="J106" s="33">
-        <f>IF($D106-SUM($E106:I106)&gt;J$5-SUM(J$7:J105),J$5-SUM(J$7:J105),$D106-SUM($E106:I106))</f>
-        <v>0</v>
-      </c>
+      <c r="I106" s="70"/>
+      <c r="J106" s="70"/>
       <c r="K106" s="33"/>
       <c r="L106" s="33"/>
       <c r="M106" s="33">
@@ -11498,7 +10675,7 @@
       <c r="AF106" s="33"/>
       <c r="AG106" s="53"/>
     </row>
-    <row r="107" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A107" s="55">
         <v>100</v>
       </c>
@@ -11518,14 +10695,8 @@
         <f>IF($D107-SUM($E107:G107)&gt;H$5-SUM(H$7:H106),H$5-SUM(H$7:H106),$D107-SUM($E107:G107))</f>
         <v>0</v>
       </c>
-      <c r="I107" s="60">
-        <f>IF($D107-SUM($E107:H107)&gt;I$5-SUM(I$7:I106),I$5-SUM(I$7:I106),$D107-SUM($E107:H107))</f>
-        <v>0</v>
-      </c>
-      <c r="J107" s="60">
-        <f>IF($D107-SUM($E107:I107)&gt;J$5-SUM(J$7:J106),J$5-SUM(J$7:J106),$D107-SUM($E107:I107))</f>
-        <v>0</v>
-      </c>
+      <c r="I107" s="71"/>
+      <c r="J107" s="71"/>
       <c r="K107" s="60"/>
       <c r="L107" s="60"/>
       <c r="M107" s="60">
@@ -11685,71 +10856,71 @@
   <dimension ref="B2:C9"/>
   <sheetViews>
     <sheetView zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="30.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.6640625" customWidth="1"/>
+    <col min="2" max="2" width="30.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B2" s="65" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C2" s="66"/>
     </row>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B3" s="3"/>
       <c r="C3" s="1"/>
     </row>
-    <row r="4" spans="2:3" ht="18" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:3" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B4" s="27" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C4" s="27" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B5" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B6" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="26">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B7" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="26">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B8" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="26">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B6" s="6" t="s">
+      <c r="C8" s="26">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B9" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="26">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B7" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="C7" s="26">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B8" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="C8" s="26">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B9" s="6" t="s">
-        <v>19</v>
-      </c>
       <c r="C9" s="26">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -11769,29 +10940,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <jeb5123c558143d5ab1e1526e87a8da0 xmlns="b7e4e9fd-5e36-4299-889f-f6136aff670e">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </jeb5123c558143d5ab1e1526e87a8da0>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <Cohort xmlns="b7e4e9fd-5e36-4299-889f-f6136aff670e"/>
-    <TaxCatchAll xmlns="fbafb59e-d651-4668-8e65-f7f85ceca18b"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101000C5151218AB56640BDBA68249A073511" ma:contentTypeVersion="23" ma:contentTypeDescription="Een nieuw document maken." ma:contentTypeScope="" ma:versionID="a1da3f48426d5c2cead333d31125cb2a">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="b7e4e9fd-5e36-4299-889f-f6136aff670e" xmlns:ns3="fbafb59e-d651-4668-8e65-f7f85ceca18b" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="1529523bac735da72c0db022ce5932da" ns1:_="" ns2:_="" ns3:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -12066,27 +11214,30 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1C73059C-C1E8-4277-A8B4-81AF0BAF2A41}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="b7e4e9fd-5e36-4299-889f-f6136aff670e"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="fbafb59e-d651-4668-8e65-f7f85ceca18b"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E69471D0-9E76-49CC-83BD-A0DADDC861F7}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <jeb5123c558143d5ab1e1526e87a8da0 xmlns="b7e4e9fd-5e36-4299-889f-f6136aff670e">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </jeb5123c558143d5ab1e1526e87a8da0>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <Cohort xmlns="b7e4e9fd-5e36-4299-889f-f6136aff670e"/>
+    <TaxCatchAll xmlns="fbafb59e-d651-4668-8e65-f7f85ceca18b"/>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7CD165FD-9EB2-417A-BD8F-C3BE3D0B7D37}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -12104,4 +11255,24 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E69471D0-9E76-49CC-83BD-A0DADDC861F7}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1C73059C-C1E8-4277-A8B4-81AF0BAF2A41}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="b7e4e9fd-5e36-4299-889f-f6136aff670e"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="fbafb59e-d651-4668-8e65-f7f85ceca18b"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Documentatie/200108 BR Sjabloon Strokenplanning.xlsx
+++ b/Documentatie/200108 BR Sjabloon Strokenplanning.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SchoolProject\RPM-Proftaak\Documentatie\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7ABEE6CF-66FC-4412-9543-71E1A3FDB158}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{469055F4-5737-46E4-AD64-7B0EB393B427}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -951,12 +951,6 @@
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -970,6 +964,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1472,7 +1472,7 @@
       <pane xSplit="5" ySplit="7" topLeftCell="F8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C5" sqref="C5"/>
       <selection pane="bottomLeft" activeCell="C5" sqref="C5"/>
-      <selection pane="bottomRight" activeCell="D12" sqref="D12"/>
+      <selection pane="bottomRight" activeCell="O12" sqref="O12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1661,11 +1661,11 @@
         <f>Uren!$C$7</f>
         <v>1.5</v>
       </c>
-      <c r="I5" s="67">
+      <c r="I5" s="65">
         <f>Uren!$C$8</f>
         <v>2.5</v>
       </c>
-      <c r="J5" s="67">
+      <c r="J5" s="65">
         <f>Uren!$C$9</f>
         <v>5</v>
       </c>
@@ -1762,11 +1762,11 @@
         <f>G6+1</f>
         <v>44328</v>
       </c>
-      <c r="I6" s="68">
+      <c r="I6" s="66">
         <f t="shared" ref="I6:AG6" si="0">H6+1</f>
         <v>44329</v>
       </c>
-      <c r="J6" s="68">
+      <c r="J6" s="66">
         <f t="shared" si="0"/>
         <v>44330</v>
       </c>
@@ -1872,8 +1872,8 @@
       <c r="F7" s="32"/>
       <c r="G7" s="32"/>
       <c r="H7" s="32"/>
-      <c r="I7" s="69"/>
-      <c r="J7" s="69"/>
+      <c r="I7" s="67"/>
+      <c r="J7" s="67"/>
       <c r="K7" s="32"/>
       <c r="L7" s="32"/>
       <c r="M7" s="32"/>
@@ -1915,8 +1915,8 @@
       </c>
       <c r="G8" s="33"/>
       <c r="H8" s="33"/>
-      <c r="I8" s="70"/>
-      <c r="J8" s="70"/>
+      <c r="I8" s="68"/>
+      <c r="J8" s="68"/>
       <c r="K8" s="33"/>
       <c r="L8" s="33"/>
       <c r="M8" s="33"/>
@@ -1963,8 +1963,8 @@
       <c r="H9" s="33">
         <v>1.5</v>
       </c>
-      <c r="I9" s="70"/>
-      <c r="J9" s="70"/>
+      <c r="I9" s="68"/>
+      <c r="J9" s="68"/>
       <c r="K9" s="33"/>
       <c r="L9" s="33"/>
       <c r="M9" s="33">
@@ -2007,12 +2007,14 @@
       </c>
       <c r="G10" s="33"/>
       <c r="H10" s="33"/>
-      <c r="I10" s="70"/>
-      <c r="J10" s="70"/>
+      <c r="I10" s="68"/>
+      <c r="J10" s="68"/>
       <c r="K10" s="33"/>
       <c r="L10" s="33"/>
       <c r="M10" s="33"/>
-      <c r="N10" s="33"/>
+      <c r="N10" s="33">
+        <v>1.5</v>
+      </c>
       <c r="O10" s="33"/>
       <c r="P10" s="33"/>
       <c r="Q10" s="33"/>
@@ -2049,8 +2051,8 @@
       </c>
       <c r="G11" s="33"/>
       <c r="H11" s="33"/>
-      <c r="I11" s="70"/>
-      <c r="J11" s="70"/>
+      <c r="I11" s="68"/>
+      <c r="J11" s="68"/>
       <c r="K11" s="33"/>
       <c r="L11" s="33"/>
       <c r="M11" s="33"/>
@@ -2095,8 +2097,8 @@
         <f>IF($D12-SUM($E12:G12)&gt;H$5-SUM(H$7:H11),H$5-SUM(H$7:H11),$D12-SUM($E12:G12))</f>
         <v>0</v>
       </c>
-      <c r="I12" s="70"/>
-      <c r="J12" s="70"/>
+      <c r="I12" s="68"/>
+      <c r="J12" s="68"/>
       <c r="K12" s="33"/>
       <c r="L12" s="33"/>
       <c r="M12" s="33">
@@ -2156,8 +2158,8 @@
         <f>IF($D13-SUM($E13:G13)&gt;H$5-SUM(H$7:H12),H$5-SUM(H$7:H12),$D13-SUM($E13:G13))</f>
         <v>0</v>
       </c>
-      <c r="I13" s="70"/>
-      <c r="J13" s="70"/>
+      <c r="I13" s="68"/>
+      <c r="J13" s="68"/>
       <c r="K13" s="33"/>
       <c r="L13" s="33"/>
       <c r="M13" s="33">
@@ -2232,8 +2234,8 @@
         <f>IF($D14-SUM($E14:G14)&gt;H$5-SUM(H$7:H13),H$5-SUM(H$7:H13),$D14-SUM($E14:G14))</f>
         <v>0</v>
       </c>
-      <c r="I14" s="70"/>
-      <c r="J14" s="70"/>
+      <c r="I14" s="68"/>
+      <c r="J14" s="68"/>
       <c r="K14" s="33"/>
       <c r="L14" s="33"/>
       <c r="M14" s="33">
@@ -2323,8 +2325,8 @@
         <f>IF($D15-SUM($E15:G15)&gt;H$5-SUM(H$7:H14),H$5-SUM(H$7:H14),$D15-SUM($E15:G15))</f>
         <v>0</v>
       </c>
-      <c r="I15" s="70"/>
-      <c r="J15" s="70"/>
+      <c r="I15" s="68"/>
+      <c r="J15" s="68"/>
       <c r="K15" s="33"/>
       <c r="L15" s="33"/>
       <c r="M15" s="33">
@@ -2414,8 +2416,8 @@
         <f>IF($D16-SUM($E16:G16)&gt;H$5-SUM(H$7:H15),H$5-SUM(H$7:H15),$D16-SUM($E16:G16))</f>
         <v>0</v>
       </c>
-      <c r="I16" s="70"/>
-      <c r="J16" s="70"/>
+      <c r="I16" s="68"/>
+      <c r="J16" s="68"/>
       <c r="K16" s="33"/>
       <c r="L16" s="33"/>
       <c r="M16" s="33">
@@ -2505,8 +2507,8 @@
         <f>IF($D17-SUM($E17:G17)&gt;H$5-SUM(H$7:H16),H$5-SUM(H$7:H16),$D17-SUM($E17:G17))</f>
         <v>0</v>
       </c>
-      <c r="I17" s="70"/>
-      <c r="J17" s="70"/>
+      <c r="I17" s="68"/>
+      <c r="J17" s="68"/>
       <c r="K17" s="33"/>
       <c r="L17" s="33"/>
       <c r="M17" s="33">
@@ -2596,8 +2598,8 @@
         <f>IF($D18-SUM($E18:G18)&gt;H$5-SUM(H$7:H17),H$5-SUM(H$7:H17),$D18-SUM($E18:G18))</f>
         <v>0</v>
       </c>
-      <c r="I18" s="70"/>
-      <c r="J18" s="70"/>
+      <c r="I18" s="68"/>
+      <c r="J18" s="68"/>
       <c r="K18" s="33"/>
       <c r="L18" s="33"/>
       <c r="M18" s="33">
@@ -2687,8 +2689,8 @@
         <f>IF($D19-SUM($E19:G19)&gt;H$5-SUM(H$7:H18),H$5-SUM(H$7:H18),$D19-SUM($E19:G19))</f>
         <v>0</v>
       </c>
-      <c r="I19" s="70"/>
-      <c r="J19" s="70"/>
+      <c r="I19" s="68"/>
+      <c r="J19" s="68"/>
       <c r="K19" s="33"/>
       <c r="L19" s="33"/>
       <c r="M19" s="33">
@@ -2778,8 +2780,8 @@
         <f>IF($D20-SUM($E20:G20)&gt;H$5-SUM(H$7:H19),H$5-SUM(H$7:H19),$D20-SUM($E20:G20))</f>
         <v>0</v>
       </c>
-      <c r="I20" s="70"/>
-      <c r="J20" s="70"/>
+      <c r="I20" s="68"/>
+      <c r="J20" s="68"/>
       <c r="K20" s="33"/>
       <c r="L20" s="33"/>
       <c r="M20" s="33">
@@ -2869,8 +2871,8 @@
         <f>IF($D21-SUM($E21:G21)&gt;H$5-SUM(H$7:H20),H$5-SUM(H$7:H20),$D21-SUM($E21:G21))</f>
         <v>0</v>
       </c>
-      <c r="I21" s="70"/>
-      <c r="J21" s="70"/>
+      <c r="I21" s="68"/>
+      <c r="J21" s="68"/>
       <c r="K21" s="33"/>
       <c r="L21" s="33"/>
       <c r="M21" s="33">
@@ -2960,8 +2962,8 @@
         <f>IF($D22-SUM($E22:G22)&gt;H$5-SUM(H$7:H21),H$5-SUM(H$7:H21),$D22-SUM($E22:G22))</f>
         <v>0</v>
       </c>
-      <c r="I22" s="70"/>
-      <c r="J22" s="70"/>
+      <c r="I22" s="68"/>
+      <c r="J22" s="68"/>
       <c r="K22" s="33"/>
       <c r="L22" s="33"/>
       <c r="M22" s="33">
@@ -3051,8 +3053,8 @@
         <f>IF($D23-SUM($E23:G23)&gt;H$5-SUM(H$7:H22),H$5-SUM(H$7:H22),$D23-SUM($E23:G23))</f>
         <v>0</v>
       </c>
-      <c r="I23" s="70"/>
-      <c r="J23" s="70"/>
+      <c r="I23" s="68"/>
+      <c r="J23" s="68"/>
       <c r="K23" s="33"/>
       <c r="L23" s="33"/>
       <c r="M23" s="33">
@@ -3142,8 +3144,8 @@
         <f>IF($D24-SUM($E24:G24)&gt;H$5-SUM(H$7:H23),H$5-SUM(H$7:H23),$D24-SUM($E24:G24))</f>
         <v>0</v>
       </c>
-      <c r="I24" s="70"/>
-      <c r="J24" s="70"/>
+      <c r="I24" s="68"/>
+      <c r="J24" s="68"/>
       <c r="K24" s="33"/>
       <c r="L24" s="33"/>
       <c r="M24" s="33">
@@ -3233,8 +3235,8 @@
         <f>IF($D25-SUM($E25:G25)&gt;H$5-SUM(H$7:H24),H$5-SUM(H$7:H24),$D25-SUM($E25:G25))</f>
         <v>0</v>
       </c>
-      <c r="I25" s="70"/>
-      <c r="J25" s="70"/>
+      <c r="I25" s="68"/>
+      <c r="J25" s="68"/>
       <c r="K25" s="33"/>
       <c r="L25" s="33"/>
       <c r="M25" s="33">
@@ -3324,8 +3326,8 @@
         <f>IF($D26-SUM($E26:G26)&gt;H$5-SUM(H$7:H25),H$5-SUM(H$7:H25),$D26-SUM($E26:G26))</f>
         <v>0</v>
       </c>
-      <c r="I26" s="70"/>
-      <c r="J26" s="70"/>
+      <c r="I26" s="68"/>
+      <c r="J26" s="68"/>
       <c r="K26" s="33"/>
       <c r="L26" s="33"/>
       <c r="M26" s="33">
@@ -3415,8 +3417,8 @@
         <f>IF($D27-SUM($E27:G27)&gt;H$5-SUM(H$7:H26),H$5-SUM(H$7:H26),$D27-SUM($E27:G27))</f>
         <v>0</v>
       </c>
-      <c r="I27" s="70"/>
-      <c r="J27" s="70"/>
+      <c r="I27" s="68"/>
+      <c r="J27" s="68"/>
       <c r="K27" s="33"/>
       <c r="L27" s="33"/>
       <c r="M27" s="33">
@@ -3506,8 +3508,8 @@
         <f>IF($D28-SUM($E28:G28)&gt;H$5-SUM(H$7:H27),H$5-SUM(H$7:H27),$D28-SUM($E28:G28))</f>
         <v>0</v>
       </c>
-      <c r="I28" s="70"/>
-      <c r="J28" s="70"/>
+      <c r="I28" s="68"/>
+      <c r="J28" s="68"/>
       <c r="K28" s="33"/>
       <c r="L28" s="33"/>
       <c r="M28" s="33">
@@ -3597,8 +3599,8 @@
         <f>IF($D29-SUM($E29:G29)&gt;H$5-SUM(H$7:H28),H$5-SUM(H$7:H28),$D29-SUM($E29:G29))</f>
         <v>0</v>
       </c>
-      <c r="I29" s="70"/>
-      <c r="J29" s="70"/>
+      <c r="I29" s="68"/>
+      <c r="J29" s="68"/>
       <c r="K29" s="33"/>
       <c r="L29" s="33"/>
       <c r="M29" s="33">
@@ -3688,8 +3690,8 @@
         <f>IF($D30-SUM($E30:G30)&gt;H$5-SUM(H$7:H29),H$5-SUM(H$7:H29),$D30-SUM($E30:G30))</f>
         <v>0</v>
       </c>
-      <c r="I30" s="70"/>
-      <c r="J30" s="70"/>
+      <c r="I30" s="68"/>
+      <c r="J30" s="68"/>
       <c r="K30" s="33"/>
       <c r="L30" s="33"/>
       <c r="M30" s="33">
@@ -3779,8 +3781,8 @@
         <f>IF($D31-SUM($E31:G31)&gt;H$5-SUM(H$7:H30),H$5-SUM(H$7:H30),$D31-SUM($E31:G31))</f>
         <v>0</v>
       </c>
-      <c r="I31" s="70"/>
-      <c r="J31" s="70"/>
+      <c r="I31" s="68"/>
+      <c r="J31" s="68"/>
       <c r="K31" s="33"/>
       <c r="L31" s="33"/>
       <c r="M31" s="33">
@@ -3870,8 +3872,8 @@
         <f>IF($D32-SUM($E32:G32)&gt;H$5-SUM(H$7:H31),H$5-SUM(H$7:H31),$D32-SUM($E32:G32))</f>
         <v>0</v>
       </c>
-      <c r="I32" s="70"/>
-      <c r="J32" s="70"/>
+      <c r="I32" s="68"/>
+      <c r="J32" s="68"/>
       <c r="K32" s="33"/>
       <c r="L32" s="33"/>
       <c r="M32" s="33">
@@ -3961,8 +3963,8 @@
         <f>IF($D33-SUM($E33:G33)&gt;H$5-SUM(H$7:H32),H$5-SUM(H$7:H32),$D33-SUM($E33:G33))</f>
         <v>0</v>
       </c>
-      <c r="I33" s="70"/>
-      <c r="J33" s="70"/>
+      <c r="I33" s="68"/>
+      <c r="J33" s="68"/>
       <c r="K33" s="33"/>
       <c r="L33" s="33"/>
       <c r="M33" s="33">
@@ -4052,8 +4054,8 @@
         <f>IF($D34-SUM($E34:G34)&gt;H$5-SUM(H$7:H33),H$5-SUM(H$7:H33),$D34-SUM($E34:G34))</f>
         <v>0</v>
       </c>
-      <c r="I34" s="70"/>
-      <c r="J34" s="70"/>
+      <c r="I34" s="68"/>
+      <c r="J34" s="68"/>
       <c r="K34" s="33"/>
       <c r="L34" s="33"/>
       <c r="M34" s="33">
@@ -4143,8 +4145,8 @@
         <f>IF($D35-SUM($E35:G35)&gt;H$5-SUM(H$7:H34),H$5-SUM(H$7:H34),$D35-SUM($E35:G35))</f>
         <v>0</v>
       </c>
-      <c r="I35" s="70"/>
-      <c r="J35" s="70"/>
+      <c r="I35" s="68"/>
+      <c r="J35" s="68"/>
       <c r="K35" s="33"/>
       <c r="L35" s="33"/>
       <c r="M35" s="33">
@@ -4234,8 +4236,8 @@
         <f>IF($D36-SUM($E36:G36)&gt;H$5-SUM(H$7:H35),H$5-SUM(H$7:H35),$D36-SUM($E36:G36))</f>
         <v>0</v>
       </c>
-      <c r="I36" s="70"/>
-      <c r="J36" s="70"/>
+      <c r="I36" s="68"/>
+      <c r="J36" s="68"/>
       <c r="K36" s="33"/>
       <c r="L36" s="33"/>
       <c r="M36" s="33">
@@ -4325,8 +4327,8 @@
         <f>IF($D37-SUM($E37:G37)&gt;H$5-SUM(H$7:H36),H$5-SUM(H$7:H36),$D37-SUM($E37:G37))</f>
         <v>0</v>
       </c>
-      <c r="I37" s="70"/>
-      <c r="J37" s="70"/>
+      <c r="I37" s="68"/>
+      <c r="J37" s="68"/>
       <c r="K37" s="33"/>
       <c r="L37" s="33"/>
       <c r="M37" s="33">
@@ -4416,8 +4418,8 @@
         <f>IF($D38-SUM($E38:G38)&gt;H$5-SUM(H$7:H37),H$5-SUM(H$7:H37),$D38-SUM($E38:G38))</f>
         <v>0</v>
       </c>
-      <c r="I38" s="70"/>
-      <c r="J38" s="70"/>
+      <c r="I38" s="68"/>
+      <c r="J38" s="68"/>
       <c r="K38" s="33"/>
       <c r="L38" s="33"/>
       <c r="M38" s="33">
@@ -4507,8 +4509,8 @@
         <f>IF($D39-SUM($E39:G39)&gt;H$5-SUM(H$7:H38),H$5-SUM(H$7:H38),$D39-SUM($E39:G39))</f>
         <v>0</v>
       </c>
-      <c r="I39" s="70"/>
-      <c r="J39" s="70"/>
+      <c r="I39" s="68"/>
+      <c r="J39" s="68"/>
       <c r="K39" s="33"/>
       <c r="L39" s="33"/>
       <c r="M39" s="33">
@@ -4598,8 +4600,8 @@
         <f>IF($D40-SUM($E40:G40)&gt;H$5-SUM(H$7:H39),H$5-SUM(H$7:H39),$D40-SUM($E40:G40))</f>
         <v>0</v>
       </c>
-      <c r="I40" s="70"/>
-      <c r="J40" s="70"/>
+      <c r="I40" s="68"/>
+      <c r="J40" s="68"/>
       <c r="K40" s="33"/>
       <c r="L40" s="33"/>
       <c r="M40" s="33">
@@ -4689,8 +4691,8 @@
         <f>IF($D41-SUM($E41:G41)&gt;H$5-SUM(H$7:H40),H$5-SUM(H$7:H40),$D41-SUM($E41:G41))</f>
         <v>0</v>
       </c>
-      <c r="I41" s="70"/>
-      <c r="J41" s="70"/>
+      <c r="I41" s="68"/>
+      <c r="J41" s="68"/>
       <c r="K41" s="33"/>
       <c r="L41" s="33"/>
       <c r="M41" s="33">
@@ -4780,8 +4782,8 @@
         <f>IF($D42-SUM($E42:G42)&gt;H$5-SUM(H$7:H41),H$5-SUM(H$7:H41),$D42-SUM($E42:G42))</f>
         <v>0</v>
       </c>
-      <c r="I42" s="70"/>
-      <c r="J42" s="70"/>
+      <c r="I42" s="68"/>
+      <c r="J42" s="68"/>
       <c r="K42" s="33"/>
       <c r="L42" s="33"/>
       <c r="M42" s="33">
@@ -4871,8 +4873,8 @@
         <f>IF($D43-SUM($E43:G43)&gt;H$5-SUM(H$7:H42),H$5-SUM(H$7:H42),$D43-SUM($E43:G43))</f>
         <v>0</v>
       </c>
-      <c r="I43" s="70"/>
-      <c r="J43" s="70"/>
+      <c r="I43" s="68"/>
+      <c r="J43" s="68"/>
       <c r="K43" s="33"/>
       <c r="L43" s="33"/>
       <c r="M43" s="33">
@@ -4962,8 +4964,8 @@
         <f>IF($D44-SUM($E44:G44)&gt;H$5-SUM(H$7:H43),H$5-SUM(H$7:H43),$D44-SUM($E44:G44))</f>
         <v>0</v>
       </c>
-      <c r="I44" s="70"/>
-      <c r="J44" s="70"/>
+      <c r="I44" s="68"/>
+      <c r="J44" s="68"/>
       <c r="K44" s="33"/>
       <c r="L44" s="33"/>
       <c r="M44" s="33">
@@ -5053,8 +5055,8 @@
         <f>IF($D45-SUM($E45:G45)&gt;H$5-SUM(H$7:H44),H$5-SUM(H$7:H44),$D45-SUM($E45:G45))</f>
         <v>0</v>
       </c>
-      <c r="I45" s="70"/>
-      <c r="J45" s="70"/>
+      <c r="I45" s="68"/>
+      <c r="J45" s="68"/>
       <c r="K45" s="33"/>
       <c r="L45" s="33"/>
       <c r="M45" s="33">
@@ -5144,8 +5146,8 @@
         <f>IF($D46-SUM($E46:G46)&gt;H$5-SUM(H$7:H45),H$5-SUM(H$7:H45),$D46-SUM($E46:G46))</f>
         <v>0</v>
       </c>
-      <c r="I46" s="70"/>
-      <c r="J46" s="70"/>
+      <c r="I46" s="68"/>
+      <c r="J46" s="68"/>
       <c r="K46" s="33"/>
       <c r="L46" s="33"/>
       <c r="M46" s="33">
@@ -5235,8 +5237,8 @@
         <f>IF($D47-SUM($E47:G47)&gt;H$5-SUM(H$7:H46),H$5-SUM(H$7:H46),$D47-SUM($E47:G47))</f>
         <v>0</v>
       </c>
-      <c r="I47" s="70"/>
-      <c r="J47" s="70"/>
+      <c r="I47" s="68"/>
+      <c r="J47" s="68"/>
       <c r="K47" s="33"/>
       <c r="L47" s="33"/>
       <c r="M47" s="33">
@@ -5326,8 +5328,8 @@
         <f>IF($D48-SUM($E48:G48)&gt;H$5-SUM(H$7:H47),H$5-SUM(H$7:H47),$D48-SUM($E48:G48))</f>
         <v>0</v>
       </c>
-      <c r="I48" s="70"/>
-      <c r="J48" s="70"/>
+      <c r="I48" s="68"/>
+      <c r="J48" s="68"/>
       <c r="K48" s="33"/>
       <c r="L48" s="33"/>
       <c r="M48" s="33">
@@ -5417,8 +5419,8 @@
         <f>IF($D49-SUM($E49:G49)&gt;H$5-SUM(H$7:H48),H$5-SUM(H$7:H48),$D49-SUM($E49:G49))</f>
         <v>0</v>
       </c>
-      <c r="I49" s="70"/>
-      <c r="J49" s="70"/>
+      <c r="I49" s="68"/>
+      <c r="J49" s="68"/>
       <c r="K49" s="33"/>
       <c r="L49" s="33"/>
       <c r="M49" s="33">
@@ -5508,8 +5510,8 @@
         <f>IF($D50-SUM($E50:G50)&gt;H$5-SUM(H$7:H49),H$5-SUM(H$7:H49),$D50-SUM($E50:G50))</f>
         <v>0</v>
       </c>
-      <c r="I50" s="70"/>
-      <c r="J50" s="70"/>
+      <c r="I50" s="68"/>
+      <c r="J50" s="68"/>
       <c r="K50" s="33"/>
       <c r="L50" s="33"/>
       <c r="M50" s="33">
@@ -5599,8 +5601,8 @@
         <f>IF($D51-SUM($E51:G51)&gt;H$5-SUM(H$7:H50),H$5-SUM(H$7:H50),$D51-SUM($E51:G51))</f>
         <v>0</v>
       </c>
-      <c r="I51" s="70"/>
-      <c r="J51" s="70"/>
+      <c r="I51" s="68"/>
+      <c r="J51" s="68"/>
       <c r="K51" s="33"/>
       <c r="L51" s="33"/>
       <c r="M51" s="33">
@@ -5690,8 +5692,8 @@
         <f>IF($D52-SUM($E52:G52)&gt;H$5-SUM(H$7:H51),H$5-SUM(H$7:H51),$D52-SUM($E52:G52))</f>
         <v>0</v>
       </c>
-      <c r="I52" s="70"/>
-      <c r="J52" s="70"/>
+      <c r="I52" s="68"/>
+      <c r="J52" s="68"/>
       <c r="K52" s="33"/>
       <c r="L52" s="33"/>
       <c r="M52" s="33">
@@ -5781,8 +5783,8 @@
         <f>IF($D53-SUM($E53:G53)&gt;H$5-SUM(H$7:H52),H$5-SUM(H$7:H52),$D53-SUM($E53:G53))</f>
         <v>0</v>
       </c>
-      <c r="I53" s="70"/>
-      <c r="J53" s="70"/>
+      <c r="I53" s="68"/>
+      <c r="J53" s="68"/>
       <c r="K53" s="33"/>
       <c r="L53" s="33"/>
       <c r="M53" s="33">
@@ -5872,8 +5874,8 @@
         <f>IF($D54-SUM($E54:G54)&gt;H$5-SUM(H$7:H53),H$5-SUM(H$7:H53),$D54-SUM($E54:G54))</f>
         <v>0</v>
       </c>
-      <c r="I54" s="70"/>
-      <c r="J54" s="70"/>
+      <c r="I54" s="68"/>
+      <c r="J54" s="68"/>
       <c r="K54" s="33"/>
       <c r="L54" s="33"/>
       <c r="M54" s="33">
@@ -5963,8 +5965,8 @@
         <f>IF($D55-SUM($E55:G55)&gt;H$5-SUM(H$7:H54),H$5-SUM(H$7:H54),$D55-SUM($E55:G55))</f>
         <v>0</v>
       </c>
-      <c r="I55" s="70"/>
-      <c r="J55" s="70"/>
+      <c r="I55" s="68"/>
+      <c r="J55" s="68"/>
       <c r="K55" s="33"/>
       <c r="L55" s="33"/>
       <c r="M55" s="33">
@@ -6054,8 +6056,8 @@
         <f>IF($D56-SUM($E56:G56)&gt;H$5-SUM(H$7:H55),H$5-SUM(H$7:H55),$D56-SUM($E56:G56))</f>
         <v>0</v>
       </c>
-      <c r="I56" s="70"/>
-      <c r="J56" s="70"/>
+      <c r="I56" s="68"/>
+      <c r="J56" s="68"/>
       <c r="K56" s="33"/>
       <c r="L56" s="33"/>
       <c r="M56" s="33">
@@ -6145,8 +6147,8 @@
         <f>IF($D57-SUM($E57:G57)&gt;H$5-SUM(H$7:H56),H$5-SUM(H$7:H56),$D57-SUM($E57:G57))</f>
         <v>0</v>
       </c>
-      <c r="I57" s="70"/>
-      <c r="J57" s="70"/>
+      <c r="I57" s="68"/>
+      <c r="J57" s="68"/>
       <c r="K57" s="33"/>
       <c r="L57" s="33"/>
       <c r="M57" s="33">
@@ -6236,8 +6238,8 @@
         <f>IF($D58-SUM($E58:G58)&gt;H$5-SUM(H$7:H57),H$5-SUM(H$7:H57),$D58-SUM($E58:G58))</f>
         <v>0</v>
       </c>
-      <c r="I58" s="70"/>
-      <c r="J58" s="70"/>
+      <c r="I58" s="68"/>
+      <c r="J58" s="68"/>
       <c r="K58" s="33"/>
       <c r="L58" s="33"/>
       <c r="M58" s="33">
@@ -6327,8 +6329,8 @@
         <f>IF($D59-SUM($E59:G59)&gt;H$5-SUM(H$7:H58),H$5-SUM(H$7:H58),$D59-SUM($E59:G59))</f>
         <v>0</v>
       </c>
-      <c r="I59" s="70"/>
-      <c r="J59" s="70"/>
+      <c r="I59" s="68"/>
+      <c r="J59" s="68"/>
       <c r="K59" s="33"/>
       <c r="L59" s="33"/>
       <c r="M59" s="33">
@@ -6418,8 +6420,8 @@
         <f>IF($D60-SUM($E60:G60)&gt;H$5-SUM(H$7:H59),H$5-SUM(H$7:H59),$D60-SUM($E60:G60))</f>
         <v>0</v>
       </c>
-      <c r="I60" s="70"/>
-      <c r="J60" s="70"/>
+      <c r="I60" s="68"/>
+      <c r="J60" s="68"/>
       <c r="K60" s="33"/>
       <c r="L60" s="33"/>
       <c r="M60" s="33">
@@ -6509,8 +6511,8 @@
         <f>IF($D61-SUM($E61:G61)&gt;H$5-SUM(H$7:H60),H$5-SUM(H$7:H60),$D61-SUM($E61:G61))</f>
         <v>0</v>
       </c>
-      <c r="I61" s="70"/>
-      <c r="J61" s="70"/>
+      <c r="I61" s="68"/>
+      <c r="J61" s="68"/>
       <c r="K61" s="33"/>
       <c r="L61" s="33"/>
       <c r="M61" s="33">
@@ -6600,8 +6602,8 @@
         <f>IF($D62-SUM($E62:G62)&gt;H$5-SUM(H$7:H61),H$5-SUM(H$7:H61),$D62-SUM($E62:G62))</f>
         <v>0</v>
       </c>
-      <c r="I62" s="70"/>
-      <c r="J62" s="70"/>
+      <c r="I62" s="68"/>
+      <c r="J62" s="68"/>
       <c r="K62" s="33"/>
       <c r="L62" s="33"/>
       <c r="M62" s="33">
@@ -6691,8 +6693,8 @@
         <f>IF($D63-SUM($E63:G63)&gt;H$5-SUM(H$7:H62),H$5-SUM(H$7:H62),$D63-SUM($E63:G63))</f>
         <v>0</v>
       </c>
-      <c r="I63" s="70"/>
-      <c r="J63" s="70"/>
+      <c r="I63" s="68"/>
+      <c r="J63" s="68"/>
       <c r="K63" s="33"/>
       <c r="L63" s="33"/>
       <c r="M63" s="33">
@@ -6782,8 +6784,8 @@
         <f>IF($D64-SUM($E64:G64)&gt;H$5-SUM(H$7:H63),H$5-SUM(H$7:H63),$D64-SUM($E64:G64))</f>
         <v>0</v>
       </c>
-      <c r="I64" s="70"/>
-      <c r="J64" s="70"/>
+      <c r="I64" s="68"/>
+      <c r="J64" s="68"/>
       <c r="K64" s="33"/>
       <c r="L64" s="33"/>
       <c r="M64" s="33">
@@ -6873,8 +6875,8 @@
         <f>IF($D65-SUM($E65:G65)&gt;H$5-SUM(H$7:H64),H$5-SUM(H$7:H64),$D65-SUM($E65:G65))</f>
         <v>0</v>
       </c>
-      <c r="I65" s="70"/>
-      <c r="J65" s="70"/>
+      <c r="I65" s="68"/>
+      <c r="J65" s="68"/>
       <c r="K65" s="33"/>
       <c r="L65" s="33"/>
       <c r="M65" s="33">
@@ -6964,8 +6966,8 @@
         <f>IF($D66-SUM($E66:G66)&gt;H$5-SUM(H$7:H65),H$5-SUM(H$7:H65),$D66-SUM($E66:G66))</f>
         <v>0</v>
       </c>
-      <c r="I66" s="70"/>
-      <c r="J66" s="70"/>
+      <c r="I66" s="68"/>
+      <c r="J66" s="68"/>
       <c r="K66" s="33"/>
       <c r="L66" s="33"/>
       <c r="M66" s="33">
@@ -7055,8 +7057,8 @@
         <f>IF($D67-SUM($E67:G67)&gt;H$5-SUM(H$7:H66),H$5-SUM(H$7:H66),$D67-SUM($E67:G67))</f>
         <v>0</v>
       </c>
-      <c r="I67" s="70"/>
-      <c r="J67" s="70"/>
+      <c r="I67" s="68"/>
+      <c r="J67" s="68"/>
       <c r="K67" s="33"/>
       <c r="L67" s="33"/>
       <c r="M67" s="33">
@@ -7146,8 +7148,8 @@
         <f>IF($D68-SUM($E68:G68)&gt;H$5-SUM(H$7:H67),H$5-SUM(H$7:H67),$D68-SUM($E68:G68))</f>
         <v>0</v>
       </c>
-      <c r="I68" s="70"/>
-      <c r="J68" s="70"/>
+      <c r="I68" s="68"/>
+      <c r="J68" s="68"/>
       <c r="K68" s="33"/>
       <c r="L68" s="33"/>
       <c r="M68" s="33">
@@ -7237,8 +7239,8 @@
         <f>IF($D69-SUM($E69:G69)&gt;H$5-SUM(H$7:H68),H$5-SUM(H$7:H68),$D69-SUM($E69:G69))</f>
         <v>0</v>
       </c>
-      <c r="I69" s="70"/>
-      <c r="J69" s="70"/>
+      <c r="I69" s="68"/>
+      <c r="J69" s="68"/>
       <c r="K69" s="33"/>
       <c r="L69" s="33"/>
       <c r="M69" s="33">
@@ -7328,8 +7330,8 @@
         <f>IF($D70-SUM($E70:G70)&gt;H$5-SUM(H$7:H69),H$5-SUM(H$7:H69),$D70-SUM($E70:G70))</f>
         <v>0</v>
       </c>
-      <c r="I70" s="70"/>
-      <c r="J70" s="70"/>
+      <c r="I70" s="68"/>
+      <c r="J70" s="68"/>
       <c r="K70" s="33"/>
       <c r="L70" s="33"/>
       <c r="M70" s="33">
@@ -7419,8 +7421,8 @@
         <f>IF($D71-SUM($E71:G71)&gt;H$5-SUM(H$7:H70),H$5-SUM(H$7:H70),$D71-SUM($E71:G71))</f>
         <v>0</v>
       </c>
-      <c r="I71" s="70"/>
-      <c r="J71" s="70"/>
+      <c r="I71" s="68"/>
+      <c r="J71" s="68"/>
       <c r="K71" s="33"/>
       <c r="L71" s="33"/>
       <c r="M71" s="33">
@@ -7510,8 +7512,8 @@
         <f>IF($D72-SUM($E72:G72)&gt;H$5-SUM(H$7:H71),H$5-SUM(H$7:H71),$D72-SUM($E72:G72))</f>
         <v>0</v>
       </c>
-      <c r="I72" s="70"/>
-      <c r="J72" s="70"/>
+      <c r="I72" s="68"/>
+      <c r="J72" s="68"/>
       <c r="K72" s="33"/>
       <c r="L72" s="33"/>
       <c r="M72" s="33">
@@ -7601,8 +7603,8 @@
         <f>IF($D73-SUM($E73:G73)&gt;H$5-SUM(H$7:H72),H$5-SUM(H$7:H72),$D73-SUM($E73:G73))</f>
         <v>0</v>
       </c>
-      <c r="I73" s="70"/>
-      <c r="J73" s="70"/>
+      <c r="I73" s="68"/>
+      <c r="J73" s="68"/>
       <c r="K73" s="33"/>
       <c r="L73" s="33"/>
       <c r="M73" s="33">
@@ -7692,8 +7694,8 @@
         <f>IF($D74-SUM($E74:G74)&gt;H$5-SUM(H$7:H73),H$5-SUM(H$7:H73),$D74-SUM($E74:G74))</f>
         <v>0</v>
       </c>
-      <c r="I74" s="70"/>
-      <c r="J74" s="70"/>
+      <c r="I74" s="68"/>
+      <c r="J74" s="68"/>
       <c r="K74" s="33"/>
       <c r="L74" s="33"/>
       <c r="M74" s="33">
@@ -7783,8 +7785,8 @@
         <f>IF($D75-SUM($E75:G75)&gt;H$5-SUM(H$7:H74),H$5-SUM(H$7:H74),$D75-SUM($E75:G75))</f>
         <v>0</v>
       </c>
-      <c r="I75" s="70"/>
-      <c r="J75" s="70"/>
+      <c r="I75" s="68"/>
+      <c r="J75" s="68"/>
       <c r="K75" s="33"/>
       <c r="L75" s="33"/>
       <c r="M75" s="33">
@@ -7874,8 +7876,8 @@
         <f>IF($D76-SUM($E76:G76)&gt;H$5-SUM(H$7:H75),H$5-SUM(H$7:H75),$D76-SUM($E76:G76))</f>
         <v>0</v>
       </c>
-      <c r="I76" s="70"/>
-      <c r="J76" s="70"/>
+      <c r="I76" s="68"/>
+      <c r="J76" s="68"/>
       <c r="K76" s="33"/>
       <c r="L76" s="33"/>
       <c r="M76" s="33">
@@ -7965,8 +7967,8 @@
         <f>IF($D77-SUM($E77:G77)&gt;H$5-SUM(H$7:H76),H$5-SUM(H$7:H76),$D77-SUM($E77:G77))</f>
         <v>0</v>
       </c>
-      <c r="I77" s="70"/>
-      <c r="J77" s="70"/>
+      <c r="I77" s="68"/>
+      <c r="J77" s="68"/>
       <c r="K77" s="33"/>
       <c r="L77" s="33"/>
       <c r="M77" s="33">
@@ -8056,8 +8058,8 @@
         <f>IF($D78-SUM($E78:G78)&gt;H$5-SUM(H$7:H77),H$5-SUM(H$7:H77),$D78-SUM($E78:G78))</f>
         <v>0</v>
       </c>
-      <c r="I78" s="70"/>
-      <c r="J78" s="70"/>
+      <c r="I78" s="68"/>
+      <c r="J78" s="68"/>
       <c r="K78" s="33"/>
       <c r="L78" s="33"/>
       <c r="M78" s="33">
@@ -8147,8 +8149,8 @@
         <f>IF($D79-SUM($E79:G79)&gt;H$5-SUM(H$7:H78),H$5-SUM(H$7:H78),$D79-SUM($E79:G79))</f>
         <v>0</v>
       </c>
-      <c r="I79" s="70"/>
-      <c r="J79" s="70"/>
+      <c r="I79" s="68"/>
+      <c r="J79" s="68"/>
       <c r="K79" s="33"/>
       <c r="L79" s="33"/>
       <c r="M79" s="33">
@@ -8238,8 +8240,8 @@
         <f>IF($D80-SUM($E80:G80)&gt;H$5-SUM(H$7:H79),H$5-SUM(H$7:H79),$D80-SUM($E80:G80))</f>
         <v>0</v>
       </c>
-      <c r="I80" s="70"/>
-      <c r="J80" s="70"/>
+      <c r="I80" s="68"/>
+      <c r="J80" s="68"/>
       <c r="K80" s="33"/>
       <c r="L80" s="33"/>
       <c r="M80" s="33">
@@ -8329,8 +8331,8 @@
         <f>IF($D81-SUM($E81:G81)&gt;H$5-SUM(H$7:H80),H$5-SUM(H$7:H80),$D81-SUM($E81:G81))</f>
         <v>0</v>
       </c>
-      <c r="I81" s="70"/>
-      <c r="J81" s="70"/>
+      <c r="I81" s="68"/>
+      <c r="J81" s="68"/>
       <c r="K81" s="33"/>
       <c r="L81" s="33"/>
       <c r="M81" s="33">
@@ -8420,8 +8422,8 @@
         <f>IF($D82-SUM($E82:G82)&gt;H$5-SUM(H$7:H81),H$5-SUM(H$7:H81),$D82-SUM($E82:G82))</f>
         <v>0</v>
       </c>
-      <c r="I82" s="70"/>
-      <c r="J82" s="70"/>
+      <c r="I82" s="68"/>
+      <c r="J82" s="68"/>
       <c r="K82" s="33"/>
       <c r="L82" s="33"/>
       <c r="M82" s="33">
@@ -8511,8 +8513,8 @@
         <f>IF($D83-SUM($E83:G83)&gt;H$5-SUM(H$7:H82),H$5-SUM(H$7:H82),$D83-SUM($E83:G83))</f>
         <v>0</v>
       </c>
-      <c r="I83" s="70"/>
-      <c r="J83" s="70"/>
+      <c r="I83" s="68"/>
+      <c r="J83" s="68"/>
       <c r="K83" s="33"/>
       <c r="L83" s="33"/>
       <c r="M83" s="33">
@@ -8602,8 +8604,8 @@
         <f>IF($D84-SUM($E84:G84)&gt;H$5-SUM(H$7:H83),H$5-SUM(H$7:H83),$D84-SUM($E84:G84))</f>
         <v>0</v>
       </c>
-      <c r="I84" s="70"/>
-      <c r="J84" s="70"/>
+      <c r="I84" s="68"/>
+      <c r="J84" s="68"/>
       <c r="K84" s="33"/>
       <c r="L84" s="33"/>
       <c r="M84" s="33">
@@ -8693,8 +8695,8 @@
         <f>IF($D85-SUM($E85:G85)&gt;H$5-SUM(H$7:H84),H$5-SUM(H$7:H84),$D85-SUM($E85:G85))</f>
         <v>0</v>
       </c>
-      <c r="I85" s="70"/>
-      <c r="J85" s="70"/>
+      <c r="I85" s="68"/>
+      <c r="J85" s="68"/>
       <c r="K85" s="33"/>
       <c r="L85" s="33"/>
       <c r="M85" s="33">
@@ -8784,8 +8786,8 @@
         <f>IF($D86-SUM($E86:G86)&gt;H$5-SUM(H$7:H85),H$5-SUM(H$7:H85),$D86-SUM($E86:G86))</f>
         <v>0</v>
       </c>
-      <c r="I86" s="70"/>
-      <c r="J86" s="70"/>
+      <c r="I86" s="68"/>
+      <c r="J86" s="68"/>
       <c r="K86" s="33"/>
       <c r="L86" s="33"/>
       <c r="M86" s="33">
@@ -8875,8 +8877,8 @@
         <f>IF($D87-SUM($E87:G87)&gt;H$5-SUM(H$7:H86),H$5-SUM(H$7:H86),$D87-SUM($E87:G87))</f>
         <v>0</v>
       </c>
-      <c r="I87" s="70"/>
-      <c r="J87" s="70"/>
+      <c r="I87" s="68"/>
+      <c r="J87" s="68"/>
       <c r="K87" s="33"/>
       <c r="L87" s="33"/>
       <c r="M87" s="33">
@@ -8966,8 +8968,8 @@
         <f>IF($D88-SUM($E88:G88)&gt;H$5-SUM(H$7:H87),H$5-SUM(H$7:H87),$D88-SUM($E88:G88))</f>
         <v>0</v>
       </c>
-      <c r="I88" s="70"/>
-      <c r="J88" s="70"/>
+      <c r="I88" s="68"/>
+      <c r="J88" s="68"/>
       <c r="K88" s="33"/>
       <c r="L88" s="33"/>
       <c r="M88" s="33">
@@ -9057,8 +9059,8 @@
         <f>IF($D89-SUM($E89:G89)&gt;H$5-SUM(H$7:H88),H$5-SUM(H$7:H88),$D89-SUM($E89:G89))</f>
         <v>0</v>
       </c>
-      <c r="I89" s="70"/>
-      <c r="J89" s="70"/>
+      <c r="I89" s="68"/>
+      <c r="J89" s="68"/>
       <c r="K89" s="33"/>
       <c r="L89" s="33"/>
       <c r="M89" s="33">
@@ -9148,8 +9150,8 @@
         <f>IF($D90-SUM($E90:G90)&gt;H$5-SUM(H$7:H89),H$5-SUM(H$7:H89),$D90-SUM($E90:G90))</f>
         <v>0</v>
       </c>
-      <c r="I90" s="70"/>
-      <c r="J90" s="70"/>
+      <c r="I90" s="68"/>
+      <c r="J90" s="68"/>
       <c r="K90" s="33"/>
       <c r="L90" s="33"/>
       <c r="M90" s="33">
@@ -9239,8 +9241,8 @@
         <f>IF($D91-SUM($E91:G91)&gt;H$5-SUM(H$7:H90),H$5-SUM(H$7:H90),$D91-SUM($E91:G91))</f>
         <v>0</v>
       </c>
-      <c r="I91" s="70"/>
-      <c r="J91" s="70"/>
+      <c r="I91" s="68"/>
+      <c r="J91" s="68"/>
       <c r="K91" s="33"/>
       <c r="L91" s="33"/>
       <c r="M91" s="33">
@@ -9330,8 +9332,8 @@
         <f>IF($D92-SUM($E92:G92)&gt;H$5-SUM(H$7:H91),H$5-SUM(H$7:H91),$D92-SUM($E92:G92))</f>
         <v>0</v>
       </c>
-      <c r="I92" s="70"/>
-      <c r="J92" s="70"/>
+      <c r="I92" s="68"/>
+      <c r="J92" s="68"/>
       <c r="K92" s="33"/>
       <c r="L92" s="33"/>
       <c r="M92" s="33">
@@ -9421,8 +9423,8 @@
         <f>IF($D93-SUM($E93:G93)&gt;H$5-SUM(H$7:H92),H$5-SUM(H$7:H92),$D93-SUM($E93:G93))</f>
         <v>0</v>
       </c>
-      <c r="I93" s="70"/>
-      <c r="J93" s="70"/>
+      <c r="I93" s="68"/>
+      <c r="J93" s="68"/>
       <c r="K93" s="33"/>
       <c r="L93" s="33"/>
       <c r="M93" s="33">
@@ -9512,8 +9514,8 @@
         <f>IF($D94-SUM($E94:G94)&gt;H$5-SUM(H$7:H93),H$5-SUM(H$7:H93),$D94-SUM($E94:G94))</f>
         <v>0</v>
       </c>
-      <c r="I94" s="70"/>
-      <c r="J94" s="70"/>
+      <c r="I94" s="68"/>
+      <c r="J94" s="68"/>
       <c r="K94" s="33"/>
       <c r="L94" s="33"/>
       <c r="M94" s="33">
@@ -9603,8 +9605,8 @@
         <f>IF($D95-SUM($E95:G95)&gt;H$5-SUM(H$7:H94),H$5-SUM(H$7:H94),$D95-SUM($E95:G95))</f>
         <v>0</v>
       </c>
-      <c r="I95" s="70"/>
-      <c r="J95" s="70"/>
+      <c r="I95" s="68"/>
+      <c r="J95" s="68"/>
       <c r="K95" s="33"/>
       <c r="L95" s="33"/>
       <c r="M95" s="33">
@@ -9694,8 +9696,8 @@
         <f>IF($D96-SUM($E96:G96)&gt;H$5-SUM(H$7:H95),H$5-SUM(H$7:H95),$D96-SUM($E96:G96))</f>
         <v>0</v>
       </c>
-      <c r="I96" s="70"/>
-      <c r="J96" s="70"/>
+      <c r="I96" s="68"/>
+      <c r="J96" s="68"/>
       <c r="K96" s="33"/>
       <c r="L96" s="33"/>
       <c r="M96" s="33">
@@ -9785,8 +9787,8 @@
         <f>IF($D97-SUM($E97:G97)&gt;H$5-SUM(H$7:H96),H$5-SUM(H$7:H96),$D97-SUM($E97:G97))</f>
         <v>0</v>
       </c>
-      <c r="I97" s="70"/>
-      <c r="J97" s="70"/>
+      <c r="I97" s="68"/>
+      <c r="J97" s="68"/>
       <c r="K97" s="33"/>
       <c r="L97" s="33"/>
       <c r="M97" s="33">
@@ -9876,8 +9878,8 @@
         <f>IF($D98-SUM($E98:G98)&gt;H$5-SUM(H$7:H97),H$5-SUM(H$7:H97),$D98-SUM($E98:G98))</f>
         <v>0</v>
       </c>
-      <c r="I98" s="70"/>
-      <c r="J98" s="70"/>
+      <c r="I98" s="68"/>
+      <c r="J98" s="68"/>
       <c r="K98" s="33"/>
       <c r="L98" s="33"/>
       <c r="M98" s="33">
@@ -9967,8 +9969,8 @@
         <f>IF($D99-SUM($E99:G99)&gt;H$5-SUM(H$7:H98),H$5-SUM(H$7:H98),$D99-SUM($E99:G99))</f>
         <v>0</v>
       </c>
-      <c r="I99" s="70"/>
-      <c r="J99" s="70"/>
+      <c r="I99" s="68"/>
+      <c r="J99" s="68"/>
       <c r="K99" s="33"/>
       <c r="L99" s="33"/>
       <c r="M99" s="33">
@@ -10058,8 +10060,8 @@
         <f>IF($D100-SUM($E100:G100)&gt;H$5-SUM(H$7:H99),H$5-SUM(H$7:H99),$D100-SUM($E100:G100))</f>
         <v>0</v>
       </c>
-      <c r="I100" s="70"/>
-      <c r="J100" s="70"/>
+      <c r="I100" s="68"/>
+      <c r="J100" s="68"/>
       <c r="K100" s="33"/>
       <c r="L100" s="33"/>
       <c r="M100" s="33">
@@ -10149,8 +10151,8 @@
         <f>IF($D101-SUM($E101:G101)&gt;H$5-SUM(H$7:H100),H$5-SUM(H$7:H100),$D101-SUM($E101:G101))</f>
         <v>0</v>
       </c>
-      <c r="I101" s="70"/>
-      <c r="J101" s="70"/>
+      <c r="I101" s="68"/>
+      <c r="J101" s="68"/>
       <c r="K101" s="33"/>
       <c r="L101" s="33"/>
       <c r="M101" s="33">
@@ -10240,8 +10242,8 @@
         <f>IF($D102-SUM($E102:G102)&gt;H$5-SUM(H$7:H101),H$5-SUM(H$7:H101),$D102-SUM($E102:G102))</f>
         <v>0</v>
       </c>
-      <c r="I102" s="70"/>
-      <c r="J102" s="70"/>
+      <c r="I102" s="68"/>
+      <c r="J102" s="68"/>
       <c r="K102" s="33"/>
       <c r="L102" s="33"/>
       <c r="M102" s="33">
@@ -10331,8 +10333,8 @@
         <f>IF($D103-SUM($E103:G103)&gt;H$5-SUM(H$7:H102),H$5-SUM(H$7:H102),$D103-SUM($E103:G103))</f>
         <v>0</v>
       </c>
-      <c r="I103" s="70"/>
-      <c r="J103" s="70"/>
+      <c r="I103" s="68"/>
+      <c r="J103" s="68"/>
       <c r="K103" s="33"/>
       <c r="L103" s="33"/>
       <c r="M103" s="33">
@@ -10422,8 +10424,8 @@
         <f>IF($D104-SUM($E104:G104)&gt;H$5-SUM(H$7:H103),H$5-SUM(H$7:H103),$D104-SUM($E104:G104))</f>
         <v>0</v>
       </c>
-      <c r="I104" s="70"/>
-      <c r="J104" s="70"/>
+      <c r="I104" s="68"/>
+      <c r="J104" s="68"/>
       <c r="K104" s="33"/>
       <c r="L104" s="33"/>
       <c r="M104" s="33">
@@ -10513,8 +10515,8 @@
         <f>IF($D105-SUM($E105:G105)&gt;H$5-SUM(H$7:H104),H$5-SUM(H$7:H104),$D105-SUM($E105:G105))</f>
         <v>0</v>
       </c>
-      <c r="I105" s="70"/>
-      <c r="J105" s="70"/>
+      <c r="I105" s="68"/>
+      <c r="J105" s="68"/>
       <c r="K105" s="33"/>
       <c r="L105" s="33"/>
       <c r="M105" s="33">
@@ -10604,8 +10606,8 @@
         <f>IF($D106-SUM($E106:G106)&gt;H$5-SUM(H$7:H105),H$5-SUM(H$7:H105),$D106-SUM($E106:G106))</f>
         <v>0</v>
       </c>
-      <c r="I106" s="70"/>
-      <c r="J106" s="70"/>
+      <c r="I106" s="68"/>
+      <c r="J106" s="68"/>
       <c r="K106" s="33"/>
       <c r="L106" s="33"/>
       <c r="M106" s="33">
@@ -10695,8 +10697,8 @@
         <f>IF($D107-SUM($E107:G107)&gt;H$5-SUM(H$7:H106),H$5-SUM(H$7:H106),$D107-SUM($E107:G107))</f>
         <v>0</v>
       </c>
-      <c r="I107" s="71"/>
-      <c r="J107" s="71"/>
+      <c r="I107" s="69"/>
+      <c r="J107" s="69"/>
       <c r="K107" s="60"/>
       <c r="L107" s="60"/>
       <c r="M107" s="60">
@@ -10866,10 +10868,10 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B2" s="65" t="s">
+      <c r="B2" s="70" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="66"/>
+      <c r="C2" s="71"/>
     </row>
     <row r="3" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B3" s="3"/>
@@ -10940,6 +10942,29 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <jeb5123c558143d5ab1e1526e87a8da0 xmlns="b7e4e9fd-5e36-4299-889f-f6136aff670e">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </jeb5123c558143d5ab1e1526e87a8da0>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <Cohort xmlns="b7e4e9fd-5e36-4299-889f-f6136aff670e"/>
+    <TaxCatchAll xmlns="fbafb59e-d651-4668-8e65-f7f85ceca18b"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101000C5151218AB56640BDBA68249A073511" ma:contentTypeVersion="23" ma:contentTypeDescription="Een nieuw document maken." ma:contentTypeScope="" ma:versionID="a1da3f48426d5c2cead333d31125cb2a">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="b7e4e9fd-5e36-4299-889f-f6136aff670e" xmlns:ns3="fbafb59e-d651-4668-8e65-f7f85ceca18b" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="1529523bac735da72c0db022ce5932da" ns1:_="" ns2:_="" ns3:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -11214,30 +11239,27 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1C73059C-C1E8-4277-A8B4-81AF0BAF2A41}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="b7e4e9fd-5e36-4299-889f-f6136aff670e"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="fbafb59e-d651-4668-8e65-f7f85ceca18b"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <jeb5123c558143d5ab1e1526e87a8da0 xmlns="b7e4e9fd-5e36-4299-889f-f6136aff670e">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </jeb5123c558143d5ab1e1526e87a8da0>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <Cohort xmlns="b7e4e9fd-5e36-4299-889f-f6136aff670e"/>
-    <TaxCatchAll xmlns="fbafb59e-d651-4668-8e65-f7f85ceca18b"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E69471D0-9E76-49CC-83BD-A0DADDC861F7}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7CD165FD-9EB2-417A-BD8F-C3BE3D0B7D37}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -11255,24 +11277,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E69471D0-9E76-49CC-83BD-A0DADDC861F7}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1C73059C-C1E8-4277-A8B4-81AF0BAF2A41}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="b7e4e9fd-5e36-4299-889f-f6136aff670e"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="fbafb59e-d651-4668-8e65-f7f85ceca18b"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Documentatie/200108 BR Sjabloon Strokenplanning.xlsx
+++ b/Documentatie/200108 BR Sjabloon Strokenplanning.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SchoolProject\RPM-Proftaak\Documentatie\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{469055F4-5737-46E4-AD64-7B0EB393B427}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42A62989-5CAC-4509-AD54-77D0330A9F99}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1472,7 +1472,7 @@
       <pane xSplit="5" ySplit="7" topLeftCell="F8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C5" sqref="C5"/>
       <selection pane="bottomLeft" activeCell="C5" sqref="C5"/>
-      <selection pane="bottomRight" activeCell="O12" sqref="O12"/>
+      <selection pane="bottomRight" activeCell="P15" sqref="P15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1999,7 +1999,9 @@
         <v>21</v>
       </c>
       <c r="C10" s="23"/>
-      <c r="D10" s="24"/>
+      <c r="D10" s="24">
+        <v>1.5</v>
+      </c>
       <c r="E10" s="29"/>
       <c r="F10" s="33">
         <f>IF($D10-SUM($E10:E10)&gt;F$5-SUM(F$7:F9),F$5-SUM(F$7:F9),$D10-SUM($E10:E10))</f>
@@ -2056,7 +2058,9 @@
       <c r="K11" s="33"/>
       <c r="L11" s="33"/>
       <c r="M11" s="33"/>
-      <c r="N11" s="33"/>
+      <c r="N11" s="33">
+        <v>3.5</v>
+      </c>
       <c r="O11" s="33"/>
       <c r="P11" s="33"/>
       <c r="Q11" s="33"/>
@@ -10942,29 +10946,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <jeb5123c558143d5ab1e1526e87a8da0 xmlns="b7e4e9fd-5e36-4299-889f-f6136aff670e">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </jeb5123c558143d5ab1e1526e87a8da0>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <Cohort xmlns="b7e4e9fd-5e36-4299-889f-f6136aff670e"/>
-    <TaxCatchAll xmlns="fbafb59e-d651-4668-8e65-f7f85ceca18b"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101000C5151218AB56640BDBA68249A073511" ma:contentTypeVersion="23" ma:contentTypeDescription="Een nieuw document maken." ma:contentTypeScope="" ma:versionID="a1da3f48426d5c2cead333d31125cb2a">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="b7e4e9fd-5e36-4299-889f-f6136aff670e" xmlns:ns3="fbafb59e-d651-4668-8e65-f7f85ceca18b" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="1529523bac735da72c0db022ce5932da" ns1:_="" ns2:_="" ns3:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -11239,27 +11220,30 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1C73059C-C1E8-4277-A8B4-81AF0BAF2A41}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="b7e4e9fd-5e36-4299-889f-f6136aff670e"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="fbafb59e-d651-4668-8e65-f7f85ceca18b"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E69471D0-9E76-49CC-83BD-A0DADDC861F7}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <jeb5123c558143d5ab1e1526e87a8da0 xmlns="b7e4e9fd-5e36-4299-889f-f6136aff670e">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </jeb5123c558143d5ab1e1526e87a8da0>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <Cohort xmlns="b7e4e9fd-5e36-4299-889f-f6136aff670e"/>
+    <TaxCatchAll xmlns="fbafb59e-d651-4668-8e65-f7f85ceca18b"/>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7CD165FD-9EB2-417A-BD8F-C3BE3D0B7D37}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -11277,4 +11261,24 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E69471D0-9E76-49CC-83BD-A0DADDC861F7}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1C73059C-C1E8-4277-A8B4-81AF0BAF2A41}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="b7e4e9fd-5e36-4299-889f-f6136aff670e"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="fbafb59e-d651-4668-8e65-f7f85ceca18b"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Documentatie/200108 BR Sjabloon Strokenplanning.xlsx
+++ b/Documentatie/200108 BR Sjabloon Strokenplanning.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SchoolProject\RPM-Proftaak\Documentatie\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42A62989-5CAC-4509-AD54-77D0330A9F99}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD97C7C0-9F1C-4B20-87CA-CABB2F5A0A71}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1472,7 +1472,7 @@
       <pane xSplit="5" ySplit="7" topLeftCell="F8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C5" sqref="C5"/>
       <selection pane="bottomLeft" activeCell="C5" sqref="C5"/>
-      <selection pane="bottomRight" activeCell="P15" sqref="P15"/>
+      <selection pane="bottomRight" activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2061,7 +2061,9 @@
       <c r="N11" s="33">
         <v>3.5</v>
       </c>
-      <c r="O11" s="33"/>
+      <c r="O11" s="33">
+        <v>1.5</v>
+      </c>
       <c r="P11" s="33"/>
       <c r="Q11" s="33"/>
       <c r="R11" s="33"/>
@@ -10946,6 +10948,29 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <jeb5123c558143d5ab1e1526e87a8da0 xmlns="b7e4e9fd-5e36-4299-889f-f6136aff670e">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </jeb5123c558143d5ab1e1526e87a8da0>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <Cohort xmlns="b7e4e9fd-5e36-4299-889f-f6136aff670e"/>
+    <TaxCatchAll xmlns="fbafb59e-d651-4668-8e65-f7f85ceca18b"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101000C5151218AB56640BDBA68249A073511" ma:contentTypeVersion="23" ma:contentTypeDescription="Een nieuw document maken." ma:contentTypeScope="" ma:versionID="a1da3f48426d5c2cead333d31125cb2a">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="b7e4e9fd-5e36-4299-889f-f6136aff670e" xmlns:ns3="fbafb59e-d651-4668-8e65-f7f85ceca18b" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="1529523bac735da72c0db022ce5932da" ns1:_="" ns2:_="" ns3:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -11220,30 +11245,27 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1C73059C-C1E8-4277-A8B4-81AF0BAF2A41}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="b7e4e9fd-5e36-4299-889f-f6136aff670e"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="fbafb59e-d651-4668-8e65-f7f85ceca18b"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <jeb5123c558143d5ab1e1526e87a8da0 xmlns="b7e4e9fd-5e36-4299-889f-f6136aff670e">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </jeb5123c558143d5ab1e1526e87a8da0>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <Cohort xmlns="b7e4e9fd-5e36-4299-889f-f6136aff670e"/>
-    <TaxCatchAll xmlns="fbafb59e-d651-4668-8e65-f7f85ceca18b"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E69471D0-9E76-49CC-83BD-A0DADDC861F7}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7CD165FD-9EB2-417A-BD8F-C3BE3D0B7D37}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -11261,24 +11283,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E69471D0-9E76-49CC-83BD-A0DADDC861F7}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1C73059C-C1E8-4277-A8B4-81AF0BAF2A41}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="b7e4e9fd-5e36-4299-889f-f6136aff670e"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="fbafb59e-d651-4668-8e65-f7f85ceca18b"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>